--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -353,7 +353,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Administrar órdenes de compra</t>
+Gestionar estado de órdenes de compra</t>
         </r>
       </text>
     </comment>
@@ -449,7 +449,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Administrar productos</t>
+Administra Órdenes de compra</t>
         </r>
       </text>
     </comment>
@@ -463,17 +463,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Diana Estefania:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Gestionar estado de ordenes de compra</t>
+          <t>Diana Estefania:
+Administrar productos (F)</t>
         </r>
       </text>
     </comment>
@@ -1825,8 +1816,8 @@
   <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S31" sqref="S31"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,11 +3268,13 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF18" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
@@ -3573,7 +3566,9 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
+      <c r="AD22" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -3646,12 +3641,8 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF23" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Administrar Clientes</t>
+Administrar perfiles de usuarios</t>
         </r>
       </text>
     </comment>
@@ -113,7 +113,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Check in</t>
+Administrar Clientes</t>
         </r>
       </text>
     </comment>
@@ -137,7 +137,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Consultar habitaciones disponibles</t>
+Check in</t>
         </r>
       </text>
     </comment>
@@ -161,7 +161,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Gestionar reserva</t>
+Consultar habitaciones disponibles</t>
         </r>
       </text>
     </comment>
@@ -185,7 +185,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Registrar reserva web</t>
+Gestionar reserva</t>
         </r>
       </text>
     </comment>
@@ -209,7 +209,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Gestionar cliente web</t>
+Registrar reserva web</t>
         </r>
       </text>
     </comment>
@@ -233,7 +233,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Check-out</t>
+Gestionar cliente web</t>
         </r>
       </text>
     </comment>
@@ -257,7 +257,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Gestionar servicios de reserva</t>
+Check-out</t>
         </r>
       </text>
     </comment>
@@ -281,7 +281,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Generar reportes gerenciales</t>
+Gestionar servicios de reserva</t>
         </r>
       </text>
     </comment>
@@ -305,11 +305,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Solicitar servicios de recojo</t>
+Generar reportes gerenciales</t>
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0">
+    <comment ref="A16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +329,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Administrar proveedores</t>
+Solicitar servicios de recojo</t>
         </r>
       </text>
     </comment>
@@ -353,7 +353,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Gestionar estado de órdenes de compra</t>
+Administrar proveedores</t>
         </r>
       </text>
     </comment>
@@ -377,7 +377,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Registrar pago de compras</t>
+Gestionar estado de órdenes de compra</t>
         </r>
       </text>
     </comment>
@@ -401,7 +401,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Registrar recepción de productos solicitados</t>
+Registrar pago de compras</t>
         </r>
       </text>
     </comment>
@@ -425,7 +425,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Generar reporte de compras</t>
+Registrar recepción de productos solicitados</t>
         </r>
       </text>
     </comment>
@@ -449,7 +449,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Administra Órdenes de compra</t>
+Generar reporte de compras</t>
         </r>
       </text>
     </comment>
@@ -463,8 +463,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Diana Estefania:
-Administrar productos (F)</t>
+          <t>Diana Estefania:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Administra Órdenes de compra</t>
         </r>
       </text>
     </comment>
@@ -478,17 +487,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Diana Estefania:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Modificar tipo de cambio</t>
+          <t>Diana Estefania:
+Administrar productos (F)</t>
         </r>
       </text>
     </comment>
@@ -512,7 +512,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Generar pago de servicios</t>
+Modificar tipo de cambio</t>
         </r>
       </text>
     </comment>
@@ -536,7 +536,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Validar tarjeta de credito</t>
+Generar pago de servicios</t>
         </r>
       </text>
     </comment>
@@ -560,7 +560,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Imprimir factura</t>
+Validar tarjeta de credito</t>
         </r>
       </text>
     </comment>
@@ -584,7 +584,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Imprimir boleta</t>
+Imprimir factura</t>
         </r>
       </text>
     </comment>
@@ -608,11 +608,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Generar reporte de ventas</t>
+Imprimir boleta</t>
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0">
+    <comment ref="A30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Configurar Cadena</t>
+Generar reporte de ventas</t>
         </r>
       </text>
     </comment>
@@ -656,7 +656,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Configurar hotel</t>
+Configurar Cadena</t>
         </r>
       </text>
     </comment>
@@ -680,7 +680,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Configurar servicios</t>
+Configurar hotel</t>
         </r>
       </text>
     </comment>
@@ -704,7 +704,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Configurar base de datos</t>
+Configurar servicios</t>
         </r>
       </text>
     </comment>
@@ -728,7 +728,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Administrar empleados</t>
+Configurar base de datos</t>
         </r>
       </text>
     </comment>
@@ -752,7 +752,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Registrar asistencia</t>
+Administrar empleados</t>
         </r>
       </text>
     </comment>
@@ -776,11 +776,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Generar reporte de recursos humanos</t>
+Registrar asistencia</t>
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -800,7 +800,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Registrar pago de evento</t>
+Generar reporte de recursos humanos</t>
         </r>
       </text>
     </comment>
@@ -824,7 +824,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-registrar evento</t>
+Registrar pago de evento</t>
         </r>
       </text>
     </comment>
@@ -848,7 +848,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Administrar promociones</t>
+registrar evento</t>
         </r>
       </text>
     </comment>
@@ -872,7 +872,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Generar reporte de eventos</t>
+Administrar promociones</t>
         </r>
       </text>
     </comment>
@@ -896,7 +896,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Generar reporte de promociones</t>
+Generar reporte de eventos</t>
         </r>
       </text>
     </comment>
@@ -920,7 +920,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Aplicar promoción web</t>
+Generar reporte de promociones</t>
         </r>
       </text>
     </comment>
@@ -944,11 +944,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Aplicar promoción</t>
+Aplicar promoción web</t>
         </r>
       </text>
     </comment>
     <comment ref="A46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Diana Estefania:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aplicar promoción</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -977,7 +1001,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
   <si>
     <t>A1</t>
   </si>
@@ -1322,6 +1346,9 @@
   </si>
   <si>
     <t>COM07</t>
+  </si>
+  <si>
+    <t>SEG03</t>
   </si>
 </sst>
 </file>
@@ -1813,11 +1840,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H26" sqref="H26"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,13 +2211,11 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2257,167 +2282,169 @@
       <c r="BP4" s="10"/>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="21"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="21"/>
-      <c r="BF5" s="21"/>
-      <c r="BG5" s="21"/>
-      <c r="BH5" s="21"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="21"/>
-      <c r="BK5" s="21"/>
-      <c r="BL5" s="21"/>
-      <c r="BM5" s="21"/>
-      <c r="BN5" s="21"/>
-      <c r="BO5" s="22"/>
-      <c r="BP5" s="14"/>
+      <c r="A5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="10"/>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="10"/>
+      <c r="A6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="22"/>
+      <c r="BP6" s="14"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -2478,7 +2505,7 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2488,10 +2515,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -2552,46 +2579,34 @@
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="8"/>
+      <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="Y9" s="7"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
@@ -2638,38 +2653,46 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="R10" s="8"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7" t="s">
+      <c r="U10" s="7"/>
+      <c r="V10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="7"/>
+      <c r="W10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -2716,7 +2739,7 @@
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2734,15 +2757,19 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="U11" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
+      <c r="X11" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
@@ -2790,7 +2817,7 @@
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2806,12 +2833,12 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -2864,7 +2891,7 @@
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2877,20 +2904,16 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
@@ -2942,7 +2965,7 @@
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2955,16 +2978,20 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -2983,9 +3010,7 @@
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
-      <c r="AM14" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="12"/>
@@ -3018,16 +3043,14 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -3039,7 +3062,9 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="S15" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -3059,7 +3084,9 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
+      <c r="AM15" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="12"/>
@@ -3091,154 +3118,154 @@
       <c r="BP15" s="10"/>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="21"/>
-      <c r="BG16" s="21"/>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="21"/>
-      <c r="BJ16" s="21"/>
-      <c r="BK16" s="21"/>
-      <c r="BL16" s="21"/>
-      <c r="BM16" s="21"/>
-      <c r="BN16" s="21"/>
-      <c r="BO16" s="22"/>
-      <c r="BP16" s="14"/>
+      <c r="A16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="10"/>
+      <c r="BM16" s="10"/>
+      <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="10"/>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="10"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="10"/>
-      <c r="BK17" s="10"/>
-      <c r="BL17" s="10"/>
-      <c r="BM17" s="10"/>
-      <c r="BN17" s="10"/>
-      <c r="BO17" s="10"/>
-      <c r="BP17" s="10"/>
+      <c r="A17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="21"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="21"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
+      <c r="BK17" s="21"/>
+      <c r="BL17" s="21"/>
+      <c r="BM17" s="21"/>
+      <c r="BN17" s="21"/>
+      <c r="BO17" s="22"/>
+      <c r="BP17" s="14"/>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3267,14 +3294,12 @@
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
+      <c r="AC18" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AD18" s="9"/>
-      <c r="AE18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF18" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
@@ -3314,7 +3339,7 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3345,13 +3370,15 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
+      <c r="AE19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
-      <c r="AI19" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
@@ -3388,7 +3415,7 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3421,11 +3448,11 @@
       <c r="AD20" s="9"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
-      <c r="AG20" s="9" t="s">
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
@@ -3462,7 +3489,7 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3495,12 +3522,12 @@
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
+      <c r="AG21" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
-      <c r="AJ21" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
@@ -3536,7 +3563,7 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3566,15 +3593,15 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
-      <c r="AD22" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
+      <c r="AJ22" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
@@ -3610,7 +3637,7 @@
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3640,7 +3667,9 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
+      <c r="AD23" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
@@ -3682,7 +3711,7 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3754,7 +3783,7 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3769,9 +3798,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -3782,9 +3809,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
@@ -3806,9 +3831,7 @@
       <c r="AS25" s="11"/>
       <c r="AT25" s="11"/>
       <c r="AU25" s="11"/>
-      <c r="AV25" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="AV25" s="11"/>
       <c r="AW25" s="11"/>
       <c r="AX25" s="11"/>
       <c r="AY25" s="11"/>
@@ -3832,7 +3855,7 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3847,7 +3870,9 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -3858,7 +3883,9 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="9"/>
+      <c r="Z26" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
@@ -3880,7 +3907,9 @@
       <c r="AS26" s="11"/>
       <c r="AT26" s="11"/>
       <c r="AU26" s="11"/>
-      <c r="AV26" s="11"/>
+      <c r="AV26" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AW26" s="11"/>
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
@@ -3904,7 +3933,7 @@
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3932,17 +3961,13 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
-      <c r="AB27" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
-      <c r="AH27" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AH27" s="9"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
@@ -3980,7 +4005,7 @@
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4007,16 +4032,18 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="9"/>
-      <c r="AA28" s="9" t="s">
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
+      <c r="AH28" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
@@ -4054,7 +4081,7 @@
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4081,7 +4108,9 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
+      <c r="AA29" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
@@ -4125,156 +4154,152 @@
       <c r="BP29" s="10"/>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="18"/>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="18"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="18"/>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="18"/>
-      <c r="AS30" s="18"/>
-      <c r="AT30" s="18"/>
-      <c r="AU30" s="18"/>
-      <c r="AV30" s="18"/>
-      <c r="AW30" s="18"/>
-      <c r="AX30" s="18"/>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="18"/>
-      <c r="BA30" s="18"/>
-      <c r="BB30" s="18"/>
-      <c r="BC30" s="18"/>
-      <c r="BD30" s="18"/>
-      <c r="BE30" s="18"/>
-      <c r="BF30" s="18"/>
-      <c r="BG30" s="18"/>
-      <c r="BH30" s="18"/>
-      <c r="BI30" s="18"/>
-      <c r="BJ30" s="18"/>
-      <c r="BK30" s="18"/>
-      <c r="BL30" s="18"/>
-      <c r="BM30" s="18"/>
-      <c r="BN30" s="18"/>
-      <c r="BO30" s="19"/>
-      <c r="BP30" s="15"/>
+      <c r="A30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="10"/>
+      <c r="BF30" s="10"/>
+      <c r="BG30" s="10"/>
+      <c r="BH30" s="10"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="10"/>
+      <c r="BK30" s="10"/>
+      <c r="BL30" s="10"/>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
+      <c r="BO30" s="10"/>
+      <c r="BP30" s="10"/>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="9"/>
-      <c r="AP31" s="12"/>
-      <c r="AQ31" s="12"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="12"/>
-      <c r="AT31" s="12"/>
-      <c r="AU31" s="12"/>
-      <c r="AV31" s="12"/>
-      <c r="AW31" s="12"/>
-      <c r="AX31" s="12"/>
-      <c r="AY31" s="12"/>
-      <c r="AZ31" s="12"/>
-      <c r="BA31" s="10"/>
-      <c r="BB31" s="10"/>
-      <c r="BC31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD31" s="10"/>
-      <c r="BE31" s="10"/>
-      <c r="BF31" s="10"/>
-      <c r="BG31" s="10"/>
-      <c r="BH31" s="10"/>
-      <c r="BI31" s="10"/>
-      <c r="BJ31" s="10"/>
-      <c r="BK31" s="10"/>
-      <c r="BL31" s="10"/>
-      <c r="BM31" s="10"/>
-      <c r="BN31" s="10"/>
-      <c r="BO31" s="10"/>
-      <c r="BP31" s="10"/>
+      <c r="A31" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="18"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="18"/>
+      <c r="AS31" s="18"/>
+      <c r="AT31" s="18"/>
+      <c r="AU31" s="18"/>
+      <c r="AV31" s="18"/>
+      <c r="AW31" s="18"/>
+      <c r="AX31" s="18"/>
+      <c r="AY31" s="18"/>
+      <c r="AZ31" s="18"/>
+      <c r="BA31" s="18"/>
+      <c r="BB31" s="18"/>
+      <c r="BC31" s="18"/>
+      <c r="BD31" s="18"/>
+      <c r="BE31" s="18"/>
+      <c r="BF31" s="18"/>
+      <c r="BG31" s="18"/>
+      <c r="BH31" s="18"/>
+      <c r="BI31" s="18"/>
+      <c r="BJ31" s="18"/>
+      <c r="BK31" s="18"/>
+      <c r="BL31" s="18"/>
+      <c r="BM31" s="18"/>
+      <c r="BN31" s="18"/>
+      <c r="BO31" s="19"/>
+      <c r="BP31" s="15"/>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4291,7 +4316,9 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="Q32" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -4311,12 +4338,8 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
-      <c r="AK32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL32" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
       <c r="AM32" s="9"/>
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
@@ -4331,40 +4354,28 @@
       <c r="AX32" s="12"/>
       <c r="AY32" s="12"/>
       <c r="AZ32" s="12"/>
-      <c r="BA32" s="10" t="s">
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BB32" s="10"/>
-      <c r="BC32" s="10"/>
-      <c r="BD32" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="BD32" s="10"/>
       <c r="BE32" s="10"/>
-      <c r="BF32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG32" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="BF32" s="10"/>
+      <c r="BG32" s="10"/>
       <c r="BH32" s="10"/>
       <c r="BI32" s="10"/>
       <c r="BJ32" s="10"/>
       <c r="BK32" s="10"/>
-      <c r="BL32" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BL32" s="10"/>
       <c r="BM32" s="10"/>
-      <c r="BN32" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO32" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BN32" s="10"/>
+      <c r="BO32" s="10"/>
       <c r="BP32" s="10"/>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4401,8 +4412,12 @@
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
+      <c r="AK33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL33" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AM33" s="9"/>
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
@@ -4417,30 +4432,40 @@
       <c r="AX33" s="12"/>
       <c r="AY33" s="12"/>
       <c r="AZ33" s="12"/>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="10" t="s">
+      <c r="BA33" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="BB33" s="10"/>
       <c r="BC33" s="10"/>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="10" t="s">
+      <c r="BD33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="10"/>
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG33" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="BH33" s="10"/>
       <c r="BI33" s="10"/>
       <c r="BJ33" s="10"/>
       <c r="BK33" s="10"/>
-      <c r="BL33" s="10"/>
+      <c r="BL33" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="BM33" s="10"/>
-      <c r="BN33" s="10"/>
-      <c r="BO33" s="10"/>
+      <c r="BN33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO33" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="BP33" s="10"/>
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4494,10 +4519,14 @@
       <c r="AY34" s="12"/>
       <c r="AZ34" s="12"/>
       <c r="BA34" s="10"/>
-      <c r="BB34" s="10"/>
+      <c r="BB34" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="BC34" s="10"/>
       <c r="BD34" s="10"/>
-      <c r="BE34" s="10"/>
+      <c r="BE34" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="BF34" s="10"/>
       <c r="BG34" s="10"/>
       <c r="BH34" s="10"/>
@@ -4508,13 +4537,11 @@
       <c r="BM34" s="10"/>
       <c r="BN34" s="10"/>
       <c r="BO34" s="10"/>
-      <c r="BP34" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BP34" s="10"/>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4574,28 +4601,26 @@
       <c r="BE35" s="10"/>
       <c r="BF35" s="10"/>
       <c r="BG35" s="10"/>
-      <c r="BH35" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI35" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ35" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BH35" s="10"/>
+      <c r="BI35" s="10"/>
+      <c r="BJ35" s="10"/>
       <c r="BK35" s="10"/>
       <c r="BL35" s="10"/>
       <c r="BM35" s="10"/>
       <c r="BN35" s="10"/>
       <c r="BO35" s="10"/>
-      <c r="BP35" s="10"/>
+      <c r="BP35" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -4652,12 +4677,16 @@
       <c r="BE36" s="10"/>
       <c r="BF36" s="10"/>
       <c r="BG36" s="10"/>
-      <c r="BH36" s="10"/>
-      <c r="BI36" s="10"/>
-      <c r="BJ36" s="10"/>
-      <c r="BK36" s="10" t="s">
+      <c r="BH36" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="BI36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK36" s="10"/>
       <c r="BL36" s="10"/>
       <c r="BM36" s="10"/>
       <c r="BN36" s="10"/>
@@ -4666,7 +4695,7 @@
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4729,166 +4758,164 @@
       <c r="BH37" s="10"/>
       <c r="BI37" s="10"/>
       <c r="BJ37" s="10"/>
-      <c r="BK37" s="10"/>
+      <c r="BK37" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="BL37" s="10"/>
-      <c r="BM37" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BM37" s="10"/>
       <c r="BN37" s="10"/>
       <c r="BO37" s="10"/>
       <c r="BP37" s="10"/>
     </row>
     <row r="38" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="16"/>
-      <c r="AM38" s="16"/>
-      <c r="AN38" s="16"/>
-      <c r="AO38" s="16"/>
-      <c r="AP38" s="16"/>
-      <c r="AQ38" s="16"/>
-      <c r="AR38" s="16"/>
-      <c r="AS38" s="16"/>
-      <c r="AT38" s="16"/>
-      <c r="AU38" s="16"/>
-      <c r="AV38" s="16"/>
-      <c r="AW38" s="16"/>
-      <c r="AX38" s="16"/>
-      <c r="AY38" s="16"/>
-      <c r="AZ38" s="16"/>
-      <c r="BA38" s="16"/>
-      <c r="BB38" s="16"/>
-      <c r="BC38" s="16"/>
-      <c r="BD38" s="16"/>
-      <c r="BE38" s="16"/>
-      <c r="BF38" s="16"/>
-      <c r="BG38" s="16"/>
-      <c r="BH38" s="16"/>
-      <c r="BI38" s="16"/>
-      <c r="BJ38" s="16"/>
-      <c r="BK38" s="16"/>
-      <c r="BL38" s="16"/>
-      <c r="BM38" s="16"/>
-      <c r="BN38" s="16"/>
-      <c r="BO38" s="16"/>
-      <c r="BP38" s="14"/>
+      <c r="A38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="10"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="10"/>
+      <c r="BE38" s="10"/>
+      <c r="BF38" s="10"/>
+      <c r="BG38" s="10"/>
+      <c r="BH38" s="10"/>
+      <c r="BI38" s="10"/>
+      <c r="BJ38" s="10"/>
+      <c r="BK38" s="10"/>
+      <c r="BL38" s="10"/>
+      <c r="BM38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN38" s="10"/>
+      <c r="BO38" s="10"/>
+      <c r="BP38" s="10"/>
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
-      <c r="AK39" s="9"/>
-      <c r="AL39" s="9"/>
-      <c r="AM39" s="9"/>
-      <c r="AN39" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO39" s="9"/>
-      <c r="AP39" s="11"/>
-      <c r="AQ39" s="11"/>
-      <c r="AR39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS39" s="11"/>
-      <c r="AT39" s="11"/>
-      <c r="AU39" s="11"/>
-      <c r="AV39" s="11"/>
-      <c r="AW39" s="11"/>
-      <c r="AX39" s="11"/>
-      <c r="AY39" s="11"/>
-      <c r="AZ39" s="11"/>
-      <c r="BA39" s="10"/>
-      <c r="BB39" s="10"/>
-      <c r="BC39" s="10"/>
-      <c r="BD39" s="10"/>
-      <c r="BE39" s="10"/>
-      <c r="BF39" s="10"/>
-      <c r="BG39" s="10"/>
-      <c r="BH39" s="10"/>
-      <c r="BI39" s="10"/>
-      <c r="BJ39" s="10"/>
-      <c r="BK39" s="10"/>
-      <c r="BL39" s="10"/>
-      <c r="BM39" s="10"/>
-      <c r="BN39" s="10"/>
-      <c r="BO39" s="10"/>
-      <c r="BP39" s="10"/>
+      <c r="A39" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="16"/>
+      <c r="AT39" s="16"/>
+      <c r="AU39" s="16"/>
+      <c r="AV39" s="16"/>
+      <c r="AW39" s="16"/>
+      <c r="AX39" s="16"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="16"/>
+      <c r="BA39" s="16"/>
+      <c r="BB39" s="16"/>
+      <c r="BC39" s="16"/>
+      <c r="BD39" s="16"/>
+      <c r="BE39" s="16"/>
+      <c r="BF39" s="16"/>
+      <c r="BG39" s="16"/>
+      <c r="BH39" s="16"/>
+      <c r="BI39" s="16"/>
+      <c r="BJ39" s="16"/>
+      <c r="BK39" s="16"/>
+      <c r="BL39" s="16"/>
+      <c r="BM39" s="16"/>
+      <c r="BN39" s="16"/>
+      <c r="BO39" s="16"/>
+      <c r="BP39" s="14"/>
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4928,18 +4955,16 @@
       <c r="AK40" s="9"/>
       <c r="AL40" s="9"/>
       <c r="AM40" s="9"/>
-      <c r="AN40" s="9"/>
+      <c r="AN40" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AO40" s="9"/>
-      <c r="AP40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR40" s="11"/>
-      <c r="AS40" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS40" s="11"/>
       <c r="AT40" s="11"/>
       <c r="AU40" s="11"/>
       <c r="AV40" s="11"/>
@@ -4966,7 +4991,7 @@
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5008,13 +5033,17 @@
       <c r="AM41" s="9"/>
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
-      <c r="AP41" s="11"/>
-      <c r="AQ41" s="11"/>
+      <c r="AP41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ41" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="AR41" s="11"/>
-      <c r="AS41" s="11"/>
-      <c r="AT41" s="11" t="s">
+      <c r="AS41" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="AT41" s="11"/>
       <c r="AU41" s="11"/>
       <c r="AV41" s="11"/>
       <c r="AW41" s="11"/>
@@ -5040,7 +5069,7 @@
     </row>
     <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5086,10 +5115,10 @@
       <c r="AQ42" s="11"/>
       <c r="AR42" s="11"/>
       <c r="AS42" s="11"/>
-      <c r="AT42" s="11"/>
-      <c r="AU42" s="11" t="s">
+      <c r="AT42" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="AU42" s="11"/>
       <c r="AV42" s="11"/>
       <c r="AW42" s="11"/>
       <c r="AX42" s="11"/>
@@ -5114,7 +5143,7 @@
     </row>
     <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -5161,14 +5190,14 @@
       <c r="AR43" s="11"/>
       <c r="AS43" s="11"/>
       <c r="AT43" s="11"/>
-      <c r="AU43" s="11"/>
+      <c r="AU43" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="AV43" s="11"/>
       <c r="AW43" s="11"/>
       <c r="AX43" s="11"/>
       <c r="AY43" s="11"/>
-      <c r="AZ43" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="AZ43" s="11"/>
       <c r="BA43" s="10"/>
       <c r="BB43" s="10"/>
       <c r="BC43" s="10"/>
@@ -5188,7 +5217,7 @@
     </row>
     <row r="44" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -5239,10 +5268,10 @@
       <c r="AV44" s="11"/>
       <c r="AW44" s="11"/>
       <c r="AX44" s="11"/>
-      <c r="AY44" s="11" t="s">
+      <c r="AY44" s="11"/>
+      <c r="AZ44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AZ44" s="11"/>
       <c r="BA44" s="10"/>
       <c r="BB44" s="10"/>
       <c r="BC44" s="10"/>
@@ -5262,7 +5291,7 @@
     </row>
     <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5312,10 +5341,10 @@
       <c r="AU45" s="11"/>
       <c r="AV45" s="11"/>
       <c r="AW45" s="11"/>
-      <c r="AX45" s="11" t="s">
+      <c r="AX45" s="11"/>
+      <c r="AY45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY45" s="11"/>
       <c r="AZ45" s="11"/>
       <c r="BA45" s="10"/>
       <c r="BB45" s="10"/>
@@ -5336,7 +5365,7 @@
     </row>
     <row r="46" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5385,10 +5414,10 @@
       <c r="AT46" s="11"/>
       <c r="AU46" s="11"/>
       <c r="AV46" s="11"/>
-      <c r="AW46" s="11" t="s">
+      <c r="AW46" s="11"/>
+      <c r="AX46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX46" s="11"/>
       <c r="AY46" s="11"/>
       <c r="AZ46" s="11"/>
       <c r="BA46" s="10"/>
@@ -5408,12 +5437,86 @@
       <c r="BO46" s="10"/>
       <c r="BP46" s="10"/>
     </row>
+    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
+      <c r="AM47" s="9"/>
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="9"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="11"/>
+      <c r="AT47" s="11"/>
+      <c r="AU47" s="11"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX47" s="11"/>
+      <c r="AY47" s="11"/>
+      <c r="AZ47" s="11"/>
+      <c r="BA47" s="10"/>
+      <c r="BB47" s="10"/>
+      <c r="BC47" s="10"/>
+      <c r="BD47" s="10"/>
+      <c r="BE47" s="10"/>
+      <c r="BF47" s="10"/>
+      <c r="BG47" s="10"/>
+      <c r="BH47" s="10"/>
+      <c r="BI47" s="10"/>
+      <c r="BJ47" s="10"/>
+      <c r="BK47" s="10"/>
+      <c r="BL47" s="10"/>
+      <c r="BM47" s="10"/>
+      <c r="BN47" s="10"/>
+      <c r="BO47" s="10"/>
+      <c r="BP47" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A38:BO38"/>
-    <mergeCell ref="A30:BO30"/>
-    <mergeCell ref="A16:BO16"/>
-    <mergeCell ref="A5:BO5"/>
+    <mergeCell ref="A39:BO39"/>
+    <mergeCell ref="A31:BO31"/>
+    <mergeCell ref="A17:BO17"/>
+    <mergeCell ref="A6:BO6"/>
     <mergeCell ref="A2:BO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8445"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="117">
   <si>
     <t>A1</t>
   </si>
@@ -1349,13 +1349,16 @@
   </si>
   <si>
     <t>SEG03</t>
+  </si>
+  <si>
+    <t>C17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1628,7 +1631,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1663,7 +1665,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1839,23 +1840,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BQ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C36" sqref="C36"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="52" width="4.7109375" customWidth="1"/>
-    <col min="53" max="68" width="4.7109375" style="1" customWidth="1"/>
-    <col min="69" max="72" width="4.7109375" customWidth="1"/>
+    <col min="2" max="53" width="4.7109375" customWidth="1"/>
+    <col min="54" max="69" width="4.7109375" style="1" customWidth="1"/>
+    <col min="70" max="73" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -1979,89 +1980,92 @@
       <c r="AO1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BB1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BC1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BD1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BE1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BF1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BH1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BI1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BK1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BM1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BO1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="BO1" s="10" t="s">
+      <c r="BP1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -2130,10 +2134,11 @@
       <c r="BL2" s="24"/>
       <c r="BM2" s="24"/>
       <c r="BN2" s="24"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="13"/>
+      <c r="BO2" s="24"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="13"/>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2179,7 +2184,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
-      <c r="AP3" s="12"/>
+      <c r="AP3" s="9"/>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
@@ -2190,7 +2195,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="12"/>
       <c r="AZ3" s="12"/>
-      <c r="BA3" s="10"/>
+      <c r="BA3" s="12"/>
       <c r="BB3" s="10"/>
       <c r="BC3" s="10"/>
       <c r="BD3" s="10"/>
@@ -2206,8 +2211,9 @@
       <c r="BN3" s="10"/>
       <c r="BO3" s="10"/>
       <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2253,7 +2259,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
-      <c r="AP4" s="12"/>
+      <c r="AP4" s="9"/>
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
       <c r="AS4" s="12"/>
@@ -2264,7 +2270,7 @@
       <c r="AX4" s="12"/>
       <c r="AY4" s="12"/>
       <c r="AZ4" s="12"/>
-      <c r="BA4" s="10"/>
+      <c r="BA4" s="12"/>
       <c r="BB4" s="10"/>
       <c r="BC4" s="10"/>
       <c r="BD4" s="10"/>
@@ -2280,8 +2286,9 @@
       <c r="BN4" s="10"/>
       <c r="BO4" s="10"/>
       <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69">
       <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
@@ -2327,7 +2334,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
-      <c r="AP5" s="12"/>
+      <c r="AP5" s="9"/>
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
       <c r="AS5" s="12"/>
@@ -2338,7 +2345,7 @@
       <c r="AX5" s="12"/>
       <c r="AY5" s="12"/>
       <c r="AZ5" s="12"/>
-      <c r="BA5" s="10"/>
+      <c r="BA5" s="12"/>
       <c r="BB5" s="10"/>
       <c r="BC5" s="10"/>
       <c r="BD5" s="10"/>
@@ -2354,8 +2361,9 @@
       <c r="BN5" s="10"/>
       <c r="BO5" s="10"/>
       <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -2424,10 +2432,11 @@
       <c r="BL6" s="21"/>
       <c r="BM6" s="21"/>
       <c r="BN6" s="21"/>
-      <c r="BO6" s="22"/>
-      <c r="BP6" s="14"/>
+      <c r="BO6" s="21"/>
+      <c r="BP6" s="22"/>
+      <c r="BQ6" s="14"/>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -2475,7 +2484,7 @@
       <c r="AM7" s="9"/>
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
-      <c r="AP7" s="12"/>
+      <c r="AP7" s="9"/>
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
       <c r="AS7" s="12"/>
@@ -2486,7 +2495,7 @@
       <c r="AX7" s="12"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="12"/>
-      <c r="BA7" s="10"/>
+      <c r="BA7" s="12"/>
       <c r="BB7" s="10"/>
       <c r="BC7" s="10"/>
       <c r="BD7" s="10"/>
@@ -2502,8 +2511,9 @@
       <c r="BN7" s="10"/>
       <c r="BO7" s="10"/>
       <c r="BP7" s="10"/>
+      <c r="BQ7" s="10"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2549,7 +2559,7 @@
       <c r="AM8" s="9"/>
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
-      <c r="AP8" s="12"/>
+      <c r="AP8" s="9"/>
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
       <c r="AS8" s="12"/>
@@ -2560,7 +2570,7 @@
       <c r="AX8" s="12"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="12"/>
-      <c r="BA8" s="10"/>
+      <c r="BA8" s="12"/>
       <c r="BB8" s="10"/>
       <c r="BC8" s="10"/>
       <c r="BD8" s="10"/>
@@ -2576,8 +2586,9 @@
       <c r="BN8" s="10"/>
       <c r="BO8" s="10"/>
       <c r="BP8" s="10"/>
+      <c r="BQ8" s="10"/>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2623,7 +2634,7 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
-      <c r="AP9" s="12"/>
+      <c r="AP9" s="9"/>
       <c r="AQ9" s="12"/>
       <c r="AR9" s="12"/>
       <c r="AS9" s="12"/>
@@ -2634,7 +2645,7 @@
       <c r="AX9" s="12"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="12"/>
-      <c r="BA9" s="10"/>
+      <c r="BA9" s="12"/>
       <c r="BB9" s="10"/>
       <c r="BC9" s="10"/>
       <c r="BD9" s="10"/>
@@ -2650,8 +2661,9 @@
       <c r="BN9" s="10"/>
       <c r="BO9" s="10"/>
       <c r="BP9" s="10"/>
+      <c r="BQ9" s="10"/>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2709,7 +2721,7 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
-      <c r="AP10" s="12"/>
+      <c r="AP10" s="9"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
       <c r="AS10" s="12"/>
@@ -2720,7 +2732,7 @@
       <c r="AX10" s="12"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
-      <c r="BA10" s="10"/>
+      <c r="BA10" s="12"/>
       <c r="BB10" s="10"/>
       <c r="BC10" s="10"/>
       <c r="BD10" s="10"/>
@@ -2736,8 +2748,9 @@
       <c r="BN10" s="10"/>
       <c r="BO10" s="10"/>
       <c r="BP10" s="10"/>
+      <c r="BQ10" s="10"/>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -2787,7 +2800,7 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
-      <c r="AP11" s="12"/>
+      <c r="AP11" s="9"/>
       <c r="AQ11" s="12"/>
       <c r="AR11" s="12"/>
       <c r="AS11" s="12"/>
@@ -2798,7 +2811,7 @@
       <c r="AX11" s="12"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="12"/>
-      <c r="BA11" s="10"/>
+      <c r="BA11" s="12"/>
       <c r="BB11" s="10"/>
       <c r="BC11" s="10"/>
       <c r="BD11" s="10"/>
@@ -2814,8 +2827,9 @@
       <c r="BN11" s="10"/>
       <c r="BO11" s="10"/>
       <c r="BP11" s="10"/>
+      <c r="BQ11" s="10"/>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2861,7 +2875,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
-      <c r="AP12" s="12"/>
+      <c r="AP12" s="9"/>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
       <c r="AS12" s="12"/>
@@ -2872,7 +2886,7 @@
       <c r="AX12" s="12"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="12"/>
-      <c r="BA12" s="10"/>
+      <c r="BA12" s="12"/>
       <c r="BB12" s="10"/>
       <c r="BC12" s="10"/>
       <c r="BD12" s="10"/>
@@ -2888,8 +2902,9 @@
       <c r="BN12" s="10"/>
       <c r="BO12" s="10"/>
       <c r="BP12" s="10"/>
+      <c r="BQ12" s="10"/>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
@@ -2935,7 +2950,9 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
-      <c r="AP13" s="12"/>
+      <c r="AP13" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
       <c r="AS13" s="12"/>
@@ -2946,7 +2963,7 @@
       <c r="AX13" s="12"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="12"/>
-      <c r="BA13" s="10"/>
+      <c r="BA13" s="12"/>
       <c r="BB13" s="10"/>
       <c r="BC13" s="10"/>
       <c r="BD13" s="10"/>
@@ -2962,8 +2979,9 @@
       <c r="BN13" s="10"/>
       <c r="BO13" s="10"/>
       <c r="BP13" s="10"/>
+      <c r="BQ13" s="10"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -3013,7 +3031,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
-      <c r="AP14" s="12"/>
+      <c r="AP14" s="9"/>
       <c r="AQ14" s="12"/>
       <c r="AR14" s="12"/>
       <c r="AS14" s="12"/>
@@ -3024,7 +3042,7 @@
       <c r="AX14" s="12"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="12"/>
-      <c r="BA14" s="10"/>
+      <c r="BA14" s="12"/>
       <c r="BB14" s="10"/>
       <c r="BC14" s="10"/>
       <c r="BD14" s="10"/>
@@ -3040,8 +3058,9 @@
       <c r="BN14" s="10"/>
       <c r="BO14" s="10"/>
       <c r="BP14" s="10"/>
+      <c r="BQ14" s="10"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -3089,7 +3108,7 @@
       </c>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
-      <c r="AP15" s="12"/>
+      <c r="AP15" s="9"/>
       <c r="AQ15" s="12"/>
       <c r="AR15" s="12"/>
       <c r="AS15" s="12"/>
@@ -3100,7 +3119,7 @@
       <c r="AX15" s="12"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="12"/>
-      <c r="BA15" s="10"/>
+      <c r="BA15" s="12"/>
       <c r="BB15" s="10"/>
       <c r="BC15" s="10"/>
       <c r="BD15" s="10"/>
@@ -3116,8 +3135,9 @@
       <c r="BN15" s="10"/>
       <c r="BO15" s="10"/>
       <c r="BP15" s="10"/>
+      <c r="BQ15" s="10"/>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -3163,7 +3183,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
-      <c r="AP16" s="12"/>
+      <c r="AP16" s="9"/>
       <c r="AQ16" s="12"/>
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
@@ -3174,7 +3194,7 @@
       <c r="AX16" s="12"/>
       <c r="AY16" s="12"/>
       <c r="AZ16" s="12"/>
-      <c r="BA16" s="10"/>
+      <c r="BA16" s="12"/>
       <c r="BB16" s="10"/>
       <c r="BC16" s="10"/>
       <c r="BD16" s="10"/>
@@ -3190,8 +3210,9 @@
       <c r="BN16" s="10"/>
       <c r="BO16" s="10"/>
       <c r="BP16" s="10"/>
+      <c r="BQ16" s="10"/>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69">
       <c r="A17" s="20" t="s">
         <v>85</v>
       </c>
@@ -3260,10 +3281,11 @@
       <c r="BL17" s="21"/>
       <c r="BM17" s="21"/>
       <c r="BN17" s="21"/>
-      <c r="BO17" s="22"/>
-      <c r="BP17" s="14"/>
+      <c r="BO17" s="21"/>
+      <c r="BP17" s="22"/>
+      <c r="BQ17" s="14"/>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3309,7 +3331,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
-      <c r="AP18" s="11"/>
+      <c r="AP18" s="9"/>
       <c r="AQ18" s="11"/>
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
@@ -3320,7 +3342,7 @@
       <c r="AX18" s="11"/>
       <c r="AY18" s="11"/>
       <c r="AZ18" s="11"/>
-      <c r="BA18" s="10"/>
+      <c r="BA18" s="11"/>
       <c r="BB18" s="10"/>
       <c r="BC18" s="10"/>
       <c r="BD18" s="10"/>
@@ -3336,8 +3358,9 @@
       <c r="BN18" s="10"/>
       <c r="BO18" s="10"/>
       <c r="BP18" s="10"/>
+      <c r="BQ18" s="10"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -3385,7 +3408,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
-      <c r="AP19" s="11"/>
+      <c r="AP19" s="9"/>
       <c r="AQ19" s="11"/>
       <c r="AR19" s="11"/>
       <c r="AS19" s="11"/>
@@ -3396,7 +3419,7 @@
       <c r="AX19" s="11"/>
       <c r="AY19" s="11"/>
       <c r="AZ19" s="11"/>
-      <c r="BA19" s="10"/>
+      <c r="BA19" s="11"/>
       <c r="BB19" s="10"/>
       <c r="BC19" s="10"/>
       <c r="BD19" s="10"/>
@@ -3412,8 +3435,9 @@
       <c r="BN19" s="10"/>
       <c r="BO19" s="10"/>
       <c r="BP19" s="10"/>
+      <c r="BQ19" s="10"/>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
@@ -3459,7 +3483,7 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
-      <c r="AP20" s="11"/>
+      <c r="AP20" s="9"/>
       <c r="AQ20" s="11"/>
       <c r="AR20" s="11"/>
       <c r="AS20" s="11"/>
@@ -3470,7 +3494,7 @@
       <c r="AX20" s="11"/>
       <c r="AY20" s="11"/>
       <c r="AZ20" s="11"/>
-      <c r="BA20" s="10"/>
+      <c r="BA20" s="11"/>
       <c r="BB20" s="10"/>
       <c r="BC20" s="10"/>
       <c r="BD20" s="10"/>
@@ -3486,8 +3510,9 @@
       <c r="BN20" s="10"/>
       <c r="BO20" s="10"/>
       <c r="BP20" s="10"/>
+      <c r="BQ20" s="10"/>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69">
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3533,7 +3558,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
-      <c r="AP21" s="11"/>
+      <c r="AP21" s="9"/>
       <c r="AQ21" s="11"/>
       <c r="AR21" s="11"/>
       <c r="AS21" s="11"/>
@@ -3544,7 +3569,7 @@
       <c r="AX21" s="11"/>
       <c r="AY21" s="11"/>
       <c r="AZ21" s="11"/>
-      <c r="BA21" s="10"/>
+      <c r="BA21" s="11"/>
       <c r="BB21" s="10"/>
       <c r="BC21" s="10"/>
       <c r="BD21" s="10"/>
@@ -3560,8 +3585,9 @@
       <c r="BN21" s="10"/>
       <c r="BO21" s="10"/>
       <c r="BP21" s="10"/>
+      <c r="BQ21" s="10"/>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3607,7 +3633,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
-      <c r="AP22" s="11"/>
+      <c r="AP22" s="9"/>
       <c r="AQ22" s="11"/>
       <c r="AR22" s="11"/>
       <c r="AS22" s="11"/>
@@ -3618,7 +3644,7 @@
       <c r="AX22" s="11"/>
       <c r="AY22" s="11"/>
       <c r="AZ22" s="11"/>
-      <c r="BA22" s="10"/>
+      <c r="BA22" s="11"/>
       <c r="BB22" s="10"/>
       <c r="BC22" s="10"/>
       <c r="BD22" s="10"/>
@@ -3634,8 +3660,9 @@
       <c r="BN22" s="10"/>
       <c r="BO22" s="10"/>
       <c r="BP22" s="10"/>
+      <c r="BQ22" s="10"/>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69">
       <c r="A23" s="9" t="s">
         <v>113</v>
       </c>
@@ -3681,7 +3708,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
-      <c r="AP23" s="11"/>
+      <c r="AP23" s="9"/>
       <c r="AQ23" s="11"/>
       <c r="AR23" s="11"/>
       <c r="AS23" s="11"/>
@@ -3692,7 +3719,7 @@
       <c r="AX23" s="11"/>
       <c r="AY23" s="11"/>
       <c r="AZ23" s="11"/>
-      <c r="BA23" s="10"/>
+      <c r="BA23" s="11"/>
       <c r="BB23" s="10"/>
       <c r="BC23" s="10"/>
       <c r="BD23" s="10"/>
@@ -3708,8 +3735,9 @@
       <c r="BN23" s="10"/>
       <c r="BO23" s="10"/>
       <c r="BP23" s="10"/>
+      <c r="BQ23" s="10"/>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69">
       <c r="A24" s="9" t="s">
         <v>114</v>
       </c>
@@ -3753,7 +3781,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
-      <c r="AP24" s="11"/>
+      <c r="AP24" s="9"/>
       <c r="AQ24" s="11"/>
       <c r="AR24" s="11"/>
       <c r="AS24" s="11"/>
@@ -3764,7 +3792,7 @@
       <c r="AX24" s="11"/>
       <c r="AY24" s="11"/>
       <c r="AZ24" s="11"/>
-      <c r="BA24" s="10"/>
+      <c r="BA24" s="11"/>
       <c r="BB24" s="10"/>
       <c r="BC24" s="10"/>
       <c r="BD24" s="10"/>
@@ -3780,8 +3808,9 @@
       <c r="BN24" s="10"/>
       <c r="BO24" s="10"/>
       <c r="BP24" s="10"/>
+      <c r="BQ24" s="10"/>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3825,7 +3854,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
-      <c r="AP25" s="11"/>
+      <c r="AP25" s="9"/>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
       <c r="AS25" s="11"/>
@@ -3836,7 +3865,7 @@
       <c r="AX25" s="11"/>
       <c r="AY25" s="11"/>
       <c r="AZ25" s="11"/>
-      <c r="BA25" s="10"/>
+      <c r="BA25" s="11"/>
       <c r="BB25" s="10"/>
       <c r="BC25" s="10"/>
       <c r="BD25" s="10"/>
@@ -3852,8 +3881,9 @@
       <c r="BN25" s="10"/>
       <c r="BO25" s="10"/>
       <c r="BP25" s="10"/>
+      <c r="BQ25" s="10"/>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -3901,20 +3931,20 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
-      <c r="AP26" s="11"/>
+      <c r="AP26" s="9"/>
       <c r="AQ26" s="11"/>
       <c r="AR26" s="11"/>
       <c r="AS26" s="11"/>
       <c r="AT26" s="11"/>
       <c r="AU26" s="11"/>
-      <c r="AV26" s="11" t="s">
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AW26" s="11"/>
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
       <c r="AZ26" s="11"/>
-      <c r="BA26" s="10"/>
+      <c r="BA26" s="11"/>
       <c r="BB26" s="10"/>
       <c r="BC26" s="10"/>
       <c r="BD26" s="10"/>
@@ -3930,8 +3960,9 @@
       <c r="BN26" s="10"/>
       <c r="BO26" s="10"/>
       <c r="BP26" s="10"/>
+      <c r="BQ26" s="10"/>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
@@ -3975,7 +4006,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
-      <c r="AP27" s="11"/>
+      <c r="AP27" s="9"/>
       <c r="AQ27" s="11"/>
       <c r="AR27" s="11"/>
       <c r="AS27" s="11"/>
@@ -3986,7 +4017,7 @@
       <c r="AX27" s="11"/>
       <c r="AY27" s="11"/>
       <c r="AZ27" s="11"/>
-      <c r="BA27" s="10"/>
+      <c r="BA27" s="11"/>
       <c r="BB27" s="10"/>
       <c r="BC27" s="10"/>
       <c r="BD27" s="10"/>
@@ -4002,8 +4033,9 @@
       <c r="BN27" s="10"/>
       <c r="BO27" s="10"/>
       <c r="BP27" s="10"/>
+      <c r="BQ27" s="10"/>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
@@ -4051,7 +4083,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
-      <c r="AP28" s="11"/>
+      <c r="AP28" s="9"/>
       <c r="AQ28" s="11"/>
       <c r="AR28" s="11"/>
       <c r="AS28" s="11"/>
@@ -4062,7 +4094,7 @@
       <c r="AX28" s="11"/>
       <c r="AY28" s="11"/>
       <c r="AZ28" s="11"/>
-      <c r="BA28" s="10"/>
+      <c r="BA28" s="11"/>
       <c r="BB28" s="10"/>
       <c r="BC28" s="10"/>
       <c r="BD28" s="10"/>
@@ -4078,8 +4110,9 @@
       <c r="BN28" s="10"/>
       <c r="BO28" s="10"/>
       <c r="BP28" s="10"/>
+      <c r="BQ28" s="10"/>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
@@ -4125,7 +4158,7 @@
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
-      <c r="AP29" s="11"/>
+      <c r="AP29" s="9"/>
       <c r="AQ29" s="11"/>
       <c r="AR29" s="11"/>
       <c r="AS29" s="11"/>
@@ -4136,7 +4169,7 @@
       <c r="AX29" s="11"/>
       <c r="AY29" s="11"/>
       <c r="AZ29" s="11"/>
-      <c r="BA29" s="10"/>
+      <c r="BA29" s="11"/>
       <c r="BB29" s="10"/>
       <c r="BC29" s="10"/>
       <c r="BD29" s="10"/>
@@ -4152,8 +4185,9 @@
       <c r="BN29" s="10"/>
       <c r="BO29" s="10"/>
       <c r="BP29" s="10"/>
+      <c r="BQ29" s="10"/>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69">
       <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
@@ -4197,7 +4231,7 @@
       <c r="AM30" s="9"/>
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
-      <c r="AP30" s="11"/>
+      <c r="AP30" s="9"/>
       <c r="AQ30" s="11"/>
       <c r="AR30" s="11"/>
       <c r="AS30" s="11"/>
@@ -4208,7 +4242,7 @@
       <c r="AX30" s="11"/>
       <c r="AY30" s="11"/>
       <c r="AZ30" s="11"/>
-      <c r="BA30" s="10"/>
+      <c r="BA30" s="11"/>
       <c r="BB30" s="10"/>
       <c r="BC30" s="10"/>
       <c r="BD30" s="10"/>
@@ -4224,8 +4258,9 @@
       <c r="BN30" s="10"/>
       <c r="BO30" s="10"/>
       <c r="BP30" s="10"/>
+      <c r="BQ30" s="10"/>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69">
       <c r="A31" s="17" t="s">
         <v>52</v>
       </c>
@@ -4294,10 +4329,11 @@
       <c r="BL31" s="18"/>
       <c r="BM31" s="18"/>
       <c r="BN31" s="18"/>
-      <c r="BO31" s="19"/>
-      <c r="BP31" s="15"/>
+      <c r="BO31" s="18"/>
+      <c r="BP31" s="19"/>
+      <c r="BQ31" s="15"/>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69">
       <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
@@ -4343,7 +4379,7 @@
       <c r="AM32" s="9"/>
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
-      <c r="AP32" s="12"/>
+      <c r="AP32" s="9"/>
       <c r="AQ32" s="12"/>
       <c r="AR32" s="12"/>
       <c r="AS32" s="12"/>
@@ -4354,12 +4390,12 @@
       <c r="AX32" s="12"/>
       <c r="AY32" s="12"/>
       <c r="AZ32" s="12"/>
-      <c r="BA32" s="10"/>
+      <c r="BA32" s="12"/>
       <c r="BB32" s="10"/>
-      <c r="BC32" s="10" t="s">
+      <c r="BC32" s="10"/>
+      <c r="BD32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BD32" s="10"/>
       <c r="BE32" s="10"/>
       <c r="BF32" s="10"/>
       <c r="BG32" s="10"/>
@@ -4372,8 +4408,9 @@
       <c r="BN32" s="10"/>
       <c r="BO32" s="10"/>
       <c r="BP32" s="10"/>
+      <c r="BQ32" s="10"/>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
@@ -4421,7 +4458,7 @@
       <c r="AM33" s="9"/>
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
-      <c r="AP33" s="12"/>
+      <c r="AP33" s="9"/>
       <c r="AQ33" s="12"/>
       <c r="AR33" s="12"/>
       <c r="AS33" s="12"/>
@@ -4432,38 +4469,39 @@
       <c r="AX33" s="12"/>
       <c r="AY33" s="12"/>
       <c r="AZ33" s="12"/>
-      <c r="BA33" s="10" t="s">
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BB33" s="10"/>
       <c r="BC33" s="10"/>
-      <c r="BD33" s="10" t="s">
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BE33" s="10"/>
-      <c r="BF33" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="BF33" s="10"/>
       <c r="BG33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BH33" s="10"/>
+      <c r="BH33" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="BI33" s="10"/>
       <c r="BJ33" s="10"/>
       <c r="BK33" s="10"/>
-      <c r="BL33" s="10" t="s">
+      <c r="BL33" s="10"/>
+      <c r="BM33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BM33" s="10"/>
-      <c r="BN33" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BN33" s="10"/>
       <c r="BO33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BP33" s="10"/>
+      <c r="BP33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ33" s="10"/>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69">
       <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
@@ -4507,7 +4545,7 @@
       <c r="AM34" s="9"/>
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
-      <c r="AP34" s="12"/>
+      <c r="AP34" s="9"/>
       <c r="AQ34" s="12"/>
       <c r="AR34" s="12"/>
       <c r="AS34" s="12"/>
@@ -4518,16 +4556,16 @@
       <c r="AX34" s="12"/>
       <c r="AY34" s="12"/>
       <c r="AZ34" s="12"/>
-      <c r="BA34" s="10"/>
-      <c r="BB34" s="10" t="s">
+      <c r="BA34" s="12"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BC34" s="10"/>
       <c r="BD34" s="10"/>
-      <c r="BE34" s="10" t="s">
+      <c r="BE34" s="10"/>
+      <c r="BF34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BF34" s="10"/>
       <c r="BG34" s="10"/>
       <c r="BH34" s="10"/>
       <c r="BI34" s="10"/>
@@ -4538,8 +4576,9 @@
       <c r="BN34" s="10"/>
       <c r="BO34" s="10"/>
       <c r="BP34" s="10"/>
+      <c r="BQ34" s="10"/>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69">
       <c r="A35" s="10" t="s">
         <v>56</v>
       </c>
@@ -4583,7 +4622,7 @@
       <c r="AM35" s="9"/>
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
-      <c r="AP35" s="12"/>
+      <c r="AP35" s="9"/>
       <c r="AQ35" s="12"/>
       <c r="AR35" s="12"/>
       <c r="AS35" s="12"/>
@@ -4594,7 +4633,7 @@
       <c r="AX35" s="12"/>
       <c r="AY35" s="12"/>
       <c r="AZ35" s="12"/>
-      <c r="BA35" s="10"/>
+      <c r="BA35" s="12"/>
       <c r="BB35" s="10"/>
       <c r="BC35" s="10"/>
       <c r="BD35" s="10"/>
@@ -4609,11 +4648,12 @@
       <c r="BM35" s="10"/>
       <c r="BN35" s="10"/>
       <c r="BO35" s="10"/>
-      <c r="BP35" s="10" t="s">
+      <c r="BP35" s="10"/>
+      <c r="BQ35" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69">
       <c r="A36" s="10" t="s">
         <v>109</v>
       </c>
@@ -4659,7 +4699,7 @@
       <c r="AM36" s="9"/>
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
-      <c r="AP36" s="12"/>
+      <c r="AP36" s="9"/>
       <c r="AQ36" s="12"/>
       <c r="AR36" s="12"/>
       <c r="AS36" s="12"/>
@@ -4670,30 +4710,31 @@
       <c r="AX36" s="12"/>
       <c r="AY36" s="12"/>
       <c r="AZ36" s="12"/>
-      <c r="BA36" s="10"/>
+      <c r="BA36" s="12"/>
       <c r="BB36" s="10"/>
       <c r="BC36" s="10"/>
       <c r="BD36" s="10"/>
       <c r="BE36" s="10"/>
       <c r="BF36" s="10"/>
       <c r="BG36" s="10"/>
-      <c r="BH36" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BH36" s="10"/>
       <c r="BI36" s="10" t="s">
         <v>57</v>
       </c>
       <c r="BJ36" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BK36" s="10"/>
+      <c r="BK36" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="BL36" s="10"/>
       <c r="BM36" s="10"/>
       <c r="BN36" s="10"/>
       <c r="BO36" s="10"/>
       <c r="BP36" s="10"/>
+      <c r="BQ36" s="10"/>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69">
       <c r="A37" s="10" t="s">
         <v>110</v>
       </c>
@@ -4737,7 +4778,7 @@
       <c r="AM37" s="9"/>
       <c r="AN37" s="9"/>
       <c r="AO37" s="9"/>
-      <c r="AP37" s="12"/>
+      <c r="AP37" s="9"/>
       <c r="AQ37" s="12"/>
       <c r="AR37" s="12"/>
       <c r="AS37" s="12"/>
@@ -4748,7 +4789,7 @@
       <c r="AX37" s="12"/>
       <c r="AY37" s="12"/>
       <c r="AZ37" s="12"/>
-      <c r="BA37" s="10"/>
+      <c r="BA37" s="12"/>
       <c r="BB37" s="10"/>
       <c r="BC37" s="10"/>
       <c r="BD37" s="10"/>
@@ -4758,16 +4799,17 @@
       <c r="BH37" s="10"/>
       <c r="BI37" s="10"/>
       <c r="BJ37" s="10"/>
-      <c r="BK37" s="10" t="s">
+      <c r="BK37" s="10"/>
+      <c r="BL37" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BL37" s="10"/>
       <c r="BM37" s="10"/>
       <c r="BN37" s="10"/>
       <c r="BO37" s="10"/>
       <c r="BP37" s="10"/>
+      <c r="BQ37" s="10"/>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69">
       <c r="A38" s="10" t="s">
         <v>111</v>
       </c>
@@ -4811,7 +4853,7 @@
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
-      <c r="AP38" s="12"/>
+      <c r="AP38" s="9"/>
       <c r="AQ38" s="12"/>
       <c r="AR38" s="12"/>
       <c r="AS38" s="12"/>
@@ -4822,7 +4864,7 @@
       <c r="AX38" s="12"/>
       <c r="AY38" s="12"/>
       <c r="AZ38" s="12"/>
-      <c r="BA38" s="10"/>
+      <c r="BA38" s="12"/>
       <c r="BB38" s="10"/>
       <c r="BC38" s="10"/>
       <c r="BD38" s="10"/>
@@ -4834,14 +4876,15 @@
       <c r="BJ38" s="10"/>
       <c r="BK38" s="10"/>
       <c r="BL38" s="10"/>
-      <c r="BM38" s="10" t="s">
+      <c r="BM38" s="10"/>
+      <c r="BN38" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BN38" s="10"/>
       <c r="BO38" s="10"/>
       <c r="BP38" s="10"/>
+      <c r="BQ38" s="10"/>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69">
       <c r="A39" s="16" t="s">
         <v>39</v>
       </c>
@@ -4911,9 +4954,10 @@
       <c r="BM39" s="16"/>
       <c r="BN39" s="16"/>
       <c r="BO39" s="16"/>
-      <c r="BP39" s="14"/>
+      <c r="BP39" s="16"/>
+      <c r="BQ39" s="14"/>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
@@ -4959,12 +5003,12 @@
         <v>57</v>
       </c>
       <c r="AO40" s="9"/>
-      <c r="AP40" s="11"/>
+      <c r="AP40" s="9"/>
       <c r="AQ40" s="11"/>
-      <c r="AR40" s="11" t="s">
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS40" s="11"/>
       <c r="AT40" s="11"/>
       <c r="AU40" s="11"/>
       <c r="AV40" s="11"/>
@@ -4972,7 +5016,7 @@
       <c r="AX40" s="11"/>
       <c r="AY40" s="11"/>
       <c r="AZ40" s="11"/>
-      <c r="BA40" s="10"/>
+      <c r="BA40" s="11"/>
       <c r="BB40" s="10"/>
       <c r="BC40" s="10"/>
       <c r="BD40" s="10"/>
@@ -4988,8 +5032,9 @@
       <c r="BN40" s="10"/>
       <c r="BO40" s="10"/>
       <c r="BP40" s="10"/>
+      <c r="BQ40" s="10"/>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69">
       <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
@@ -5033,24 +5078,24 @@
       <c r="AM41" s="9"/>
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
-      <c r="AP41" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="AP41" s="9"/>
       <c r="AQ41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="11"/>
-      <c r="AS41" s="11" t="s">
+      <c r="AR41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AT41" s="11"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="AU41" s="11"/>
       <c r="AV41" s="11"/>
       <c r="AW41" s="11"/>
       <c r="AX41" s="11"/>
       <c r="AY41" s="11"/>
       <c r="AZ41" s="11"/>
-      <c r="BA41" s="10"/>
+      <c r="BA41" s="11"/>
       <c r="BB41" s="10"/>
       <c r="BC41" s="10"/>
       <c r="BD41" s="10"/>
@@ -5066,8 +5111,9 @@
       <c r="BN41" s="10"/>
       <c r="BO41" s="10"/>
       <c r="BP41" s="10"/>
+      <c r="BQ41" s="10"/>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69">
       <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
@@ -5111,20 +5157,20 @@
       <c r="AM42" s="9"/>
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
-      <c r="AP42" s="11"/>
+      <c r="AP42" s="9"/>
       <c r="AQ42" s="11"/>
       <c r="AR42" s="11"/>
       <c r="AS42" s="11"/>
-      <c r="AT42" s="11" t="s">
+      <c r="AT42" s="11"/>
+      <c r="AU42" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AU42" s="11"/>
       <c r="AV42" s="11"/>
       <c r="AW42" s="11"/>
       <c r="AX42" s="11"/>
       <c r="AY42" s="11"/>
       <c r="AZ42" s="11"/>
-      <c r="BA42" s="10"/>
+      <c r="BA42" s="11"/>
       <c r="BB42" s="10"/>
       <c r="BC42" s="10"/>
       <c r="BD42" s="10"/>
@@ -5140,8 +5186,9 @@
       <c r="BN42" s="10"/>
       <c r="BO42" s="10"/>
       <c r="BP42" s="10"/>
+      <c r="BQ42" s="10"/>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69">
       <c r="A43" s="11" t="s">
         <v>88</v>
       </c>
@@ -5185,20 +5232,20 @@
       <c r="AM43" s="9"/>
       <c r="AN43" s="9"/>
       <c r="AO43" s="9"/>
-      <c r="AP43" s="11"/>
+      <c r="AP43" s="9"/>
       <c r="AQ43" s="11"/>
       <c r="AR43" s="11"/>
       <c r="AS43" s="11"/>
       <c r="AT43" s="11"/>
-      <c r="AU43" s="11" t="s">
+      <c r="AU43" s="11"/>
+      <c r="AV43" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AV43" s="11"/>
       <c r="AW43" s="11"/>
       <c r="AX43" s="11"/>
       <c r="AY43" s="11"/>
       <c r="AZ43" s="11"/>
-      <c r="BA43" s="10"/>
+      <c r="BA43" s="11"/>
       <c r="BB43" s="10"/>
       <c r="BC43" s="10"/>
       <c r="BD43" s="10"/>
@@ -5214,8 +5261,9 @@
       <c r="BN43" s="10"/>
       <c r="BO43" s="10"/>
       <c r="BP43" s="10"/>
+      <c r="BQ43" s="10"/>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69">
       <c r="A44" s="11" t="s">
         <v>89</v>
       </c>
@@ -5259,7 +5307,7 @@
       <c r="AM44" s="9"/>
       <c r="AN44" s="9"/>
       <c r="AO44" s="9"/>
-      <c r="AP44" s="11"/>
+      <c r="AP44" s="9"/>
       <c r="AQ44" s="11"/>
       <c r="AR44" s="11"/>
       <c r="AS44" s="11"/>
@@ -5269,10 +5317,10 @@
       <c r="AW44" s="11"/>
       <c r="AX44" s="11"/>
       <c r="AY44" s="11"/>
-      <c r="AZ44" s="11" t="s">
+      <c r="AZ44" s="11"/>
+      <c r="BA44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA44" s="10"/>
       <c r="BB44" s="10"/>
       <c r="BC44" s="10"/>
       <c r="BD44" s="10"/>
@@ -5288,8 +5336,9 @@
       <c r="BN44" s="10"/>
       <c r="BO44" s="10"/>
       <c r="BP44" s="10"/>
+      <c r="BQ44" s="10"/>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69">
       <c r="A45" s="11" t="s">
         <v>90</v>
       </c>
@@ -5333,7 +5382,7 @@
       <c r="AM45" s="9"/>
       <c r="AN45" s="9"/>
       <c r="AO45" s="9"/>
-      <c r="AP45" s="11"/>
+      <c r="AP45" s="9"/>
       <c r="AQ45" s="11"/>
       <c r="AR45" s="11"/>
       <c r="AS45" s="11"/>
@@ -5342,11 +5391,11 @@
       <c r="AV45" s="11"/>
       <c r="AW45" s="11"/>
       <c r="AX45" s="11"/>
-      <c r="AY45" s="11" t="s">
+      <c r="AY45" s="11"/>
+      <c r="AZ45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AZ45" s="11"/>
-      <c r="BA45" s="10"/>
+      <c r="BA45" s="11"/>
       <c r="BB45" s="10"/>
       <c r="BC45" s="10"/>
       <c r="BD45" s="10"/>
@@ -5362,8 +5411,9 @@
       <c r="BN45" s="10"/>
       <c r="BO45" s="10"/>
       <c r="BP45" s="10"/>
+      <c r="BQ45" s="10"/>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69">
       <c r="A46" s="11" t="s">
         <v>91</v>
       </c>
@@ -5407,7 +5457,7 @@
       <c r="AM46" s="9"/>
       <c r="AN46" s="9"/>
       <c r="AO46" s="9"/>
-      <c r="AP46" s="11"/>
+      <c r="AP46" s="9"/>
       <c r="AQ46" s="11"/>
       <c r="AR46" s="11"/>
       <c r="AS46" s="11"/>
@@ -5415,12 +5465,12 @@
       <c r="AU46" s="11"/>
       <c r="AV46" s="11"/>
       <c r="AW46" s="11"/>
-      <c r="AX46" s="11" t="s">
+      <c r="AX46" s="11"/>
+      <c r="AY46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY46" s="11"/>
       <c r="AZ46" s="11"/>
-      <c r="BA46" s="10"/>
+      <c r="BA46" s="11"/>
       <c r="BB46" s="10"/>
       <c r="BC46" s="10"/>
       <c r="BD46" s="10"/>
@@ -5436,8 +5486,9 @@
       <c r="BN46" s="10"/>
       <c r="BO46" s="10"/>
       <c r="BP46" s="10"/>
+      <c r="BQ46" s="10"/>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69">
       <c r="A47" s="11" t="s">
         <v>92</v>
       </c>
@@ -5481,20 +5532,20 @@
       <c r="AM47" s="9"/>
       <c r="AN47" s="9"/>
       <c r="AO47" s="9"/>
-      <c r="AP47" s="11"/>
+      <c r="AP47" s="9"/>
       <c r="AQ47" s="11"/>
       <c r="AR47" s="11"/>
       <c r="AS47" s="11"/>
       <c r="AT47" s="11"/>
       <c r="AU47" s="11"/>
       <c r="AV47" s="11"/>
-      <c r="AW47" s="11" t="s">
+      <c r="AW47" s="11"/>
+      <c r="AX47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
       <c r="AZ47" s="11"/>
-      <c r="BA47" s="10"/>
+      <c r="BA47" s="11"/>
       <c r="BB47" s="10"/>
       <c r="BC47" s="10"/>
       <c r="BD47" s="10"/>
@@ -5510,14 +5561,15 @@
       <c r="BN47" s="10"/>
       <c r="BO47" s="10"/>
       <c r="BP47" s="10"/>
+      <c r="BQ47" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A39:BO39"/>
-    <mergeCell ref="A31:BO31"/>
-    <mergeCell ref="A17:BO17"/>
-    <mergeCell ref="A6:BO6"/>
-    <mergeCell ref="A2:BO2"/>
+    <mergeCell ref="A39:BP39"/>
+    <mergeCell ref="A31:BP31"/>
+    <mergeCell ref="A17:BP17"/>
+    <mergeCell ref="A6:BP6"/>
+    <mergeCell ref="A2:BP2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5526,24 +5578,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8445"/>
@@ -65,7 +65,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Administrar perfiles de usuarios</t>
+Salir del sistema</t>
         </r>
       </text>
     </comment>
@@ -1357,8 +1357,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1631,6 +1631,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1665,6 +1666,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1840,15 +1842,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP14" sqref="AP14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="53" width="4.7109375" customWidth="1"/>
@@ -1856,7 +1858,7 @@
     <col min="70" max="73" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -2065,7 +2067,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2140,7 @@
       <c r="BP2" s="25"/>
       <c r="BQ2" s="13"/>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2213,13 +2215,11 @@
       <c r="BP3" s="10"/>
       <c r="BQ3" s="10"/>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
@@ -2288,12 +2288,14 @@
       <c r="BP4" s="10"/>
       <c r="BQ4" s="10"/>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2365,7 @@
       <c r="BP5" s="10"/>
       <c r="BQ5" s="10"/>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -2436,7 +2438,7 @@
       <c r="BP6" s="22"/>
       <c r="BQ6" s="14"/>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -2513,7 +2515,7 @@
       <c r="BP7" s="10"/>
       <c r="BQ7" s="10"/>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2588,7 +2590,7 @@
       <c r="BP8" s="10"/>
       <c r="BQ8" s="10"/>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2663,7 +2665,7 @@
       <c r="BP9" s="10"/>
       <c r="BQ9" s="10"/>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2750,7 +2752,7 @@
       <c r="BP10" s="10"/>
       <c r="BQ10" s="10"/>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -2829,7 +2831,7 @@
       <c r="BP11" s="10"/>
       <c r="BQ11" s="10"/>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2904,7 +2906,7 @@
       <c r="BP12" s="10"/>
       <c r="BQ12" s="10"/>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
@@ -2981,7 +2983,7 @@
       <c r="BP13" s="10"/>
       <c r="BQ13" s="10"/>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -3060,7 +3062,7 @@
       <c r="BP14" s="10"/>
       <c r="BQ14" s="10"/>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -3137,7 +3139,7 @@
       <c r="BP15" s="10"/>
       <c r="BQ15" s="10"/>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -3212,7 +3214,7 @@
       <c r="BP16" s="10"/>
       <c r="BQ16" s="10"/>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>85</v>
       </c>
@@ -3285,7 +3287,7 @@
       <c r="BP17" s="22"/>
       <c r="BQ17" s="14"/>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3360,7 +3362,7 @@
       <c r="BP18" s="10"/>
       <c r="BQ18" s="10"/>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -3437,7 +3439,7 @@
       <c r="BP19" s="10"/>
       <c r="BQ19" s="10"/>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
@@ -3512,7 +3514,7 @@
       <c r="BP20" s="10"/>
       <c r="BQ20" s="10"/>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3587,7 +3589,7 @@
       <c r="BP21" s="10"/>
       <c r="BQ21" s="10"/>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3662,7 +3664,7 @@
       <c r="BP22" s="10"/>
       <c r="BQ22" s="10"/>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>113</v>
       </c>
@@ -3737,7 +3739,7 @@
       <c r="BP23" s="10"/>
       <c r="BQ23" s="10"/>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>114</v>
       </c>
@@ -3810,7 +3812,7 @@
       <c r="BP24" s="10"/>
       <c r="BQ24" s="10"/>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3883,7 +3885,7 @@
       <c r="BP25" s="10"/>
       <c r="BQ25" s="10"/>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -3962,7 +3964,7 @@
       <c r="BP26" s="10"/>
       <c r="BQ26" s="10"/>
     </row>
-    <row r="27" spans="1:69">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
@@ -4035,7 +4037,7 @@
       <c r="BP27" s="10"/>
       <c r="BQ27" s="10"/>
     </row>
-    <row r="28" spans="1:69">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
@@ -4112,7 +4114,7 @@
       <c r="BP28" s="10"/>
       <c r="BQ28" s="10"/>
     </row>
-    <row r="29" spans="1:69">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
@@ -4187,7 +4189,7 @@
       <c r="BP29" s="10"/>
       <c r="BQ29" s="10"/>
     </row>
-    <row r="30" spans="1:69">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
@@ -4260,7 +4262,7 @@
       <c r="BP30" s="10"/>
       <c r="BQ30" s="10"/>
     </row>
-    <row r="31" spans="1:69">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>52</v>
       </c>
@@ -4333,7 +4335,7 @@
       <c r="BP31" s="19"/>
       <c r="BQ31" s="15"/>
     </row>
-    <row r="32" spans="1:69">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
@@ -4410,7 +4412,7 @@
       <c r="BP32" s="10"/>
       <c r="BQ32" s="10"/>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
@@ -4501,7 +4503,7 @@
       </c>
       <c r="BQ33" s="10"/>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
@@ -4578,7 +4580,7 @@
       <c r="BP34" s="10"/>
       <c r="BQ34" s="10"/>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>56</v>
       </c>
@@ -4653,7 +4655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:69">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>109</v>
       </c>
@@ -4734,7 +4736,7 @@
       <c r="BP36" s="10"/>
       <c r="BQ36" s="10"/>
     </row>
-    <row r="37" spans="1:69">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>110</v>
       </c>
@@ -4809,7 +4811,7 @@
       <c r="BP37" s="10"/>
       <c r="BQ37" s="10"/>
     </row>
-    <row r="38" spans="1:69">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>111</v>
       </c>
@@ -4884,7 +4886,7 @@
       <c r="BP38" s="10"/>
       <c r="BQ38" s="10"/>
     </row>
-    <row r="39" spans="1:69">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>39</v>
       </c>
@@ -4957,7 +4959,7 @@
       <c r="BP39" s="16"/>
       <c r="BQ39" s="14"/>
     </row>
-    <row r="40" spans="1:69">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
@@ -5034,7 +5036,7 @@
       <c r="BP40" s="10"/>
       <c r="BQ40" s="10"/>
     </row>
-    <row r="41" spans="1:69">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
@@ -5113,7 +5115,7 @@
       <c r="BP41" s="10"/>
       <c r="BQ41" s="10"/>
     </row>
-    <row r="42" spans="1:69">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
@@ -5188,7 +5190,7 @@
       <c r="BP42" s="10"/>
       <c r="BQ42" s="10"/>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>88</v>
       </c>
@@ -5263,7 +5265,7 @@
       <c r="BP43" s="10"/>
       <c r="BQ43" s="10"/>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>89</v>
       </c>
@@ -5338,7 +5340,7 @@
       <c r="BP44" s="10"/>
       <c r="BQ44" s="10"/>
     </row>
-    <row r="45" spans="1:69">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>90</v>
       </c>
@@ -5413,7 +5415,7 @@
       <c r="BP45" s="10"/>
       <c r="BQ45" s="10"/>
     </row>
-    <row r="46" spans="1:69">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>91</v>
       </c>
@@ -5488,7 +5490,7 @@
       <c r="BP46" s="10"/>
       <c r="BQ46" s="10"/>
     </row>
-    <row r="47" spans="1:69">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>92</v>
       </c>
@@ -5578,24 +5580,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8445"/>
+    <workbookView xWindow="360" yWindow="108" windowWidth="18852" windowHeight="8448"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1845,20 +1845,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE33" sqref="BE33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="53" width="4.7109375" customWidth="1"/>
-    <col min="54" max="69" width="4.7109375" style="1" customWidth="1"/>
-    <col min="70" max="73" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="53" width="4.6640625" customWidth="1"/>
+    <col min="54" max="69" width="4.6640625" style="1" customWidth="1"/>
+    <col min="70" max="73" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="BP2" s="25"/>
       <c r="BQ2" s="13"/>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="BP3" s="10"/>
       <c r="BQ3" s="10"/>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="BP4" s="10"/>
       <c r="BQ4" s="10"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="BP5" s="10"/>
       <c r="BQ5" s="10"/>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="BP6" s="22"/>
       <c r="BQ6" s="14"/>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="BP7" s="10"/>
       <c r="BQ7" s="10"/>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="BP8" s="10"/>
       <c r="BQ8" s="10"/>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="BP9" s="10"/>
       <c r="BQ9" s="10"/>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="BP10" s="10"/>
       <c r="BQ10" s="10"/>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="BP11" s="10"/>
       <c r="BQ11" s="10"/>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="BP12" s="10"/>
       <c r="BQ12" s="10"/>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="BP13" s="10"/>
       <c r="BQ13" s="10"/>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="BP14" s="10"/>
       <c r="BQ14" s="10"/>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="BP15" s="10"/>
       <c r="BQ15" s="10"/>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="BP16" s="10"/>
       <c r="BQ16" s="10"/>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>85</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="BP17" s="22"/>
       <c r="BQ17" s="14"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="BP18" s="10"/>
       <c r="BQ18" s="10"/>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="BP19" s="10"/>
       <c r="BQ19" s="10"/>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="BP20" s="10"/>
       <c r="BQ20" s="10"/>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="BP21" s="10"/>
       <c r="BQ21" s="10"/>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="BP22" s="10"/>
       <c r="BQ22" s="10"/>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>113</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="BP23" s="10"/>
       <c r="BQ23" s="10"/>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>114</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="BP24" s="10"/>
       <c r="BQ24" s="10"/>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3885,7 +3885,7 @@
       <c r="BP25" s="10"/>
       <c r="BQ25" s="10"/>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -3964,7 +3964,7 @@
       <c r="BP26" s="10"/>
       <c r="BQ26" s="10"/>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="BP27" s="10"/>
       <c r="BQ27" s="10"/>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="BP28" s="10"/>
       <c r="BQ28" s="10"/>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="BP29" s="10"/>
       <c r="BQ29" s="10"/>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="BP30" s="10"/>
       <c r="BQ30" s="10"/>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>52</v>
       </c>
@@ -4335,7 +4335,7 @@
       <c r="BP31" s="19"/>
       <c r="BQ31" s="15"/>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
@@ -4412,7 +4412,7 @@
       <c r="BP32" s="10"/>
       <c r="BQ32" s="10"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="BQ33" s="10"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
@@ -4580,7 +4580,7 @@
       <c r="BP34" s="10"/>
       <c r="BQ34" s="10"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>56</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>109</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="BP36" s="10"/>
       <c r="BQ36" s="10"/>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>110</v>
       </c>
@@ -4811,7 +4811,7 @@
       <c r="BP37" s="10"/>
       <c r="BQ37" s="10"/>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>111</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="BP38" s="10"/>
       <c r="BQ38" s="10"/>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>39</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="BP39" s="16"/>
       <c r="BQ39" s="14"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="BP40" s="10"/>
       <c r="BQ40" s="10"/>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="BP41" s="10"/>
       <c r="BQ41" s="10"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="BP42" s="10"/>
       <c r="BQ42" s="10"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>88</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="BP43" s="10"/>
       <c r="BQ43" s="10"/>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>89</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="BP44" s="10"/>
       <c r="BQ44" s="10"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>90</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="BP45" s="10"/>
       <c r="BQ45" s="10"/>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>91</v>
       </c>
@@ -5490,7 +5490,7 @@
       <c r="BP46" s="10"/>
       <c r="BQ46" s="10"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>92</v>
       </c>
@@ -5585,7 +5585,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5597,7 +5597,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="108" windowWidth="18852" windowHeight="8448"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="101716"/>
 </workbook>
 </file>
 
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="118">
   <si>
     <t>A1</t>
   </si>
@@ -1352,13 +1352,16 @@
   </si>
   <si>
     <t>C17</t>
+  </si>
+  <si>
+    <t>A10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,19 +1372,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1406,37 +1407,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,6 +1457,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1488,19 +1502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1517,47 +1518,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1631,7 +1627,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1666,7 +1661,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1842,23 +1836,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BR47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE33" sqref="BE33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="53" width="4.6640625" customWidth="1"/>
-    <col min="54" max="69" width="4.6640625" style="1" customWidth="1"/>
-    <col min="70" max="73" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="54" width="4.7109375" customWidth="1"/>
+    <col min="55" max="70" width="4.7109375" style="1" customWidth="1"/>
+    <col min="71" max="74" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -1871,276 +1865,280 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BB1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BC1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BD1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BE1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BF1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BH1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BI1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BK1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BM1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BO1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BO1" s="10" t="s">
+      <c r="BP1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="BQ1" s="10" t="s">
+      <c r="BR1" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:70">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="17"/>
+      <c r="BK2" s="17"/>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="17"/>
+      <c r="BN2" s="17"/>
+      <c r="BO2" s="17"/>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="13"/>
     </row>
-    <row r="3" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2149,7 +2147,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2170,7 +2168,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="9"/>
+      <c r="Z3" s="4"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
@@ -2187,7 +2185,7 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="12"/>
+      <c r="AQ3" s="9"/>
       <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
       <c r="AT3" s="12"/>
@@ -2198,7 +2196,7 @@
       <c r="AY3" s="12"/>
       <c r="AZ3" s="12"/>
       <c r="BA3" s="12"/>
-      <c r="BB3" s="10"/>
+      <c r="BB3" s="12"/>
       <c r="BC3" s="10"/>
       <c r="BD3" s="10"/>
       <c r="BE3" s="10"/>
@@ -2214,15 +2212,16 @@
       <c r="BO3" s="10"/>
       <c r="BP3" s="10"/>
       <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
     </row>
-    <row r="4" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2243,7 +2242,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="9"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
@@ -2260,7 +2259,7 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="12"/>
+      <c r="AQ4" s="9"/>
       <c r="AR4" s="12"/>
       <c r="AS4" s="12"/>
       <c r="AT4" s="12"/>
@@ -2271,7 +2270,7 @@
       <c r="AY4" s="12"/>
       <c r="AZ4" s="12"/>
       <c r="BA4" s="12"/>
-      <c r="BB4" s="10"/>
+      <c r="BB4" s="12"/>
       <c r="BC4" s="10"/>
       <c r="BD4" s="10"/>
       <c r="BE4" s="10"/>
@@ -2287,8 +2286,9 @@
       <c r="BO4" s="10"/>
       <c r="BP4" s="10"/>
       <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
     </row>
-    <row r="5" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70">
       <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2320,7 +2320,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="9"/>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -2337,7 +2337,7 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
-      <c r="AQ5" s="12"/>
+      <c r="AQ5" s="9"/>
       <c r="AR5" s="12"/>
       <c r="AS5" s="12"/>
       <c r="AT5" s="12"/>
@@ -2348,7 +2348,7 @@
       <c r="AY5" s="12"/>
       <c r="AZ5" s="12"/>
       <c r="BA5" s="12"/>
-      <c r="BB5" s="10"/>
+      <c r="BB5" s="12"/>
       <c r="BC5" s="10"/>
       <c r="BD5" s="10"/>
       <c r="BE5" s="10"/>
@@ -2364,81 +2364,83 @@
       <c r="BO5" s="10"/>
       <c r="BP5" s="10"/>
       <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
     </row>
-    <row r="6" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:70">
+      <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="22"/>
-      <c r="BQ6" s="14"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="24"/>
+      <c r="AX6" s="24"/>
+      <c r="AY6" s="24"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="24"/>
+      <c r="BB6" s="24"/>
+      <c r="BC6" s="24"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="24"/>
+      <c r="BF6" s="24"/>
+      <c r="BG6" s="24"/>
+      <c r="BH6" s="24"/>
+      <c r="BI6" s="24"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="24"/>
+      <c r="BN6" s="24"/>
+      <c r="BO6" s="24"/>
+      <c r="BP6" s="24"/>
+      <c r="BQ6" s="25"/>
+      <c r="BR6" s="14"/>
     </row>
-    <row r="7" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -2447,10 +2449,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2470,7 +2472,7 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="9"/>
+      <c r="Z7" s="7"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
@@ -2487,7 +2489,7 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
-      <c r="AQ7" s="12"/>
+      <c r="AQ7" s="9"/>
       <c r="AR7" s="12"/>
       <c r="AS7" s="12"/>
       <c r="AT7" s="12"/>
@@ -2498,7 +2500,7 @@
       <c r="AY7" s="12"/>
       <c r="AZ7" s="12"/>
       <c r="BA7" s="12"/>
-      <c r="BB7" s="10"/>
+      <c r="BB7" s="12"/>
       <c r="BC7" s="10"/>
       <c r="BD7" s="10"/>
       <c r="BE7" s="10"/>
@@ -2514,24 +2516,25 @@
       <c r="BO7" s="10"/>
       <c r="BP7" s="10"/>
       <c r="BQ7" s="10"/>
+      <c r="BR7" s="10"/>
     </row>
-    <row r="8" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2545,7 +2548,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="9"/>
+      <c r="Z8" s="7"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
@@ -2562,7 +2565,7 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
-      <c r="AQ8" s="12"/>
+      <c r="AQ8" s="9"/>
       <c r="AR8" s="12"/>
       <c r="AS8" s="12"/>
       <c r="AT8" s="12"/>
@@ -2573,7 +2576,7 @@
       <c r="AY8" s="12"/>
       <c r="AZ8" s="12"/>
       <c r="BA8" s="12"/>
-      <c r="BB8" s="10"/>
+      <c r="BB8" s="12"/>
       <c r="BC8" s="10"/>
       <c r="BD8" s="10"/>
       <c r="BE8" s="10"/>
@@ -2589,23 +2592,24 @@
       <c r="BO8" s="10"/>
       <c r="BP8" s="10"/>
       <c r="BQ8" s="10"/>
+      <c r="BR8" s="10"/>
     </row>
-    <row r="9" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -2620,7 +2624,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="9"/>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
@@ -2637,7 +2641,7 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
-      <c r="AQ9" s="12"/>
+      <c r="AQ9" s="9"/>
       <c r="AR9" s="12"/>
       <c r="AS9" s="12"/>
       <c r="AT9" s="12"/>
@@ -2648,7 +2652,7 @@
       <c r="AY9" s="12"/>
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
-      <c r="BB9" s="10"/>
+      <c r="BB9" s="12"/>
       <c r="BC9" s="10"/>
       <c r="BD9" s="10"/>
       <c r="BE9" s="10"/>
@@ -2664,50 +2668,51 @@
       <c r="BO9" s="10"/>
       <c r="BP9" s="10"/>
       <c r="BQ9" s="10"/>
+      <c r="BR9" s="10"/>
     </row>
-    <row r="10" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="V10" s="7"/>
       <c r="W10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7" t="s">
+      <c r="X10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Z10" s="9"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
@@ -2724,7 +2729,7 @@
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="12"/>
+      <c r="AQ10" s="9"/>
       <c r="AR10" s="12"/>
       <c r="AS10" s="12"/>
       <c r="AT10" s="12"/>
@@ -2735,7 +2740,7 @@
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="10"/>
+      <c r="BB10" s="12"/>
       <c r="BC10" s="10"/>
       <c r="BD10" s="10"/>
       <c r="BE10" s="10"/>
@@ -2751,15 +2756,16 @@
       <c r="BO10" s="10"/>
       <c r="BP10" s="10"/>
       <c r="BQ10" s="10"/>
+      <c r="BR10" s="10"/>
     </row>
-    <row r="11" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2772,21 +2778,21 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="7"/>
+      <c r="S11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="7"/>
+      <c r="V11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="9"/>
+      <c r="Z11" s="7"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
@@ -2803,7 +2809,7 @@
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
-      <c r="AQ11" s="12"/>
+      <c r="AQ11" s="9"/>
       <c r="AR11" s="12"/>
       <c r="AS11" s="12"/>
       <c r="AT11" s="12"/>
@@ -2814,7 +2820,7 @@
       <c r="AY11" s="12"/>
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
-      <c r="BB11" s="10"/>
+      <c r="BB11" s="12"/>
       <c r="BC11" s="10"/>
       <c r="BD11" s="10"/>
       <c r="BE11" s="10"/>
@@ -2830,15 +2836,16 @@
       <c r="BO11" s="10"/>
       <c r="BP11" s="10"/>
       <c r="BQ11" s="10"/>
+      <c r="BR11" s="10"/>
     </row>
-    <row r="12" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2852,16 +2859,16 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="7"/>
+      <c r="T12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="7"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -2878,7 +2885,7 @@
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
-      <c r="AQ12" s="12"/>
+      <c r="AQ12" s="9"/>
       <c r="AR12" s="12"/>
       <c r="AS12" s="12"/>
       <c r="AT12" s="12"/>
@@ -2889,7 +2896,7 @@
       <c r="AY12" s="12"/>
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
-      <c r="BB12" s="10"/>
+      <c r="BB12" s="12"/>
       <c r="BC12" s="10"/>
       <c r="BD12" s="10"/>
       <c r="BE12" s="10"/>
@@ -2905,15 +2912,16 @@
       <c r="BO12" s="10"/>
       <c r="BP12" s="10"/>
       <c r="BQ12" s="10"/>
+      <c r="BR12" s="10"/>
     </row>
-    <row r="13" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -2924,10 +2932,10 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -2936,7 +2944,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="7"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -2952,10 +2960,10 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
-      <c r="AP13" s="9" t="s">
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
       <c r="AS13" s="12"/>
       <c r="AT13" s="12"/>
@@ -2966,7 +2974,7 @@
       <c r="AY13" s="12"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
-      <c r="BB13" s="10"/>
+      <c r="BB13" s="12"/>
       <c r="BC13" s="10"/>
       <c r="BD13" s="10"/>
       <c r="BE13" s="10"/>
@@ -2982,15 +2990,16 @@
       <c r="BO13" s="10"/>
       <c r="BP13" s="10"/>
       <c r="BQ13" s="10"/>
+      <c r="BR13" s="10"/>
     </row>
-    <row r="14" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -2998,26 +3007,26 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="7"/>
+      <c r="U14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="7"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -3034,7 +3043,7 @@
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
-      <c r="AQ14" s="12"/>
+      <c r="AQ14" s="9"/>
       <c r="AR14" s="12"/>
       <c r="AS14" s="12"/>
       <c r="AT14" s="12"/>
@@ -3045,7 +3054,7 @@
       <c r="AY14" s="12"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
-      <c r="BB14" s="10"/>
+      <c r="BB14" s="12"/>
       <c r="BC14" s="10"/>
       <c r="BD14" s="10"/>
       <c r="BE14" s="10"/>
@@ -3061,15 +3070,16 @@
       <c r="BO14" s="10"/>
       <c r="BP14" s="10"/>
       <c r="BQ14" s="10"/>
+      <c r="BR14" s="10"/>
     </row>
-    <row r="15" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3083,16 +3093,16 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="7"/>
+      <c r="T15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="7"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -3105,13 +3115,13 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
-      <c r="AM15" s="9" t="s">
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
-      <c r="AQ15" s="12"/>
+      <c r="AQ15" s="9"/>
       <c r="AR15" s="12"/>
       <c r="AS15" s="12"/>
       <c r="AT15" s="12"/>
@@ -3122,7 +3132,7 @@
       <c r="AY15" s="12"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
-      <c r="BB15" s="10"/>
+      <c r="BB15" s="12"/>
       <c r="BC15" s="10"/>
       <c r="BD15" s="10"/>
       <c r="BE15" s="10"/>
@@ -3138,20 +3148,21 @@
       <c r="BO15" s="10"/>
       <c r="BP15" s="10"/>
       <c r="BQ15" s="10"/>
+      <c r="BR15" s="10"/>
     </row>
-    <row r="16" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -3169,7 +3180,7 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="7"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -3186,7 +3197,7 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
-      <c r="AQ16" s="12"/>
+      <c r="AQ16" s="9"/>
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12"/>
@@ -3197,7 +3208,7 @@
       <c r="AY16" s="12"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
-      <c r="BB16" s="10"/>
+      <c r="BB16" s="12"/>
       <c r="BC16" s="10"/>
       <c r="BD16" s="10"/>
       <c r="BE16" s="10"/>
@@ -3213,92 +3224,96 @@
       <c r="BO16" s="10"/>
       <c r="BP16" s="10"/>
       <c r="BQ16" s="10"/>
+      <c r="BR16" s="10"/>
     </row>
-    <row r="17" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:70">
+      <c r="A17" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
-      <c r="BK17" s="21"/>
-      <c r="BL17" s="21"/>
-      <c r="BM17" s="21"/>
-      <c r="BN17" s="21"/>
-      <c r="BO17" s="21"/>
-      <c r="BP17" s="22"/>
-      <c r="BQ17" s="14"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="24"/>
+      <c r="AW17" s="24"/>
+      <c r="AX17" s="24"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="24"/>
+      <c r="BA17" s="24"/>
+      <c r="BB17" s="24"/>
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="24"/>
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="24"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="24"/>
+      <c r="BI17" s="24"/>
+      <c r="BJ17" s="24"/>
+      <c r="BK17" s="24"/>
+      <c r="BL17" s="24"/>
+      <c r="BM17" s="24"/>
+      <c r="BN17" s="24"/>
+      <c r="BO17" s="24"/>
+      <c r="BP17" s="24"/>
+      <c r="BQ17" s="25"/>
+      <c r="BR17" s="14"/>
     </row>
-    <row r="18" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -3315,13 +3330,13 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="9"/>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
-      <c r="AC18" s="9" t="s">
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -3334,7 +3349,7 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
-      <c r="AQ18" s="11"/>
+      <c r="AQ18" s="9"/>
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
       <c r="AT18" s="11"/>
@@ -3345,7 +3360,7 @@
       <c r="AY18" s="11"/>
       <c r="AZ18" s="11"/>
       <c r="BA18" s="11"/>
-      <c r="BB18" s="10"/>
+      <c r="BB18" s="11"/>
       <c r="BC18" s="10"/>
       <c r="BD18" s="10"/>
       <c r="BE18" s="10"/>
@@ -3361,19 +3376,20 @@
       <c r="BO18" s="10"/>
       <c r="BP18" s="10"/>
       <c r="BQ18" s="10"/>
+      <c r="BR18" s="10"/>
     </row>
-    <row r="19" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -3390,18 +3406,18 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="7"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
-      <c r="AE19" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AE19" s="9"/>
       <c r="AF19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AG19" s="9"/>
+      <c r="AG19" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
@@ -3411,7 +3427,7 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
-      <c r="AQ19" s="11"/>
+      <c r="AQ19" s="9"/>
       <c r="AR19" s="11"/>
       <c r="AS19" s="11"/>
       <c r="AT19" s="11"/>
@@ -3422,7 +3438,7 @@
       <c r="AY19" s="11"/>
       <c r="AZ19" s="11"/>
       <c r="BA19" s="11"/>
-      <c r="BB19" s="10"/>
+      <c r="BB19" s="11"/>
       <c r="BC19" s="10"/>
       <c r="BD19" s="10"/>
       <c r="BE19" s="10"/>
@@ -3438,19 +3454,20 @@
       <c r="BO19" s="10"/>
       <c r="BP19" s="10"/>
       <c r="BQ19" s="10"/>
+      <c r="BR19" s="10"/>
     </row>
-    <row r="20" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -3467,7 +3484,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="9"/>
+      <c r="Z20" s="7"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
@@ -3476,17 +3493,17 @@
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
       <c r="AH20" s="9"/>
-      <c r="AI20" s="9" t="s">
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
-      <c r="AQ20" s="11"/>
+      <c r="AQ20" s="9"/>
       <c r="AR20" s="11"/>
       <c r="AS20" s="11"/>
       <c r="AT20" s="11"/>
@@ -3497,7 +3514,7 @@
       <c r="AY20" s="11"/>
       <c r="AZ20" s="11"/>
       <c r="BA20" s="11"/>
-      <c r="BB20" s="10"/>
+      <c r="BB20" s="11"/>
       <c r="BC20" s="10"/>
       <c r="BD20" s="10"/>
       <c r="BE20" s="10"/>
@@ -3513,19 +3530,20 @@
       <c r="BO20" s="10"/>
       <c r="BP20" s="10"/>
       <c r="BQ20" s="10"/>
+      <c r="BR20" s="10"/>
     </row>
-    <row r="21" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70">
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -3542,17 +3560,17 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="9"/>
+      <c r="Z21" s="7"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
-      <c r="AG21" s="9" t="s">
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
@@ -3561,7 +3579,7 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
-      <c r="AQ21" s="11"/>
+      <c r="AQ21" s="9"/>
       <c r="AR21" s="11"/>
       <c r="AS21" s="11"/>
       <c r="AT21" s="11"/>
@@ -3572,7 +3590,7 @@
       <c r="AY21" s="11"/>
       <c r="AZ21" s="11"/>
       <c r="BA21" s="11"/>
-      <c r="BB21" s="10"/>
+      <c r="BB21" s="11"/>
       <c r="BC21" s="10"/>
       <c r="BD21" s="10"/>
       <c r="BE21" s="10"/>
@@ -3588,19 +3606,20 @@
       <c r="BO21" s="10"/>
       <c r="BP21" s="10"/>
       <c r="BQ21" s="10"/>
+      <c r="BR21" s="10"/>
     </row>
-    <row r="22" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -3617,7 +3636,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="9"/>
+      <c r="Z22" s="7"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
@@ -3627,16 +3646,16 @@
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
-      <c r="AJ22" s="9" t="s">
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-      <c r="AQ22" s="11"/>
+      <c r="AQ22" s="9"/>
       <c r="AR22" s="11"/>
       <c r="AS22" s="11"/>
       <c r="AT22" s="11"/>
@@ -3647,7 +3666,7 @@
       <c r="AY22" s="11"/>
       <c r="AZ22" s="11"/>
       <c r="BA22" s="11"/>
-      <c r="BB22" s="10"/>
+      <c r="BB22" s="11"/>
       <c r="BC22" s="10"/>
       <c r="BD22" s="10"/>
       <c r="BE22" s="10"/>
@@ -3663,19 +3682,20 @@
       <c r="BO22" s="10"/>
       <c r="BP22" s="10"/>
       <c r="BQ22" s="10"/>
+      <c r="BR22" s="10"/>
     </row>
-    <row r="23" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70">
       <c r="A23" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -3692,14 +3712,14 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="9"/>
+      <c r="Z23" s="7"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
-      <c r="AD23" s="9" t="s">
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -3711,7 +3731,7 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-      <c r="AQ23" s="11"/>
+      <c r="AQ23" s="9"/>
       <c r="AR23" s="11"/>
       <c r="AS23" s="11"/>
       <c r="AT23" s="11"/>
@@ -3722,7 +3742,7 @@
       <c r="AY23" s="11"/>
       <c r="AZ23" s="11"/>
       <c r="BA23" s="11"/>
-      <c r="BB23" s="10"/>
+      <c r="BB23" s="11"/>
       <c r="BC23" s="10"/>
       <c r="BD23" s="10"/>
       <c r="BE23" s="10"/>
@@ -3738,19 +3758,20 @@
       <c r="BO23" s="10"/>
       <c r="BP23" s="10"/>
       <c r="BQ23" s="10"/>
+      <c r="BR23" s="10"/>
     </row>
-    <row r="24" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70">
       <c r="A24" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -3767,7 +3788,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="9"/>
+      <c r="Z24" s="7"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
@@ -3784,7 +3805,7 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="11"/>
+      <c r="AQ24" s="9"/>
       <c r="AR24" s="11"/>
       <c r="AS24" s="11"/>
       <c r="AT24" s="11"/>
@@ -3795,7 +3816,7 @@
       <c r="AY24" s="11"/>
       <c r="AZ24" s="11"/>
       <c r="BA24" s="11"/>
-      <c r="BB24" s="10"/>
+      <c r="BB24" s="11"/>
       <c r="BC24" s="10"/>
       <c r="BD24" s="10"/>
       <c r="BE24" s="10"/>
@@ -3811,19 +3832,20 @@
       <c r="BO24" s="10"/>
       <c r="BP24" s="10"/>
       <c r="BQ24" s="10"/>
+      <c r="BR24" s="10"/>
     </row>
-    <row r="25" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:70">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -3840,7 +3862,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="9"/>
+      <c r="Z25" s="7"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
@@ -3857,7 +3879,7 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
-      <c r="AQ25" s="11"/>
+      <c r="AQ25" s="9"/>
       <c r="AR25" s="11"/>
       <c r="AS25" s="11"/>
       <c r="AT25" s="11"/>
@@ -3868,7 +3890,7 @@
       <c r="AY25" s="11"/>
       <c r="AZ25" s="11"/>
       <c r="BA25" s="11"/>
-      <c r="BB25" s="10"/>
+      <c r="BB25" s="11"/>
       <c r="BC25" s="10"/>
       <c r="BD25" s="10"/>
       <c r="BE25" s="10"/>
@@ -3884,28 +3906,29 @@
       <c r="BO25" s="10"/>
       <c r="BP25" s="10"/>
       <c r="BQ25" s="10"/>
+      <c r="BR25" s="10"/>
     </row>
-    <row r="26" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:70">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="7"/>
+      <c r="P26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -3915,10 +3938,10 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="9" t="s">
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
@@ -3934,20 +3957,20 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
-      <c r="AQ26" s="11"/>
+      <c r="AQ26" s="9"/>
       <c r="AR26" s="11"/>
       <c r="AS26" s="11"/>
       <c r="AT26" s="11"/>
       <c r="AU26" s="11"/>
       <c r="AV26" s="11"/>
-      <c r="AW26" s="11" t="s">
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
       <c r="AZ26" s="11"/>
       <c r="BA26" s="11"/>
-      <c r="BB26" s="10"/>
+      <c r="BB26" s="11"/>
       <c r="BC26" s="10"/>
       <c r="BD26" s="10"/>
       <c r="BE26" s="10"/>
@@ -3963,19 +3986,20 @@
       <c r="BO26" s="10"/>
       <c r="BP26" s="10"/>
       <c r="BQ26" s="10"/>
+      <c r="BR26" s="10"/>
     </row>
-    <row r="27" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:70">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -3992,7 +4016,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="9"/>
+      <c r="Z27" s="7"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -4009,7 +4033,7 @@
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
-      <c r="AQ27" s="11"/>
+      <c r="AQ27" s="9"/>
       <c r="AR27" s="11"/>
       <c r="AS27" s="11"/>
       <c r="AT27" s="11"/>
@@ -4020,7 +4044,7 @@
       <c r="AY27" s="11"/>
       <c r="AZ27" s="11"/>
       <c r="BA27" s="11"/>
-      <c r="BB27" s="10"/>
+      <c r="BB27" s="11"/>
       <c r="BC27" s="10"/>
       <c r="BD27" s="10"/>
       <c r="BE27" s="10"/>
@@ -4036,19 +4060,20 @@
       <c r="BO27" s="10"/>
       <c r="BP27" s="10"/>
       <c r="BQ27" s="10"/>
+      <c r="BR27" s="10"/>
     </row>
-    <row r="28" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:70">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -4065,20 +4090,20 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="9"/>
+      <c r="Z28" s="7"/>
       <c r="AA28" s="9"/>
-      <c r="AB28" s="9" t="s">
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="9"/>
-      <c r="AH28" s="9" t="s">
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
@@ -4086,7 +4111,7 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9"/>
-      <c r="AQ28" s="11"/>
+      <c r="AQ28" s="9"/>
       <c r="AR28" s="11"/>
       <c r="AS28" s="11"/>
       <c r="AT28" s="11"/>
@@ -4097,7 +4122,7 @@
       <c r="AY28" s="11"/>
       <c r="AZ28" s="11"/>
       <c r="BA28" s="11"/>
-      <c r="BB28" s="10"/>
+      <c r="BB28" s="11"/>
       <c r="BC28" s="10"/>
       <c r="BD28" s="10"/>
       <c r="BE28" s="10"/>
@@ -4113,19 +4138,20 @@
       <c r="BO28" s="10"/>
       <c r="BP28" s="10"/>
       <c r="BQ28" s="10"/>
+      <c r="BR28" s="10"/>
     </row>
-    <row r="29" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:70">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -4142,11 +4168,11 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9" t="s">
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
@@ -4161,7 +4187,7 @@
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
-      <c r="AQ29" s="11"/>
+      <c r="AQ29" s="9"/>
       <c r="AR29" s="11"/>
       <c r="AS29" s="11"/>
       <c r="AT29" s="11"/>
@@ -4172,7 +4198,7 @@
       <c r="AY29" s="11"/>
       <c r="AZ29" s="11"/>
       <c r="BA29" s="11"/>
-      <c r="BB29" s="10"/>
+      <c r="BB29" s="11"/>
       <c r="BC29" s="10"/>
       <c r="BD29" s="10"/>
       <c r="BE29" s="10"/>
@@ -4188,19 +4214,20 @@
       <c r="BO29" s="10"/>
       <c r="BP29" s="10"/>
       <c r="BQ29" s="10"/>
+      <c r="BR29" s="10"/>
     </row>
-    <row r="30" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:70">
       <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -4217,7 +4244,7 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="9"/>
+      <c r="Z30" s="7"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
@@ -4234,7 +4261,7 @@
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
       <c r="AP30" s="9"/>
-      <c r="AQ30" s="11"/>
+      <c r="AQ30" s="9"/>
       <c r="AR30" s="11"/>
       <c r="AS30" s="11"/>
       <c r="AT30" s="11"/>
@@ -4245,7 +4272,7 @@
       <c r="AY30" s="11"/>
       <c r="AZ30" s="11"/>
       <c r="BA30" s="11"/>
-      <c r="BB30" s="10"/>
+      <c r="BB30" s="11"/>
       <c r="BC30" s="10"/>
       <c r="BD30" s="10"/>
       <c r="BE30" s="10"/>
@@ -4261,88 +4288,90 @@
       <c r="BO30" s="10"/>
       <c r="BP30" s="10"/>
       <c r="BQ30" s="10"/>
+      <c r="BR30" s="10"/>
     </row>
-    <row r="31" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:70">
+      <c r="A31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
-      <c r="AI31" s="18"/>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="18"/>
-      <c r="AL31" s="18"/>
-      <c r="AM31" s="18"/>
-      <c r="AN31" s="18"/>
-      <c r="AO31" s="18"/>
-      <c r="AP31" s="18"/>
-      <c r="AQ31" s="18"/>
-      <c r="AR31" s="18"/>
-      <c r="AS31" s="18"/>
-      <c r="AT31" s="18"/>
-      <c r="AU31" s="18"/>
-      <c r="AV31" s="18"/>
-      <c r="AW31" s="18"/>
-      <c r="AX31" s="18"/>
-      <c r="AY31" s="18"/>
-      <c r="AZ31" s="18"/>
-      <c r="BA31" s="18"/>
-      <c r="BB31" s="18"/>
-      <c r="BC31" s="18"/>
-      <c r="BD31" s="18"/>
-      <c r="BE31" s="18"/>
-      <c r="BF31" s="18"/>
-      <c r="BG31" s="18"/>
-      <c r="BH31" s="18"/>
-      <c r="BI31" s="18"/>
-      <c r="BJ31" s="18"/>
-      <c r="BK31" s="18"/>
-      <c r="BL31" s="18"/>
-      <c r="BM31" s="18"/>
-      <c r="BN31" s="18"/>
-      <c r="BO31" s="18"/>
-      <c r="BP31" s="19"/>
-      <c r="BQ31" s="15"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="21"/>
+      <c r="AT31" s="21"/>
+      <c r="AU31" s="21"/>
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="21"/>
+      <c r="AX31" s="21"/>
+      <c r="AY31" s="21"/>
+      <c r="AZ31" s="21"/>
+      <c r="BA31" s="21"/>
+      <c r="BB31" s="21"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="21"/>
+      <c r="BE31" s="21"/>
+      <c r="BF31" s="21"/>
+      <c r="BG31" s="21"/>
+      <c r="BH31" s="21"/>
+      <c r="BI31" s="21"/>
+      <c r="BJ31" s="21"/>
+      <c r="BK31" s="21"/>
+      <c r="BL31" s="21"/>
+      <c r="BM31" s="21"/>
+      <c r="BN31" s="21"/>
+      <c r="BO31" s="21"/>
+      <c r="BP31" s="21"/>
+      <c r="BQ31" s="22"/>
+      <c r="BR31" s="15"/>
     </row>
-    <row r="32" spans="1:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:70">
       <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -4354,10 +4383,10 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="4"/>
+      <c r="R32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -4365,7 +4394,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="9"/>
+      <c r="Z32" s="4"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -4382,7 +4411,7 @@
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="9"/>
-      <c r="AQ32" s="12"/>
+      <c r="AQ32" s="9"/>
       <c r="AR32" s="12"/>
       <c r="AS32" s="12"/>
       <c r="AT32" s="12"/>
@@ -4393,12 +4422,12 @@
       <c r="AY32" s="12"/>
       <c r="AZ32" s="12"/>
       <c r="BA32" s="12"/>
-      <c r="BB32" s="10"/>
+      <c r="BB32" s="12"/>
       <c r="BC32" s="10"/>
-      <c r="BD32" s="10" t="s">
+      <c r="BD32" s="10"/>
+      <c r="BE32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BE32" s="10"/>
       <c r="BF32" s="10"/>
       <c r="BG32" s="10"/>
       <c r="BH32" s="10"/>
@@ -4411,15 +4440,16 @@
       <c r="BO32" s="10"/>
       <c r="BP32" s="10"/>
       <c r="BQ32" s="10"/>
+      <c r="BR32" s="10"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:70">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -4440,7 +4470,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="9"/>
+      <c r="Z33" s="4"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
@@ -4451,17 +4481,17 @@
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
-      <c r="AK33" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AK33" s="9"/>
       <c r="AL33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AM33" s="9"/>
+      <c r="AM33" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
-      <c r="AQ33" s="12"/>
+      <c r="AQ33" s="9"/>
       <c r="AR33" s="12"/>
       <c r="AS33" s="12"/>
       <c r="AT33" s="12"/>
@@ -4472,45 +4502,46 @@
       <c r="AY33" s="12"/>
       <c r="AZ33" s="12"/>
       <c r="BA33" s="12"/>
-      <c r="BB33" s="10" t="s">
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BC33" s="10"/>
       <c r="BD33" s="10"/>
-      <c r="BE33" s="10" t="s">
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="BG33" s="10"/>
       <c r="BH33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BI33" s="10"/>
+      <c r="BI33" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="BJ33" s="10"/>
       <c r="BK33" s="10"/>
       <c r="BL33" s="10"/>
-      <c r="BM33" s="10" t="s">
+      <c r="BM33" s="10"/>
+      <c r="BN33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BN33" s="10"/>
-      <c r="BO33" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BO33" s="10"/>
       <c r="BP33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BQ33" s="10"/>
+      <c r="BQ33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BR33" s="10"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:70">
       <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -4531,7 +4562,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="9"/>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
@@ -4548,7 +4579,7 @@
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="9"/>
-      <c r="AQ34" s="12"/>
+      <c r="AQ34" s="9"/>
       <c r="AR34" s="12"/>
       <c r="AS34" s="12"/>
       <c r="AT34" s="12"/>
@@ -4559,16 +4590,16 @@
       <c r="AY34" s="12"/>
       <c r="AZ34" s="12"/>
       <c r="BA34" s="12"/>
-      <c r="BB34" s="10"/>
-      <c r="BC34" s="10" t="s">
+      <c r="BB34" s="12"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BD34" s="10"/>
       <c r="BE34" s="10"/>
-      <c r="BF34" s="10" t="s">
+      <c r="BF34" s="10"/>
+      <c r="BG34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BG34" s="10"/>
       <c r="BH34" s="10"/>
       <c r="BI34" s="10"/>
       <c r="BJ34" s="10"/>
@@ -4579,15 +4610,16 @@
       <c r="BO34" s="10"/>
       <c r="BP34" s="10"/>
       <c r="BQ34" s="10"/>
+      <c r="BR34" s="10"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:70">
       <c r="A35" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -4608,7 +4640,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="9"/>
+      <c r="Z35" s="4"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
@@ -4625,7 +4657,7 @@
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
       <c r="AP35" s="9"/>
-      <c r="AQ35" s="12"/>
+      <c r="AQ35" s="9"/>
       <c r="AR35" s="12"/>
       <c r="AS35" s="12"/>
       <c r="AT35" s="12"/>
@@ -4636,7 +4668,7 @@
       <c r="AY35" s="12"/>
       <c r="AZ35" s="12"/>
       <c r="BA35" s="12"/>
-      <c r="BB35" s="10"/>
+      <c r="BB35" s="12"/>
       <c r="BC35" s="10"/>
       <c r="BD35" s="10"/>
       <c r="BE35" s="10"/>
@@ -4651,11 +4683,12 @@
       <c r="BN35" s="10"/>
       <c r="BO35" s="10"/>
       <c r="BP35" s="10"/>
-      <c r="BQ35" s="10" t="s">
+      <c r="BQ35" s="10"/>
+      <c r="BR35" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:70">
       <c r="A36" s="10" t="s">
         <v>109</v>
       </c>
@@ -4664,7 +4697,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -4685,7 +4718,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="9"/>
+      <c r="Z36" s="4"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
@@ -4702,7 +4735,7 @@
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
       <c r="AP36" s="9"/>
-      <c r="AQ36" s="12"/>
+      <c r="AQ36" s="9"/>
       <c r="AR36" s="12"/>
       <c r="AS36" s="12"/>
       <c r="AT36" s="12"/>
@@ -4713,37 +4746,38 @@
       <c r="AY36" s="12"/>
       <c r="AZ36" s="12"/>
       <c r="BA36" s="12"/>
-      <c r="BB36" s="10"/>
+      <c r="BB36" s="12"/>
       <c r="BC36" s="10"/>
       <c r="BD36" s="10"/>
       <c r="BE36" s="10"/>
       <c r="BF36" s="10"/>
       <c r="BG36" s="10"/>
       <c r="BH36" s="10"/>
-      <c r="BI36" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BI36" s="10"/>
       <c r="BJ36" s="10" t="s">
         <v>57</v>
       </c>
       <c r="BK36" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BL36" s="10"/>
+      <c r="BL36" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="BM36" s="10"/>
       <c r="BN36" s="10"/>
       <c r="BO36" s="10"/>
       <c r="BP36" s="10"/>
       <c r="BQ36" s="10"/>
+      <c r="BR36" s="10"/>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:70">
       <c r="A37" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -4764,7 +4798,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="9"/>
+      <c r="Z37" s="4"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -4781,7 +4815,7 @@
       <c r="AN37" s="9"/>
       <c r="AO37" s="9"/>
       <c r="AP37" s="9"/>
-      <c r="AQ37" s="12"/>
+      <c r="AQ37" s="9"/>
       <c r="AR37" s="12"/>
       <c r="AS37" s="12"/>
       <c r="AT37" s="12"/>
@@ -4792,7 +4826,7 @@
       <c r="AY37" s="12"/>
       <c r="AZ37" s="12"/>
       <c r="BA37" s="12"/>
-      <c r="BB37" s="10"/>
+      <c r="BB37" s="12"/>
       <c r="BC37" s="10"/>
       <c r="BD37" s="10"/>
       <c r="BE37" s="10"/>
@@ -4802,23 +4836,24 @@
       <c r="BI37" s="10"/>
       <c r="BJ37" s="10"/>
       <c r="BK37" s="10"/>
-      <c r="BL37" s="10" t="s">
+      <c r="BL37" s="10"/>
+      <c r="BM37" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BM37" s="10"/>
       <c r="BN37" s="10"/>
       <c r="BO37" s="10"/>
       <c r="BP37" s="10"/>
       <c r="BQ37" s="10"/>
+      <c r="BR37" s="10"/>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:70">
       <c r="A38" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -4839,7 +4874,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="9"/>
+      <c r="Z38" s="4"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -4856,7 +4891,7 @@
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
       <c r="AP38" s="9"/>
-      <c r="AQ38" s="12"/>
+      <c r="AQ38" s="9"/>
       <c r="AR38" s="12"/>
       <c r="AS38" s="12"/>
       <c r="AT38" s="12"/>
@@ -4867,7 +4902,7 @@
       <c r="AY38" s="12"/>
       <c r="AZ38" s="12"/>
       <c r="BA38" s="12"/>
-      <c r="BB38" s="10"/>
+      <c r="BB38" s="12"/>
       <c r="BC38" s="10"/>
       <c r="BD38" s="10"/>
       <c r="BE38" s="10"/>
@@ -4879,94 +4914,96 @@
       <c r="BK38" s="10"/>
       <c r="BL38" s="10"/>
       <c r="BM38" s="10"/>
-      <c r="BN38" s="10" t="s">
+      <c r="BN38" s="10"/>
+      <c r="BO38" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BO38" s="10"/>
       <c r="BP38" s="10"/>
       <c r="BQ38" s="10"/>
+      <c r="BR38" s="10"/>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:70">
+      <c r="A39" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
-      <c r="AG39" s="16"/>
-      <c r="AH39" s="16"/>
-      <c r="AI39" s="16"/>
-      <c r="AJ39" s="16"/>
-      <c r="AK39" s="16"/>
-      <c r="AL39" s="16"/>
-      <c r="AM39" s="16"/>
-      <c r="AN39" s="16"/>
-      <c r="AO39" s="16"/>
-      <c r="AP39" s="16"/>
-      <c r="AQ39" s="16"/>
-      <c r="AR39" s="16"/>
-      <c r="AS39" s="16"/>
-      <c r="AT39" s="16"/>
-      <c r="AU39" s="16"/>
-      <c r="AV39" s="16"/>
-      <c r="AW39" s="16"/>
-      <c r="AX39" s="16"/>
-      <c r="AY39" s="16"/>
-      <c r="AZ39" s="16"/>
-      <c r="BA39" s="16"/>
-      <c r="BB39" s="16"/>
-      <c r="BC39" s="16"/>
-      <c r="BD39" s="16"/>
-      <c r="BE39" s="16"/>
-      <c r="BF39" s="16"/>
-      <c r="BG39" s="16"/>
-      <c r="BH39" s="16"/>
-      <c r="BI39" s="16"/>
-      <c r="BJ39" s="16"/>
-      <c r="BK39" s="16"/>
-      <c r="BL39" s="16"/>
-      <c r="BM39" s="16"/>
-      <c r="BN39" s="16"/>
-      <c r="BO39" s="16"/>
-      <c r="BP39" s="16"/>
-      <c r="BQ39" s="14"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="19"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="19"/>
+      <c r="AQ39" s="19"/>
+      <c r="AR39" s="19"/>
+      <c r="AS39" s="19"/>
+      <c r="AT39" s="19"/>
+      <c r="AU39" s="19"/>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="19"/>
+      <c r="AY39" s="19"/>
+      <c r="AZ39" s="19"/>
+      <c r="BA39" s="19"/>
+      <c r="BB39" s="19"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="19"/>
+      <c r="BE39" s="19"/>
+      <c r="BF39" s="19"/>
+      <c r="BG39" s="19"/>
+      <c r="BH39" s="19"/>
+      <c r="BI39" s="19"/>
+      <c r="BJ39" s="19"/>
+      <c r="BK39" s="19"/>
+      <c r="BL39" s="19"/>
+      <c r="BM39" s="19"/>
+      <c r="BN39" s="19"/>
+      <c r="BO39" s="19"/>
+      <c r="BP39" s="19"/>
+      <c r="BQ39" s="19"/>
+      <c r="BR39" s="14"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:70">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -4987,7 +5024,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="9"/>
+      <c r="Z40" s="4"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -5001,17 +5038,17 @@
       <c r="AK40" s="9"/>
       <c r="AL40" s="9"/>
       <c r="AM40" s="9"/>
-      <c r="AN40" s="9" t="s">
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AO40" s="9"/>
       <c r="AP40" s="9"/>
-      <c r="AQ40" s="11"/>
+      <c r="AQ40" s="9"/>
       <c r="AR40" s="11"/>
-      <c r="AS40" s="11" t="s">
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT40" s="11"/>
       <c r="AU40" s="11"/>
       <c r="AV40" s="11"/>
       <c r="AW40" s="11"/>
@@ -5019,7 +5056,7 @@
       <c r="AY40" s="11"/>
       <c r="AZ40" s="11"/>
       <c r="BA40" s="11"/>
-      <c r="BB40" s="10"/>
+      <c r="BB40" s="11"/>
       <c r="BC40" s="10"/>
       <c r="BD40" s="10"/>
       <c r="BE40" s="10"/>
@@ -5035,15 +5072,16 @@
       <c r="BO40" s="10"/>
       <c r="BP40" s="10"/>
       <c r="BQ40" s="10"/>
+      <c r="BR40" s="10"/>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:70">
       <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -5064,7 +5102,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="9"/>
+      <c r="Z41" s="4"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
@@ -5081,24 +5119,24 @@
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
       <c r="AP41" s="9"/>
-      <c r="AQ41" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="AQ41" s="9"/>
       <c r="AR41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AS41" s="11"/>
-      <c r="AT41" s="11" t="s">
+      <c r="AS41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AU41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="AV41" s="11"/>
       <c r="AW41" s="11"/>
       <c r="AX41" s="11"/>
       <c r="AY41" s="11"/>
       <c r="AZ41" s="11"/>
       <c r="BA41" s="11"/>
-      <c r="BB41" s="10"/>
+      <c r="BB41" s="11"/>
       <c r="BC41" s="10"/>
       <c r="BD41" s="10"/>
       <c r="BE41" s="10"/>
@@ -5114,15 +5152,16 @@
       <c r="BO41" s="10"/>
       <c r="BP41" s="10"/>
       <c r="BQ41" s="10"/>
+      <c r="BR41" s="10"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:70">
       <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -5143,7 +5182,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
-      <c r="Z42" s="9"/>
+      <c r="Z42" s="4"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
@@ -5160,20 +5199,20 @@
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
       <c r="AP42" s="9"/>
-      <c r="AQ42" s="11"/>
+      <c r="AQ42" s="9"/>
       <c r="AR42" s="11"/>
       <c r="AS42" s="11"/>
       <c r="AT42" s="11"/>
-      <c r="AU42" s="11" t="s">
+      <c r="AU42" s="11"/>
+      <c r="AV42" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AV42" s="11"/>
       <c r="AW42" s="11"/>
       <c r="AX42" s="11"/>
       <c r="AY42" s="11"/>
       <c r="AZ42" s="11"/>
       <c r="BA42" s="11"/>
-      <c r="BB42" s="10"/>
+      <c r="BB42" s="11"/>
       <c r="BC42" s="10"/>
       <c r="BD42" s="10"/>
       <c r="BE42" s="10"/>
@@ -5189,15 +5228,16 @@
       <c r="BO42" s="10"/>
       <c r="BP42" s="10"/>
       <c r="BQ42" s="10"/>
+      <c r="BR42" s="10"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:70">
       <c r="A43" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -5218,7 +5258,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
-      <c r="Z43" s="9"/>
+      <c r="Z43" s="4"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -5235,20 +5275,20 @@
       <c r="AN43" s="9"/>
       <c r="AO43" s="9"/>
       <c r="AP43" s="9"/>
-      <c r="AQ43" s="11"/>
+      <c r="AQ43" s="9"/>
       <c r="AR43" s="11"/>
       <c r="AS43" s="11"/>
       <c r="AT43" s="11"/>
       <c r="AU43" s="11"/>
-      <c r="AV43" s="11" t="s">
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AW43" s="11"/>
       <c r="AX43" s="11"/>
       <c r="AY43" s="11"/>
       <c r="AZ43" s="11"/>
       <c r="BA43" s="11"/>
-      <c r="BB43" s="10"/>
+      <c r="BB43" s="11"/>
       <c r="BC43" s="10"/>
       <c r="BD43" s="10"/>
       <c r="BE43" s="10"/>
@@ -5264,15 +5304,16 @@
       <c r="BO43" s="10"/>
       <c r="BP43" s="10"/>
       <c r="BQ43" s="10"/>
+      <c r="BR43" s="10"/>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:70">
       <c r="A44" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -5293,7 +5334,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-      <c r="Z44" s="9"/>
+      <c r="Z44" s="4"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
@@ -5310,7 +5351,7 @@
       <c r="AN44" s="9"/>
       <c r="AO44" s="9"/>
       <c r="AP44" s="9"/>
-      <c r="AQ44" s="11"/>
+      <c r="AQ44" s="9"/>
       <c r="AR44" s="11"/>
       <c r="AS44" s="11"/>
       <c r="AT44" s="11"/>
@@ -5320,10 +5361,10 @@
       <c r="AX44" s="11"/>
       <c r="AY44" s="11"/>
       <c r="AZ44" s="11"/>
-      <c r="BA44" s="11" t="s">
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB44" s="10"/>
       <c r="BC44" s="10"/>
       <c r="BD44" s="10"/>
       <c r="BE44" s="10"/>
@@ -5339,15 +5380,16 @@
       <c r="BO44" s="10"/>
       <c r="BP44" s="10"/>
       <c r="BQ44" s="10"/>
+      <c r="BR44" s="10"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:70">
       <c r="A45" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -5368,7 +5410,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-      <c r="Z45" s="9"/>
+      <c r="Z45" s="4"/>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
@@ -5385,7 +5427,7 @@
       <c r="AN45" s="9"/>
       <c r="AO45" s="9"/>
       <c r="AP45" s="9"/>
-      <c r="AQ45" s="11"/>
+      <c r="AQ45" s="9"/>
       <c r="AR45" s="11"/>
       <c r="AS45" s="11"/>
       <c r="AT45" s="11"/>
@@ -5394,11 +5436,11 @@
       <c r="AW45" s="11"/>
       <c r="AX45" s="11"/>
       <c r="AY45" s="11"/>
-      <c r="AZ45" s="11" t="s">
+      <c r="AZ45" s="11"/>
+      <c r="BA45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA45" s="11"/>
-      <c r="BB45" s="10"/>
+      <c r="BB45" s="11"/>
       <c r="BC45" s="10"/>
       <c r="BD45" s="10"/>
       <c r="BE45" s="10"/>
@@ -5414,15 +5456,16 @@
       <c r="BO45" s="10"/>
       <c r="BP45" s="10"/>
       <c r="BQ45" s="10"/>
+      <c r="BR45" s="10"/>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:70">
       <c r="A46" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -5443,7 +5486,7 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
-      <c r="Z46" s="9"/>
+      <c r="Z46" s="4"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
@@ -5460,7 +5503,7 @@
       <c r="AN46" s="9"/>
       <c r="AO46" s="9"/>
       <c r="AP46" s="9"/>
-      <c r="AQ46" s="11"/>
+      <c r="AQ46" s="9"/>
       <c r="AR46" s="11"/>
       <c r="AS46" s="11"/>
       <c r="AT46" s="11"/>
@@ -5468,12 +5511,12 @@
       <c r="AV46" s="11"/>
       <c r="AW46" s="11"/>
       <c r="AX46" s="11"/>
-      <c r="AY46" s="11" t="s">
+      <c r="AY46" s="11"/>
+      <c r="AZ46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AZ46" s="11"/>
       <c r="BA46" s="11"/>
-      <c r="BB46" s="10"/>
+      <c r="BB46" s="11"/>
       <c r="BC46" s="10"/>
       <c r="BD46" s="10"/>
       <c r="BE46" s="10"/>
@@ -5489,15 +5532,16 @@
       <c r="BO46" s="10"/>
       <c r="BP46" s="10"/>
       <c r="BQ46" s="10"/>
+      <c r="BR46" s="10"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:70">
       <c r="A47" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -5518,7 +5562,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
-      <c r="Z47" s="9"/>
+      <c r="Z47" s="4"/>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
@@ -5535,20 +5579,20 @@
       <c r="AN47" s="9"/>
       <c r="AO47" s="9"/>
       <c r="AP47" s="9"/>
-      <c r="AQ47" s="11"/>
+      <c r="AQ47" s="9"/>
       <c r="AR47" s="11"/>
       <c r="AS47" s="11"/>
       <c r="AT47" s="11"/>
       <c r="AU47" s="11"/>
       <c r="AV47" s="11"/>
       <c r="AW47" s="11"/>
-      <c r="AX47" s="11" t="s">
+      <c r="AX47" s="11"/>
+      <c r="AY47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY47" s="11"/>
       <c r="AZ47" s="11"/>
       <c r="BA47" s="11"/>
-      <c r="BB47" s="10"/>
+      <c r="BB47" s="11"/>
       <c r="BC47" s="10"/>
       <c r="BD47" s="10"/>
       <c r="BE47" s="10"/>
@@ -5564,15 +5608,17 @@
       <c r="BO47" s="10"/>
       <c r="BP47" s="10"/>
       <c r="BQ47" s="10"/>
+      <c r="BR47" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A39:BP39"/>
-    <mergeCell ref="A31:BP31"/>
-    <mergeCell ref="A17:BP17"/>
-    <mergeCell ref="A6:BP6"/>
-    <mergeCell ref="A2:BP2"/>
+    <mergeCell ref="A2:BQ2"/>
+    <mergeCell ref="A39:BQ39"/>
+    <mergeCell ref="A31:BQ31"/>
+    <mergeCell ref="A17:BQ17"/>
+    <mergeCell ref="A6:BQ6"/>
   </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5580,25 +5626,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="101716"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>A1</t>
   </si>
@@ -1553,7 +1553,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1840,8 +1840,10 @@
   <dimension ref="A1:BR47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA21" sqref="AA21"/>
+      <pane xSplit="1590" ySplit="600" topLeftCell="R18" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4395,7 +4397,9 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8445"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="101716"/>
 </workbook>
 </file>
 
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="118">
   <si>
     <t>A1</t>
   </si>
@@ -1360,8 +1360,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1549,6 +1549,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1627,6 +1632,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1661,6 +1667,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1836,17 +1843,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1590" ySplit="600" topLeftCell="R18" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="J21" sqref="J21"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM32" sqref="BM32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="54" width="4.7109375" customWidth="1"/>
@@ -1854,7 +1859,7 @@
     <col min="71" max="74" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1">
+    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -2066,7 +2071,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -2140,7 +2145,7 @@
       <c r="BQ2" s="18"/>
       <c r="BR2" s="13"/>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2216,7 +2221,7 @@
       <c r="BQ3" s="10"/>
       <c r="BR3" s="10"/>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2295,7 @@
       <c r="BQ4" s="10"/>
       <c r="BR4" s="10"/>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
@@ -2368,7 +2373,7 @@
       <c r="BQ5" s="10"/>
       <c r="BR5" s="10"/>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -2442,7 +2447,7 @@
       <c r="BQ6" s="25"/>
       <c r="BR6" s="14"/>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -2520,7 +2525,7 @@
       <c r="BQ7" s="10"/>
       <c r="BR7" s="10"/>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2596,7 +2601,7 @@
       <c r="BQ8" s="10"/>
       <c r="BR8" s="10"/>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2672,7 +2677,7 @@
       <c r="BQ9" s="10"/>
       <c r="BR9" s="10"/>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2760,7 +2765,7 @@
       <c r="BQ10" s="10"/>
       <c r="BR10" s="10"/>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -2840,7 +2845,7 @@
       <c r="BQ11" s="10"/>
       <c r="BR11" s="10"/>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2916,7 +2921,7 @@
       <c r="BQ12" s="10"/>
       <c r="BR12" s="10"/>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
@@ -2994,7 +2999,7 @@
       <c r="BQ13" s="10"/>
       <c r="BR13" s="10"/>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -3074,7 +3079,7 @@
       <c r="BQ14" s="10"/>
       <c r="BR14" s="10"/>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -3152,7 +3157,7 @@
       <c r="BQ15" s="10"/>
       <c r="BR15" s="10"/>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -3228,7 +3233,7 @@
       <c r="BQ16" s="10"/>
       <c r="BR16" s="10"/>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>85</v>
       </c>
@@ -3302,7 +3307,7 @@
       <c r="BQ17" s="25"/>
       <c r="BR17" s="14"/>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3380,7 +3385,7 @@
       <c r="BQ18" s="10"/>
       <c r="BR18" s="10"/>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -3458,7 +3463,7 @@
       <c r="BQ19" s="10"/>
       <c r="BR19" s="10"/>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
@@ -3534,7 +3539,7 @@
       <c r="BQ20" s="10"/>
       <c r="BR20" s="10"/>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3610,7 +3615,7 @@
       <c r="BQ21" s="10"/>
       <c r="BR21" s="10"/>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3686,7 +3691,7 @@
       <c r="BQ22" s="10"/>
       <c r="BR22" s="10"/>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>113</v>
       </c>
@@ -3762,7 +3767,7 @@
       <c r="BQ23" s="10"/>
       <c r="BR23" s="10"/>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>114</v>
       </c>
@@ -3836,7 +3841,7 @@
       <c r="BQ24" s="10"/>
       <c r="BR24" s="10"/>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3910,7 +3915,7 @@
       <c r="BQ25" s="10"/>
       <c r="BR25" s="10"/>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -3990,7 +3995,7 @@
       <c r="BQ26" s="10"/>
       <c r="BR26" s="10"/>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
@@ -4064,7 +4069,7 @@
       <c r="BQ27" s="10"/>
       <c r="BR27" s="10"/>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
@@ -4142,7 +4147,7 @@
       <c r="BQ28" s="10"/>
       <c r="BR28" s="10"/>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
@@ -4218,7 +4223,7 @@
       <c r="BQ29" s="10"/>
       <c r="BR29" s="10"/>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
@@ -4292,7 +4297,7 @@
       <c r="BQ30" s="10"/>
       <c r="BR30" s="10"/>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>52</v>
       </c>
@@ -4366,7 +4371,7 @@
       <c r="BQ31" s="22"/>
       <c r="BR31" s="15"/>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
@@ -4397,9 +4402,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
-      <c r="AA32" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
@@ -4443,10 +4446,12 @@
       <c r="BN32" s="10"/>
       <c r="BO32" s="10"/>
       <c r="BP32" s="10"/>
-      <c r="BQ32" s="10"/>
+      <c r="BQ32" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="BR32" s="10"/>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
@@ -4533,12 +4538,10 @@
       <c r="BP33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BQ33" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BQ33" s="10"/>
       <c r="BR33" s="10"/>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
@@ -4616,7 +4619,7 @@
       <c r="BQ34" s="10"/>
       <c r="BR34" s="10"/>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>56</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>109</v>
       </c>
@@ -4774,7 +4777,7 @@
       <c r="BQ36" s="10"/>
       <c r="BR36" s="10"/>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>110</v>
       </c>
@@ -4850,7 +4853,7 @@
       <c r="BQ37" s="10"/>
       <c r="BR37" s="10"/>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>111</v>
       </c>
@@ -4926,7 +4929,7 @@
       <c r="BQ38" s="10"/>
       <c r="BR38" s="10"/>
     </row>
-    <row r="39" spans="1:70">
+    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>39</v>
       </c>
@@ -5000,7 +5003,7 @@
       <c r="BQ39" s="19"/>
       <c r="BR39" s="14"/>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
@@ -5078,7 +5081,7 @@
       <c r="BQ40" s="10"/>
       <c r="BR40" s="10"/>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
@@ -5158,7 +5161,7 @@
       <c r="BQ41" s="10"/>
       <c r="BR41" s="10"/>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
@@ -5234,7 +5237,7 @@
       <c r="BQ42" s="10"/>
       <c r="BR42" s="10"/>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>88</v>
       </c>
@@ -5310,7 +5313,7 @@
       <c r="BQ43" s="10"/>
       <c r="BR43" s="10"/>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>89</v>
       </c>
@@ -5386,7 +5389,7 @@
       <c r="BQ44" s="10"/>
       <c r="BR44" s="10"/>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>90</v>
       </c>
@@ -5462,7 +5465,7 @@
       <c r="BQ45" s="10"/>
       <c r="BR45" s="10"/>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>91</v>
       </c>
@@ -5538,7 +5541,7 @@
       <c r="BQ46" s="10"/>
       <c r="BR46" s="10"/>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>92</v>
       </c>
@@ -5630,12 +5633,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5643,12 +5646,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8445"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="101716"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1360,8 +1360,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1632,7 +1632,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1667,7 +1666,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1843,15 +1841,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BR47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM32" sqref="BM32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1590" ySplit="600" topLeftCell="M19" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="AJ22" sqref="AJ22"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="54" width="4.7109375" customWidth="1"/>
@@ -1859,7 +1859,7 @@
     <col min="71" max="74" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="BQ2" s="18"/>
       <c r="BR2" s="13"/>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="BQ3" s="10"/>
       <c r="BR3" s="10"/>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="BQ4" s="10"/>
       <c r="BR4" s="10"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70">
       <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="BQ5" s="10"/>
       <c r="BR5" s="10"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="BQ6" s="25"/>
       <c r="BR6" s="14"/>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="BQ7" s="10"/>
       <c r="BR7" s="10"/>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="BQ8" s="10"/>
       <c r="BR8" s="10"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="BQ9" s="10"/>
       <c r="BR9" s="10"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="BQ10" s="10"/>
       <c r="BR10" s="10"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="BQ11" s="10"/>
       <c r="BR11" s="10"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="BQ12" s="10"/>
       <c r="BR12" s="10"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="BQ13" s="10"/>
       <c r="BR13" s="10"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="BQ14" s="10"/>
       <c r="BR14" s="10"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="BQ15" s="10"/>
       <c r="BR15" s="10"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="BQ16" s="10"/>
       <c r="BR16" s="10"/>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70">
       <c r="A17" s="23" t="s">
         <v>85</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="BQ17" s="25"/>
       <c r="BR17" s="14"/>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3341,9 +3341,6 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -3385,7 +3382,7 @@
       <c r="BQ18" s="10"/>
       <c r="BR18" s="10"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -3463,7 +3460,7 @@
       <c r="BQ19" s="10"/>
       <c r="BR19" s="10"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
@@ -3539,7 +3536,7 @@
       <c r="BQ20" s="10"/>
       <c r="BR20" s="10"/>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70">
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3615,7 +3612,7 @@
       <c r="BQ21" s="10"/>
       <c r="BR21" s="10"/>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3691,7 +3688,7 @@
       <c r="BQ22" s="10"/>
       <c r="BR22" s="10"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70">
       <c r="A23" s="9" t="s">
         <v>113</v>
       </c>
@@ -3767,7 +3764,7 @@
       <c r="BQ23" s="10"/>
       <c r="BR23" s="10"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70">
       <c r="A24" s="9" t="s">
         <v>114</v>
       </c>
@@ -3841,7 +3838,7 @@
       <c r="BQ24" s="10"/>
       <c r="BR24" s="10"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:70">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3915,7 +3912,7 @@
       <c r="BQ25" s="10"/>
       <c r="BR25" s="10"/>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:70">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -3995,7 +3992,7 @@
       <c r="BQ26" s="10"/>
       <c r="BR26" s="10"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:70">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
@@ -4069,7 +4066,7 @@
       <c r="BQ27" s="10"/>
       <c r="BR27" s="10"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:70">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
@@ -4147,7 +4144,7 @@
       <c r="BQ28" s="10"/>
       <c r="BR28" s="10"/>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:70">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
@@ -4223,7 +4220,7 @@
       <c r="BQ29" s="10"/>
       <c r="BR29" s="10"/>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:70">
       <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
@@ -4297,7 +4294,7 @@
       <c r="BQ30" s="10"/>
       <c r="BR30" s="10"/>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:70">
       <c r="A31" s="20" t="s">
         <v>52</v>
       </c>
@@ -4371,7 +4368,7 @@
       <c r="BQ31" s="22"/>
       <c r="BR31" s="15"/>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:70">
       <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
@@ -4405,7 +4402,9 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
+      <c r="AD32" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
@@ -4451,7 +4450,7 @@
       </c>
       <c r="BR32" s="10"/>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:70">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
@@ -4541,7 +4540,7 @@
       <c r="BQ33" s="10"/>
       <c r="BR33" s="10"/>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:70">
       <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
@@ -4619,7 +4618,7 @@
       <c r="BQ34" s="10"/>
       <c r="BR34" s="10"/>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:70">
       <c r="A35" s="10" t="s">
         <v>56</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:70">
       <c r="A36" s="10" t="s">
         <v>109</v>
       </c>
@@ -4777,7 +4776,7 @@
       <c r="BQ36" s="10"/>
       <c r="BR36" s="10"/>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:70">
       <c r="A37" s="10" t="s">
         <v>110</v>
       </c>
@@ -4853,7 +4852,7 @@
       <c r="BQ37" s="10"/>
       <c r="BR37" s="10"/>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:70">
       <c r="A38" s="10" t="s">
         <v>111</v>
       </c>
@@ -4929,7 +4928,7 @@
       <c r="BQ38" s="10"/>
       <c r="BR38" s="10"/>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:70">
       <c r="A39" s="19" t="s">
         <v>39</v>
       </c>
@@ -5003,7 +5002,7 @@
       <c r="BQ39" s="19"/>
       <c r="BR39" s="14"/>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:70">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
@@ -5081,7 +5080,7 @@
       <c r="BQ40" s="10"/>
       <c r="BR40" s="10"/>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:70">
       <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
@@ -5161,7 +5160,7 @@
       <c r="BQ41" s="10"/>
       <c r="BR41" s="10"/>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:70">
       <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
@@ -5237,7 +5236,7 @@
       <c r="BQ42" s="10"/>
       <c r="BR42" s="10"/>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:70">
       <c r="A43" s="11" t="s">
         <v>88</v>
       </c>
@@ -5313,7 +5312,7 @@
       <c r="BQ43" s="10"/>
       <c r="BR43" s="10"/>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:70">
       <c r="A44" s="11" t="s">
         <v>89</v>
       </c>
@@ -5389,7 +5388,7 @@
       <c r="BQ44" s="10"/>
       <c r="BR44" s="10"/>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:70">
       <c r="A45" s="11" t="s">
         <v>90</v>
       </c>
@@ -5465,7 +5464,7 @@
       <c r="BQ45" s="10"/>
       <c r="BR45" s="10"/>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:70">
       <c r="A46" s="11" t="s">
         <v>91</v>
       </c>
@@ -5541,7 +5540,7 @@
       <c r="BQ46" s="10"/>
       <c r="BR46" s="10"/>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:70">
       <c r="A47" s="11" t="s">
         <v>92</v>
       </c>
@@ -5633,12 +5632,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5646,12 +5645,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -1001,7 +1001,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>A1</t>
   </si>
@@ -1845,10 +1845,10 @@
   <dimension ref="A1:BR47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1590" ySplit="600" topLeftCell="M19" activePane="bottomRight"/>
+      <pane xSplit="1590" ySplit="600" topLeftCell="M24" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="AJ22" sqref="AJ22"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="AD32" sqref="AD32"/>
+      <selection pane="bottomRight" activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3341,6 +3341,9 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
+      <c r="AD18" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
@@ -4399,12 +4402,12 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
-      <c r="AD32" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="101716"/>
 </workbook>
 </file>
 
@@ -728,7 +728,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Configurar base de datos</t>
+Administrar empleados</t>
         </r>
       </text>
     </comment>
@@ -752,7 +752,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Administrar empleados</t>
+Registrar asistencia</t>
         </r>
       </text>
     </comment>
@@ -776,11 +776,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Registrar asistencia</t>
+Generar reporte de recursos humanos</t>
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -800,7 +800,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Generar reporte de recursos humanos</t>
+Registrar pago de evento</t>
         </r>
       </text>
     </comment>
@@ -824,7 +824,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Registrar pago de evento</t>
+registrar evento</t>
         </r>
       </text>
     </comment>
@@ -848,7 +848,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-registrar evento</t>
+Administrar promociones</t>
         </r>
       </text>
     </comment>
@@ -872,7 +872,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Administrar promociones</t>
+Generar reporte de eventos</t>
         </r>
       </text>
     </comment>
@@ -896,7 +896,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Generar reporte de eventos</t>
+Generar reporte de promociones</t>
         </r>
       </text>
     </comment>
@@ -920,7 +920,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Generar reporte de promociones</t>
+Aplicar promoción web</t>
         </r>
       </text>
     </comment>
@@ -944,35 +944,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Aplicar promoción web</t>
+Aplicar promoción</t>
         </r>
       </text>
     </comment>
     <comment ref="A46" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Diana Estefania:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Aplicar promoción</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1001,7 +977,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
   <si>
     <t>A1</t>
   </si>
@@ -1171,9 +1147,6 @@
     <t>CON03</t>
   </si>
   <si>
-    <t>CON04</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -1355,6 +1328,15 @@
   </si>
   <si>
     <t>A10</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A8</t>
   </si>
 </sst>
 </file>
@@ -1549,16 +1531,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1842,26 +1819,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR47"/>
+  <dimension ref="A1:BU46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1590" ySplit="600" topLeftCell="M24" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="AJ22" sqref="AJ22"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="AA32" sqref="AA32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1590" ySplit="600" topLeftCell="A13" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="E3" sqref="E1:E65536"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:IV35"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="54" width="4.7109375" customWidth="1"/>
-    <col min="55" max="70" width="4.7109375" style="1" customWidth="1"/>
-    <col min="71" max="74" width="4.7109375" customWidth="1"/>
+    <col min="2" max="57" width="4.7109375" customWidth="1"/>
+    <col min="58" max="73" width="4.7109375" style="1" customWidth="1"/>
+    <col min="74" max="77" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1">
+    <row r="1" spans="1:73" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1873,205 +1850,214 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AQ1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="BB1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BC1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BD1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BE1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="BB1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BF1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BH1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BI1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BK1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BM1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BO1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BP1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BR1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="BO1" s="10" t="s">
+      <c r="BS1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BT1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="BQ1" s="10" t="s">
+      <c r="BU1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="BR1" s="10" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:73">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -2142,10 +2128,13 @@
       <c r="BN2" s="17"/>
       <c r="BO2" s="17"/>
       <c r="BP2" s="17"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="13"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="17"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="13"/>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:73">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2155,9 +2144,9 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2176,9 +2165,9 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
@@ -2193,9 +2182,9 @@
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
       <c r="AQ3" s="9"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
       <c r="AU3" s="12"/>
       <c r="AV3" s="12"/>
       <c r="AW3" s="12"/>
@@ -2204,9 +2193,9 @@
       <c r="AZ3" s="12"/>
       <c r="BA3" s="12"/>
       <c r="BB3" s="12"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
       <c r="BF3" s="10"/>
       <c r="BG3" s="10"/>
       <c r="BH3" s="10"/>
@@ -2220,8 +2209,11 @@
       <c r="BP3" s="10"/>
       <c r="BQ3" s="10"/>
       <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:73">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2229,9 +2221,9 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2250,9 +2242,9 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -2267,9 +2259,9 @@
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="9"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
       <c r="AU4" s="12"/>
       <c r="AV4" s="12"/>
       <c r="AW4" s="12"/>
@@ -2278,9 +2270,9 @@
       <c r="AZ4" s="12"/>
       <c r="BA4" s="12"/>
       <c r="BB4" s="12"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
       <c r="BF4" s="10"/>
       <c r="BG4" s="10"/>
       <c r="BH4" s="10"/>
@@ -2294,22 +2286,25 @@
       <c r="BP4" s="10"/>
       <c r="BQ4" s="10"/>
       <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:73">
       <c r="A5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -2328,9 +2323,9 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
@@ -2345,9 +2340,9 @@
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
       <c r="AU5" s="12"/>
       <c r="AV5" s="12"/>
       <c r="AW5" s="12"/>
@@ -2356,9 +2351,9 @@
       <c r="AZ5" s="12"/>
       <c r="BA5" s="12"/>
       <c r="BB5" s="12"/>
-      <c r="BC5" s="10"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
       <c r="BF5" s="10"/>
       <c r="BG5" s="10"/>
       <c r="BH5" s="10"/>
@@ -2372,8 +2367,11 @@
       <c r="BP5" s="10"/>
       <c r="BQ5" s="10"/>
       <c r="BR5" s="10"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="10"/>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:73">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -2444,10 +2442,13 @@
       <c r="BN6" s="24"/>
       <c r="BO6" s="24"/>
       <c r="BP6" s="24"/>
-      <c r="BQ6" s="25"/>
-      <c r="BR6" s="14"/>
+      <c r="BQ6" s="24"/>
+      <c r="BR6" s="24"/>
+      <c r="BS6" s="24"/>
+      <c r="BT6" s="25"/>
+      <c r="BU6" s="14"/>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:73">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -2457,12 +2458,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2480,9 +2481,9 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
@@ -2497,9 +2498,9 @@
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
       <c r="AU7" s="12"/>
       <c r="AV7" s="12"/>
       <c r="AW7" s="12"/>
@@ -2508,9 +2509,9 @@
       <c r="AZ7" s="12"/>
       <c r="BA7" s="12"/>
       <c r="BB7" s="12"/>
-      <c r="BC7" s="10"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
       <c r="BF7" s="10"/>
       <c r="BG7" s="10"/>
       <c r="BH7" s="10"/>
@@ -2524,8 +2525,11 @@
       <c r="BP7" s="10"/>
       <c r="BQ7" s="10"/>
       <c r="BR7" s="10"/>
+      <c r="BS7" s="10"/>
+      <c r="BT7" s="10"/>
+      <c r="BU7" s="10"/>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:73">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2533,18 +2537,18 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -2556,9 +2560,9 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
@@ -2573,9 +2577,9 @@
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
       <c r="AU8" s="12"/>
       <c r="AV8" s="12"/>
       <c r="AW8" s="12"/>
@@ -2584,9 +2588,9 @@
       <c r="AZ8" s="12"/>
       <c r="BA8" s="12"/>
       <c r="BB8" s="12"/>
-      <c r="BC8" s="10"/>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="10"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
       <c r="BF8" s="10"/>
       <c r="BG8" s="10"/>
       <c r="BH8" s="10"/>
@@ -2600,8 +2604,11 @@
       <c r="BP8" s="10"/>
       <c r="BQ8" s="10"/>
       <c r="BR8" s="10"/>
+      <c r="BS8" s="10"/>
+      <c r="BT8" s="10"/>
+      <c r="BU8" s="10"/>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:73">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2609,17 +2616,17 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -2632,9 +2639,9 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
@@ -2649,9 +2656,9 @@
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
       <c r="AU9" s="12"/>
       <c r="AV9" s="12"/>
       <c r="AW9" s="12"/>
@@ -2660,9 +2667,9 @@
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
       <c r="BB9" s="12"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
       <c r="BF9" s="10"/>
       <c r="BG9" s="10"/>
       <c r="BH9" s="10"/>
@@ -2676,8 +2683,11 @@
       <c r="BP9" s="10"/>
       <c r="BQ9" s="10"/>
       <c r="BR9" s="10"/>
+      <c r="BS9" s="10"/>
+      <c r="BT9" s="10"/>
+      <c r="BU9" s="10"/>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:73">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2685,44 +2695,44 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="M10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="8"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
+      <c r="AA10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
@@ -2737,9 +2747,9 @@
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
       <c r="AU10" s="12"/>
       <c r="AV10" s="12"/>
       <c r="AW10" s="12"/>
@@ -2748,9 +2758,9 @@
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
       <c r="BB10" s="12"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
       <c r="BF10" s="10"/>
       <c r="BG10" s="10"/>
       <c r="BH10" s="10"/>
@@ -2764,8 +2774,11 @@
       <c r="BP10" s="10"/>
       <c r="BQ10" s="10"/>
       <c r="BR10" s="10"/>
+      <c r="BS10" s="10"/>
+      <c r="BT10" s="10"/>
+      <c r="BU10" s="10"/>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:73">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -2773,9 +2786,9 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -2786,23 +2799,23 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
+      <c r="AC11" s="7"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
@@ -2817,9 +2830,9 @@
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
       <c r="AU11" s="12"/>
       <c r="AV11" s="12"/>
       <c r="AW11" s="12"/>
@@ -2828,9 +2841,9 @@
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
       <c r="BB11" s="12"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
       <c r="BF11" s="10"/>
       <c r="BG11" s="10"/>
       <c r="BH11" s="10"/>
@@ -2844,8 +2857,11 @@
       <c r="BP11" s="10"/>
       <c r="BQ11" s="10"/>
       <c r="BR11" s="10"/>
+      <c r="BS11" s="10"/>
+      <c r="BT11" s="10"/>
+      <c r="BU11" s="10"/>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:73">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2853,9 +2869,9 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -2867,18 +2883,18 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="W12" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
@@ -2893,9 +2909,9 @@
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
       <c r="AQ12" s="9"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
       <c r="AU12" s="12"/>
       <c r="AV12" s="12"/>
       <c r="AW12" s="12"/>
@@ -2904,9 +2920,9 @@
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
       <c r="BB12" s="12"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
       <c r="BF12" s="10"/>
       <c r="BG12" s="10"/>
       <c r="BH12" s="10"/>
@@ -2920,8 +2936,11 @@
       <c r="BP12" s="10"/>
       <c r="BQ12" s="10"/>
       <c r="BR12" s="10"/>
+      <c r="BS12" s="10"/>
+      <c r="BT12" s="10"/>
+      <c r="BU12" s="10"/>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:73">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
@@ -2929,9 +2948,9 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -2940,21 +2959,21 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
+      <c r="T13" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
@@ -2968,12 +2987,12 @@
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="9" t="s">
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
       <c r="AU13" s="12"/>
       <c r="AV13" s="12"/>
       <c r="AW13" s="12"/>
@@ -2982,9 +3001,9 @@
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="10"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="10"/>
       <c r="BH13" s="10"/>
@@ -2998,8 +3017,11 @@
       <c r="BP13" s="10"/>
       <c r="BQ13" s="10"/>
       <c r="BR13" s="10"/>
+      <c r="BS13" s="10"/>
+      <c r="BT13" s="10"/>
+      <c r="BU13" s="10"/>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:73">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -3007,36 +3029,36 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="R14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
+      <c r="X14" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
@@ -3051,9 +3073,9 @@
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
       <c r="AU14" s="12"/>
       <c r="AV14" s="12"/>
       <c r="AW14" s="12"/>
@@ -3062,9 +3084,9 @@
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
       <c r="BB14" s="12"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="10"/>
       <c r="BH14" s="10"/>
@@ -3078,8 +3100,11 @@
       <c r="BP14" s="10"/>
       <c r="BQ14" s="10"/>
       <c r="BR14" s="10"/>
+      <c r="BS14" s="10"/>
+      <c r="BT14" s="10"/>
+      <c r="BU14" s="10"/>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:73">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -3087,9 +3112,9 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -3101,18 +3126,18 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="W15" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
@@ -3123,15 +3148,15 @@
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
-      <c r="AN15" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
+      <c r="AQ15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
       <c r="AU15" s="12"/>
       <c r="AV15" s="12"/>
       <c r="AW15" s="12"/>
@@ -3140,9 +3165,9 @@
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
       <c r="BB15" s="12"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="10"/>
       <c r="BH15" s="10"/>
@@ -3156,8 +3181,11 @@
       <c r="BP15" s="10"/>
       <c r="BQ15" s="10"/>
       <c r="BR15" s="10"/>
+      <c r="BS15" s="10"/>
+      <c r="BT15" s="10"/>
+      <c r="BU15" s="10"/>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:73">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -3165,14 +3193,14 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -3188,9 +3216,9 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
@@ -3205,9 +3233,9 @@
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="9"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
       <c r="AU16" s="12"/>
       <c r="AV16" s="12"/>
       <c r="AW16" s="12"/>
@@ -3216,9 +3244,9 @@
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
       <c r="BB16" s="12"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
       <c r="BF16" s="10"/>
       <c r="BG16" s="10"/>
       <c r="BH16" s="10"/>
@@ -3232,10 +3260,13 @@
       <c r="BP16" s="10"/>
       <c r="BQ16" s="10"/>
       <c r="BR16" s="10"/>
+      <c r="BS16" s="10"/>
+      <c r="BT16" s="10"/>
+      <c r="BU16" s="10"/>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:73">
       <c r="A17" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -3304,26 +3335,27 @@
       <c r="BN17" s="24"/>
       <c r="BO17" s="24"/>
       <c r="BP17" s="24"/>
-      <c r="BQ17" s="25"/>
-      <c r="BR17" s="14"/>
+      <c r="BQ17" s="24"/>
+      <c r="BR17" s="24"/>
+      <c r="BS17" s="24"/>
+      <c r="BT17" s="25"/>
+      <c r="BU17" s="14"/>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:73">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3338,15 +3370,15 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
+      <c r="AG18" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
@@ -3357,9 +3389,9 @@
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
       <c r="AQ18" s="9"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
@@ -3368,9 +3400,9 @@
       <c r="AZ18" s="11"/>
       <c r="BA18" s="11"/>
       <c r="BB18" s="11"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
       <c r="BF18" s="10"/>
       <c r="BG18" s="10"/>
       <c r="BH18" s="10"/>
@@ -3384,8 +3416,11 @@
       <c r="BP18" s="10"/>
       <c r="BQ18" s="10"/>
       <c r="BR18" s="10"/>
+      <c r="BS18" s="10"/>
+      <c r="BT18" s="10"/>
+      <c r="BU18" s="10"/>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:73">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -3393,13 +3428,13 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3414,20 +3449,20 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
-      <c r="AF19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG19" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
+      <c r="AI19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ19" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
@@ -3435,9 +3470,9 @@
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
       <c r="AQ19" s="9"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
       <c r="AW19" s="11"/>
@@ -3446,9 +3481,9 @@
       <c r="AZ19" s="11"/>
       <c r="BA19" s="11"/>
       <c r="BB19" s="11"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="10"/>
-      <c r="BE19" s="10"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="11"/>
       <c r="BF19" s="10"/>
       <c r="BG19" s="10"/>
       <c r="BH19" s="10"/>
@@ -3462,8 +3497,11 @@
       <c r="BP19" s="10"/>
       <c r="BQ19" s="10"/>
       <c r="BR19" s="10"/>
+      <c r="BS19" s="10"/>
+      <c r="BT19" s="10"/>
+      <c r="BU19" s="10"/>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:73">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
@@ -3471,13 +3509,13 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3492,28 +3530,28 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
       <c r="AH20" s="9"/>
       <c r="AI20" s="9"/>
-      <c r="AJ20" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
+      <c r="AM20" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
       <c r="AQ20" s="9"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
       <c r="AU20" s="11"/>
       <c r="AV20" s="11"/>
       <c r="AW20" s="11"/>
@@ -3522,9 +3560,9 @@
       <c r="AZ20" s="11"/>
       <c r="BA20" s="11"/>
       <c r="BB20" s="11"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
       <c r="BF20" s="10"/>
       <c r="BG20" s="10"/>
       <c r="BH20" s="10"/>
@@ -3538,8 +3576,11 @@
       <c r="BP20" s="10"/>
       <c r="BQ20" s="10"/>
       <c r="BR20" s="10"/>
+      <c r="BS20" s="10"/>
+      <c r="BT20" s="10"/>
+      <c r="BU20" s="10"/>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:73">
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3547,13 +3588,13 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3568,28 +3609,28 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
-      <c r="AH21" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
+      <c r="AK21" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
       <c r="AU21" s="11"/>
       <c r="AV21" s="11"/>
       <c r="AW21" s="11"/>
@@ -3598,9 +3639,9 @@
       <c r="AZ21" s="11"/>
       <c r="BA21" s="11"/>
       <c r="BB21" s="11"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
       <c r="BF21" s="10"/>
       <c r="BG21" s="10"/>
       <c r="BH21" s="10"/>
@@ -3614,8 +3655,11 @@
       <c r="BP21" s="10"/>
       <c r="BQ21" s="10"/>
       <c r="BR21" s="10"/>
+      <c r="BS21" s="10"/>
+      <c r="BT21" s="10"/>
+      <c r="BU21" s="10"/>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:73">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3623,13 +3667,13 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3644,9 +3688,9 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
@@ -3654,18 +3698,18 @@
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
-      <c r="AK22" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
+      <c r="AN22" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
       <c r="AQ22" s="9"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
       <c r="AU22" s="11"/>
       <c r="AV22" s="11"/>
       <c r="AW22" s="11"/>
@@ -3674,9 +3718,9 @@
       <c r="AZ22" s="11"/>
       <c r="BA22" s="11"/>
       <c r="BB22" s="11"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="10"/>
-      <c r="BE22" s="10"/>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="11"/>
+      <c r="BE22" s="11"/>
       <c r="BF22" s="10"/>
       <c r="BG22" s="10"/>
       <c r="BH22" s="10"/>
@@ -3690,22 +3734,25 @@
       <c r="BP22" s="10"/>
       <c r="BQ22" s="10"/>
       <c r="BR22" s="10"/>
+      <c r="BS22" s="10"/>
+      <c r="BT22" s="10"/>
+      <c r="BU22" s="10"/>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:73">
       <c r="A23" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -3720,16 +3767,16 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
+      <c r="AH23" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
@@ -3739,9 +3786,9 @@
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
       <c r="AQ23" s="9"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
       <c r="AU23" s="11"/>
       <c r="AV23" s="11"/>
       <c r="AW23" s="11"/>
@@ -3750,9 +3797,9 @@
       <c r="AZ23" s="11"/>
       <c r="BA23" s="11"/>
       <c r="BB23" s="11"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="10"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
+      <c r="BE23" s="11"/>
       <c r="BF23" s="10"/>
       <c r="BG23" s="10"/>
       <c r="BH23" s="10"/>
@@ -3766,22 +3813,25 @@
       <c r="BP23" s="10"/>
       <c r="BQ23" s="10"/>
       <c r="BR23" s="10"/>
+      <c r="BS23" s="10"/>
+      <c r="BT23" s="10"/>
+      <c r="BU23" s="10"/>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:73">
       <c r="A24" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -3796,9 +3846,9 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
@@ -3813,9 +3863,9 @@
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
       <c r="AQ24" s="9"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="11"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
       <c r="AU24" s="11"/>
       <c r="AV24" s="11"/>
       <c r="AW24" s="11"/>
@@ -3824,9 +3874,9 @@
       <c r="AZ24" s="11"/>
       <c r="BA24" s="11"/>
       <c r="BB24" s="11"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="10"/>
+      <c r="BC24" s="11"/>
+      <c r="BD24" s="11"/>
+      <c r="BE24" s="11"/>
       <c r="BF24" s="10"/>
       <c r="BG24" s="10"/>
       <c r="BH24" s="10"/>
@@ -3840,8 +3890,11 @@
       <c r="BP24" s="10"/>
       <c r="BQ24" s="10"/>
       <c r="BR24" s="10"/>
+      <c r="BS24" s="10"/>
+      <c r="BT24" s="10"/>
+      <c r="BU24" s="10"/>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:73">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3849,13 +3902,13 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -3870,9 +3923,9 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
@@ -3887,9 +3940,9 @@
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
       <c r="AQ25" s="9"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="11"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
       <c r="AU25" s="11"/>
       <c r="AV25" s="11"/>
       <c r="AW25" s="11"/>
@@ -3898,9 +3951,9 @@
       <c r="AZ25" s="11"/>
       <c r="BA25" s="11"/>
       <c r="BB25" s="11"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="10"/>
+      <c r="BC25" s="11"/>
+      <c r="BD25" s="11"/>
+      <c r="BE25" s="11"/>
       <c r="BF25" s="10"/>
       <c r="BG25" s="10"/>
       <c r="BH25" s="10"/>
@@ -3914,8 +3967,11 @@
       <c r="BP25" s="10"/>
       <c r="BQ25" s="10"/>
       <c r="BR25" s="10"/>
+      <c r="BS25" s="10"/>
+      <c r="BT25" s="10"/>
+      <c r="BU25" s="10"/>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:73">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -3923,22 +3979,22 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
+      <c r="S26" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -3946,12 +4002,12 @@
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="9" t="s">
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
@@ -3965,22 +4021,22 @@
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
       <c r="AQ26" s="9"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="11"/>
-      <c r="AT26" s="11"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
       <c r="AU26" s="11"/>
       <c r="AV26" s="11"/>
       <c r="AW26" s="11"/>
-      <c r="AX26" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
       <c r="AZ26" s="11"/>
-      <c r="BA26" s="11"/>
+      <c r="BA26" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="BB26" s="11"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="11"/>
+      <c r="BE26" s="11"/>
       <c r="BF26" s="10"/>
       <c r="BG26" s="10"/>
       <c r="BH26" s="10"/>
@@ -3994,8 +4050,11 @@
       <c r="BP26" s="10"/>
       <c r="BQ26" s="10"/>
       <c r="BR26" s="10"/>
+      <c r="BS26" s="10"/>
+      <c r="BT26" s="10"/>
+      <c r="BU26" s="10"/>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:73">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
@@ -4003,13 +4062,13 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -4024,9 +4083,9 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
@@ -4041,9 +4100,9 @@
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
       <c r="AQ27" s="9"/>
-      <c r="AR27" s="11"/>
-      <c r="AS27" s="11"/>
-      <c r="AT27" s="11"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
       <c r="AU27" s="11"/>
       <c r="AV27" s="11"/>
       <c r="AW27" s="11"/>
@@ -4052,9 +4111,9 @@
       <c r="AZ27" s="11"/>
       <c r="BA27" s="11"/>
       <c r="BB27" s="11"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="10"/>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="11"/>
+      <c r="BE27" s="11"/>
       <c r="BF27" s="10"/>
       <c r="BG27" s="10"/>
       <c r="BH27" s="10"/>
@@ -4068,8 +4127,11 @@
       <c r="BP27" s="10"/>
       <c r="BQ27" s="10"/>
       <c r="BR27" s="10"/>
+      <c r="BS27" s="10"/>
+      <c r="BT27" s="10"/>
+      <c r="BU27" s="10"/>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:73">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
@@ -4077,13 +4139,13 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -4098,30 +4160,30 @@
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
+      <c r="AF28" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="AG28" s="9"/>
       <c r="AH28" s="9"/>
-      <c r="AI28" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
-      <c r="AL28" s="9"/>
+      <c r="AL28" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9"/>
       <c r="AQ28" s="9"/>
-      <c r="AR28" s="11"/>
-      <c r="AS28" s="11"/>
-      <c r="AT28" s="11"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
       <c r="AU28" s="11"/>
       <c r="AV28" s="11"/>
       <c r="AW28" s="11"/>
@@ -4130,9 +4192,9 @@
       <c r="AZ28" s="11"/>
       <c r="BA28" s="11"/>
       <c r="BB28" s="11"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="11"/>
+      <c r="BE28" s="11"/>
       <c r="BF28" s="10"/>
       <c r="BG28" s="10"/>
       <c r="BH28" s="10"/>
@@ -4146,8 +4208,11 @@
       <c r="BP28" s="10"/>
       <c r="BQ28" s="10"/>
       <c r="BR28" s="10"/>
+      <c r="BS28" s="10"/>
+      <c r="BT28" s="10"/>
+      <c r="BU28" s="10"/>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:73">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
@@ -4155,13 +4220,13 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -4176,13 +4241,13 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC29" s="9"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
       <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
+      <c r="AE29" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="AF29" s="9"/>
       <c r="AG29" s="9"/>
       <c r="AH29" s="9"/>
@@ -4195,9 +4260,9 @@
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
       <c r="AQ29" s="9"/>
-      <c r="AR29" s="11"/>
-      <c r="AS29" s="11"/>
-      <c r="AT29" s="11"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
+      <c r="AT29" s="9"/>
       <c r="AU29" s="11"/>
       <c r="AV29" s="11"/>
       <c r="AW29" s="11"/>
@@ -4206,9 +4271,9 @@
       <c r="AZ29" s="11"/>
       <c r="BA29" s="11"/>
       <c r="BB29" s="11"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="11"/>
+      <c r="BE29" s="11"/>
       <c r="BF29" s="10"/>
       <c r="BG29" s="10"/>
       <c r="BH29" s="10"/>
@@ -4222,8 +4287,11 @@
       <c r="BP29" s="10"/>
       <c r="BQ29" s="10"/>
       <c r="BR29" s="10"/>
+      <c r="BS29" s="10"/>
+      <c r="BT29" s="10"/>
+      <c r="BU29" s="10"/>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:73">
       <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
@@ -4231,13 +4299,13 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -4252,9 +4320,9 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
       <c r="AF30" s="9"/>
@@ -4269,9 +4337,9 @@
       <c r="AO30" s="9"/>
       <c r="AP30" s="9"/>
       <c r="AQ30" s="9"/>
-      <c r="AR30" s="11"/>
-      <c r="AS30" s="11"/>
-      <c r="AT30" s="11"/>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="9"/>
+      <c r="AT30" s="9"/>
       <c r="AU30" s="11"/>
       <c r="AV30" s="11"/>
       <c r="AW30" s="11"/>
@@ -4280,9 +4348,9 @@
       <c r="AZ30" s="11"/>
       <c r="BA30" s="11"/>
       <c r="BB30" s="11"/>
-      <c r="BC30" s="10"/>
-      <c r="BD30" s="10"/>
-      <c r="BE30" s="10"/>
+      <c r="BC30" s="11"/>
+      <c r="BD30" s="11"/>
+      <c r="BE30" s="11"/>
       <c r="BF30" s="10"/>
       <c r="BG30" s="10"/>
       <c r="BH30" s="10"/>
@@ -4296,8 +4364,11 @@
       <c r="BP30" s="10"/>
       <c r="BQ30" s="10"/>
       <c r="BR30" s="10"/>
+      <c r="BS30" s="10"/>
+      <c r="BT30" s="10"/>
+      <c r="BU30" s="10"/>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:73">
       <c r="A31" s="20" t="s">
         <v>52</v>
       </c>
@@ -4368,10 +4439,13 @@
       <c r="BN31" s="21"/>
       <c r="BO31" s="21"/>
       <c r="BP31" s="21"/>
-      <c r="BQ31" s="22"/>
-      <c r="BR31" s="15"/>
+      <c r="BQ31" s="21"/>
+      <c r="BR31" s="21"/>
+      <c r="BS31" s="21"/>
+      <c r="BT31" s="22"/>
+      <c r="BU31" s="15"/>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:73">
       <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
@@ -4379,9 +4453,13 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -4391,23 +4469,23 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
+      <c r="U32" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
-      <c r="AA32" s="9" t="s">
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
       <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
@@ -4421,9 +4499,9 @@
       <c r="AO32" s="9"/>
       <c r="AP32" s="9"/>
       <c r="AQ32" s="9"/>
-      <c r="AR32" s="12"/>
-      <c r="AS32" s="12"/>
-      <c r="AT32" s="12"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
       <c r="AU32" s="12"/>
       <c r="AV32" s="12"/>
       <c r="AW32" s="12"/>
@@ -4432,14 +4510,14 @@
       <c r="AZ32" s="12"/>
       <c r="BA32" s="12"/>
       <c r="BB32" s="12"/>
-      <c r="BC32" s="10"/>
-      <c r="BD32" s="10"/>
-      <c r="BE32" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
       <c r="BF32" s="10"/>
       <c r="BG32" s="10"/>
-      <c r="BH32" s="10"/>
+      <c r="BH32" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="BI32" s="10"/>
       <c r="BJ32" s="10"/>
       <c r="BK32" s="10"/>
@@ -4448,22 +4526,27 @@
       <c r="BN32" s="10"/>
       <c r="BO32" s="10"/>
       <c r="BP32" s="10"/>
-      <c r="BQ32" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BQ32" s="10"/>
       <c r="BR32" s="10"/>
+      <c r="BS32" s="10"/>
+      <c r="BT32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BU32" s="10"/>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:73">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -4482,9 +4565,9 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
@@ -4493,19 +4576,19 @@
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
-      <c r="AL33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM33" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
       <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
+      <c r="AO33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP33" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="AQ33" s="9"/>
-      <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="12"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
       <c r="AU33" s="12"/>
       <c r="AV33" s="12"/>
       <c r="AW33" s="12"/>
@@ -4514,36 +4597,39 @@
       <c r="AZ33" s="12"/>
       <c r="BA33" s="12"/>
       <c r="BB33" s="12"/>
-      <c r="BC33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="10"/>
+      <c r="BC33" s="12"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
       <c r="BF33" s="10" t="s">
         <v>5</v>
       </c>
       <c r="BG33" s="10"/>
-      <c r="BH33" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="BH33" s="10"/>
       <c r="BI33" s="10" t="s">
         <v>5</v>
       </c>
       <c r="BJ33" s="10"/>
-      <c r="BK33" s="10"/>
-      <c r="BL33" s="10"/>
+      <c r="BK33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL33" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="BM33" s="10"/>
-      <c r="BN33" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BN33" s="10"/>
       <c r="BO33" s="10"/>
-      <c r="BP33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BQ33" s="10"/>
+      <c r="BP33" s="10"/>
+      <c r="BQ33" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="BR33" s="10"/>
+      <c r="BS33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BT33" s="10"/>
+      <c r="BU33" s="10"/>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:73">
       <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
@@ -4551,9 +4637,11 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="F34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -4572,9 +4660,9 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
       <c r="AD34" s="9"/>
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
@@ -4589,9 +4677,9 @@
       <c r="AO34" s="9"/>
       <c r="AP34" s="9"/>
       <c r="AQ34" s="9"/>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="12"/>
-      <c r="AT34" s="12"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
       <c r="AU34" s="12"/>
       <c r="AV34" s="12"/>
       <c r="AW34" s="12"/>
@@ -4600,18 +4688,18 @@
       <c r="AZ34" s="12"/>
       <c r="BA34" s="12"/>
       <c r="BB34" s="12"/>
-      <c r="BC34" s="10"/>
-      <c r="BD34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="BE34" s="10"/>
+      <c r="BC34" s="12"/>
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="12"/>
       <c r="BF34" s="10"/>
       <c r="BG34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="BH34" s="10"/>
       <c r="BI34" s="10"/>
-      <c r="BJ34" s="10"/>
+      <c r="BJ34" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="BK34" s="10"/>
       <c r="BL34" s="10"/>
       <c r="BM34" s="10"/>
@@ -4620,18 +4708,23 @@
       <c r="BP34" s="10"/>
       <c r="BQ34" s="10"/>
       <c r="BR34" s="10"/>
+      <c r="BS34" s="10"/>
+      <c r="BT34" s="10"/>
+      <c r="BU34" s="10"/>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:73">
       <c r="A35" s="10" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -4650,9 +4743,9 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
@@ -4667,9 +4760,9 @@
       <c r="AO35" s="9"/>
       <c r="AP35" s="9"/>
       <c r="AQ35" s="9"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="12"/>
-      <c r="AT35" s="12"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
       <c r="AU35" s="12"/>
       <c r="AV35" s="12"/>
       <c r="AW35" s="12"/>
@@ -4678,9 +4771,9 @@
       <c r="AZ35" s="12"/>
       <c r="BA35" s="12"/>
       <c r="BB35" s="12"/>
-      <c r="BC35" s="10"/>
-      <c r="BD35" s="10"/>
-      <c r="BE35" s="10"/>
+      <c r="BC35" s="12"/>
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
       <c r="BF35" s="10"/>
       <c r="BG35" s="10"/>
       <c r="BH35" s="10"/>
@@ -4688,28 +4781,33 @@
       <c r="BJ35" s="10"/>
       <c r="BK35" s="10"/>
       <c r="BL35" s="10"/>
-      <c r="BM35" s="10"/>
-      <c r="BN35" s="10"/>
-      <c r="BO35" s="10"/>
+      <c r="BM35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO35" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="BP35" s="10"/>
       <c r="BQ35" s="10"/>
-      <c r="BR35" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BR35" s="10"/>
+      <c r="BS35" s="10"/>
+      <c r="BT35" s="10"/>
+      <c r="BU35" s="10"/>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:73">
       <c r="A36" s="10" t="s">
         <v>109</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -4728,9 +4826,9 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
@@ -4745,9 +4843,9 @@
       <c r="AO36" s="9"/>
       <c r="AP36" s="9"/>
       <c r="AQ36" s="9"/>
-      <c r="AR36" s="12"/>
-      <c r="AS36" s="12"/>
-      <c r="AT36" s="12"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9"/>
+      <c r="AT36" s="9"/>
       <c r="AU36" s="12"/>
       <c r="AV36" s="12"/>
       <c r="AW36" s="12"/>
@@ -4756,30 +4854,29 @@
       <c r="AZ36" s="12"/>
       <c r="BA36" s="12"/>
       <c r="BB36" s="12"/>
-      <c r="BC36" s="10"/>
-      <c r="BD36" s="10"/>
-      <c r="BE36" s="10"/>
+      <c r="BC36" s="12"/>
+      <c r="BD36" s="12"/>
+      <c r="BE36" s="12"/>
       <c r="BF36" s="10"/>
       <c r="BG36" s="10"/>
       <c r="BH36" s="10"/>
       <c r="BI36" s="10"/>
-      <c r="BJ36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL36" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BJ36" s="10"/>
+      <c r="BK36" s="10"/>
+      <c r="BL36" s="10"/>
       <c r="BM36" s="10"/>
       <c r="BN36" s="10"/>
       <c r="BO36" s="10"/>
-      <c r="BP36" s="10"/>
+      <c r="BP36" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="BQ36" s="10"/>
       <c r="BR36" s="10"/>
+      <c r="BS36" s="10"/>
+      <c r="BT36" s="10"/>
+      <c r="BU36" s="10"/>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:73">
       <c r="A37" s="10" t="s">
         <v>110</v>
       </c>
@@ -4787,9 +4884,9 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -4808,9 +4905,9 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
@@ -4825,9 +4922,9 @@
       <c r="AO37" s="9"/>
       <c r="AP37" s="9"/>
       <c r="AQ37" s="9"/>
-      <c r="AR37" s="12"/>
-      <c r="AS37" s="12"/>
-      <c r="AT37" s="12"/>
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
+      <c r="AT37" s="9"/>
       <c r="AU37" s="12"/>
       <c r="AV37" s="12"/>
       <c r="AW37" s="12"/>
@@ -4836,9 +4933,9 @@
       <c r="AZ37" s="12"/>
       <c r="BA37" s="12"/>
       <c r="BB37" s="12"/>
-      <c r="BC37" s="10"/>
-      <c r="BD37" s="10"/>
-      <c r="BE37" s="10"/>
+      <c r="BC37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
       <c r="BF37" s="10"/>
       <c r="BG37" s="10"/>
       <c r="BH37" s="10"/>
@@ -4846,176 +4943,187 @@
       <c r="BJ37" s="10"/>
       <c r="BK37" s="10"/>
       <c r="BL37" s="10"/>
-      <c r="BM37" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="BM37" s="10"/>
       <c r="BN37" s="10"/>
       <c r="BO37" s="10"/>
       <c r="BP37" s="10"/>
       <c r="BQ37" s="10"/>
-      <c r="BR37" s="10"/>
+      <c r="BR37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS37" s="10"/>
+      <c r="BT37" s="10"/>
+      <c r="BU37" s="10"/>
     </row>
-    <row r="38" spans="1:70">
-      <c r="A38" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
-      <c r="AK38" s="9"/>
-      <c r="AL38" s="9"/>
-      <c r="AM38" s="9"/>
-      <c r="AN38" s="9"/>
-      <c r="AO38" s="9"/>
-      <c r="AP38" s="9"/>
-      <c r="AQ38" s="9"/>
-      <c r="AR38" s="12"/>
-      <c r="AS38" s="12"/>
-      <c r="AT38" s="12"/>
-      <c r="AU38" s="12"/>
-      <c r="AV38" s="12"/>
-      <c r="AW38" s="12"/>
-      <c r="AX38" s="12"/>
-      <c r="AY38" s="12"/>
-      <c r="AZ38" s="12"/>
-      <c r="BA38" s="12"/>
-      <c r="BB38" s="12"/>
-      <c r="BC38" s="10"/>
-      <c r="BD38" s="10"/>
-      <c r="BE38" s="10"/>
-      <c r="BF38" s="10"/>
-      <c r="BG38" s="10"/>
-      <c r="BH38" s="10"/>
-      <c r="BI38" s="10"/>
-      <c r="BJ38" s="10"/>
-      <c r="BK38" s="10"/>
-      <c r="BL38" s="10"/>
-      <c r="BM38" s="10"/>
-      <c r="BN38" s="10"/>
-      <c r="BO38" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP38" s="10"/>
-      <c r="BQ38" s="10"/>
-      <c r="BR38" s="10"/>
+    <row r="38" spans="1:73">
+      <c r="A38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
+      <c r="AU38" s="19"/>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="19"/>
+      <c r="AZ38" s="19"/>
+      <c r="BA38" s="19"/>
+      <c r="BB38" s="19"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19"/>
+      <c r="BF38" s="19"/>
+      <c r="BG38" s="19"/>
+      <c r="BH38" s="19"/>
+      <c r="BI38" s="19"/>
+      <c r="BJ38" s="19"/>
+      <c r="BK38" s="19"/>
+      <c r="BL38" s="19"/>
+      <c r="BM38" s="19"/>
+      <c r="BN38" s="19"/>
+      <c r="BO38" s="19"/>
+      <c r="BP38" s="19"/>
+      <c r="BQ38" s="19"/>
+      <c r="BR38" s="19"/>
+      <c r="BS38" s="19"/>
+      <c r="BT38" s="19"/>
+      <c r="BU38" s="14"/>
     </row>
-    <row r="39" spans="1:70">
-      <c r="A39" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
-      <c r="AP39" s="19"/>
-      <c r="AQ39" s="19"/>
-      <c r="AR39" s="19"/>
-      <c r="AS39" s="19"/>
-      <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
-      <c r="AV39" s="19"/>
-      <c r="AW39" s="19"/>
-      <c r="AX39" s="19"/>
-      <c r="AY39" s="19"/>
-      <c r="AZ39" s="19"/>
-      <c r="BA39" s="19"/>
-      <c r="BB39" s="19"/>
-      <c r="BC39" s="19"/>
-      <c r="BD39" s="19"/>
-      <c r="BE39" s="19"/>
-      <c r="BF39" s="19"/>
-      <c r="BG39" s="19"/>
-      <c r="BH39" s="19"/>
-      <c r="BI39" s="19"/>
-      <c r="BJ39" s="19"/>
-      <c r="BK39" s="19"/>
-      <c r="BL39" s="19"/>
-      <c r="BM39" s="19"/>
-      <c r="BN39" s="19"/>
-      <c r="BO39" s="19"/>
-      <c r="BP39" s="19"/>
-      <c r="BQ39" s="19"/>
-      <c r="BR39" s="14"/>
+    <row r="39" spans="1:73">
+      <c r="A39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="9"/>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="9"/>
+      <c r="AP39" s="9"/>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS39" s="9"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="11"/>
+      <c r="AZ39" s="11"/>
+      <c r="BA39" s="11"/>
+      <c r="BB39" s="11"/>
+      <c r="BC39" s="11"/>
+      <c r="BD39" s="11"/>
+      <c r="BE39" s="11"/>
+      <c r="BF39" s="10"/>
+      <c r="BG39" s="10"/>
+      <c r="BH39" s="10"/>
+      <c r="BI39" s="10"/>
+      <c r="BJ39" s="10"/>
+      <c r="BK39" s="10"/>
+      <c r="BL39" s="10"/>
+      <c r="BM39" s="10"/>
+      <c r="BN39" s="10"/>
+      <c r="BO39" s="10"/>
+      <c r="BP39" s="10"/>
+      <c r="BQ39" s="10"/>
+      <c r="BR39" s="10"/>
+      <c r="BS39" s="10"/>
+      <c r="BT39" s="10"/>
+      <c r="BU39" s="10"/>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:73">
       <c r="A40" s="11" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -5034,9 +5142,9 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
       <c r="AD40" s="9"/>
       <c r="AE40" s="9"/>
       <c r="AF40" s="9"/>
@@ -5048,27 +5156,29 @@
       <c r="AL40" s="9"/>
       <c r="AM40" s="9"/>
       <c r="AN40" s="9"/>
-      <c r="AO40" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="AO40" s="9"/>
       <c r="AP40" s="9"/>
       <c r="AQ40" s="9"/>
-      <c r="AR40" s="11"/>
-      <c r="AS40" s="11"/>
-      <c r="AT40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU40" s="11"/>
-      <c r="AV40" s="11"/>
+      <c r="AR40" s="9"/>
+      <c r="AS40" s="9"/>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV40" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="AW40" s="11"/>
-      <c r="AX40" s="11"/>
+      <c r="AX40" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="AY40" s="11"/>
       <c r="AZ40" s="11"/>
       <c r="BA40" s="11"/>
       <c r="BB40" s="11"/>
-      <c r="BC40" s="10"/>
-      <c r="BD40" s="10"/>
-      <c r="BE40" s="10"/>
+      <c r="BC40" s="11"/>
+      <c r="BD40" s="11"/>
+      <c r="BE40" s="11"/>
       <c r="BF40" s="10"/>
       <c r="BG40" s="10"/>
       <c r="BH40" s="10"/>
@@ -5082,8 +5192,11 @@
       <c r="BP40" s="10"/>
       <c r="BQ40" s="10"/>
       <c r="BR40" s="10"/>
+      <c r="BS40" s="10"/>
+      <c r="BT40" s="10"/>
+      <c r="BU40" s="10"/>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:73">
       <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
@@ -5091,9 +5204,9 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -5112,9 +5225,9 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
       <c r="AD41" s="9"/>
       <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
@@ -5129,26 +5242,22 @@
       <c r="AO41" s="9"/>
       <c r="AP41" s="9"/>
       <c r="AQ41" s="9"/>
-      <c r="AR41" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS41" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT41" s="11"/>
-      <c r="AU41" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="AR41" s="9"/>
+      <c r="AS41" s="9"/>
+      <c r="AT41" s="9"/>
+      <c r="AU41" s="11"/>
       <c r="AV41" s="11"/>
       <c r="AW41" s="11"/>
       <c r="AX41" s="11"/>
-      <c r="AY41" s="11"/>
+      <c r="AY41" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="AZ41" s="11"/>
       <c r="BA41" s="11"/>
       <c r="BB41" s="11"/>
-      <c r="BC41" s="10"/>
-      <c r="BD41" s="10"/>
-      <c r="BE41" s="10"/>
+      <c r="BC41" s="11"/>
+      <c r="BD41" s="11"/>
+      <c r="BE41" s="11"/>
       <c r="BF41" s="10"/>
       <c r="BG41" s="10"/>
       <c r="BH41" s="10"/>
@@ -5162,8 +5271,11 @@
       <c r="BP41" s="10"/>
       <c r="BQ41" s="10"/>
       <c r="BR41" s="10"/>
+      <c r="BS41" s="10"/>
+      <c r="BT41" s="10"/>
+      <c r="BU41" s="10"/>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:73">
       <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
@@ -5171,9 +5283,9 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -5192,9 +5304,9 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
       <c r="AF42" s="9"/>
@@ -5209,22 +5321,22 @@
       <c r="AO42" s="9"/>
       <c r="AP42" s="9"/>
       <c r="AQ42" s="9"/>
-      <c r="AR42" s="11"/>
-      <c r="AS42" s="11"/>
-      <c r="AT42" s="11"/>
+      <c r="AR42" s="9"/>
+      <c r="AS42" s="9"/>
+      <c r="AT42" s="9"/>
       <c r="AU42" s="11"/>
-      <c r="AV42" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="AV42" s="11"/>
       <c r="AW42" s="11"/>
       <c r="AX42" s="11"/>
       <c r="AY42" s="11"/>
-      <c r="AZ42" s="11"/>
+      <c r="AZ42" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="BA42" s="11"/>
       <c r="BB42" s="11"/>
-      <c r="BC42" s="10"/>
-      <c r="BD42" s="10"/>
-      <c r="BE42" s="10"/>
+      <c r="BC42" s="11"/>
+      <c r="BD42" s="11"/>
+      <c r="BE42" s="11"/>
       <c r="BF42" s="10"/>
       <c r="BG42" s="10"/>
       <c r="BH42" s="10"/>
@@ -5238,8 +5350,11 @@
       <c r="BP42" s="10"/>
       <c r="BQ42" s="10"/>
       <c r="BR42" s="10"/>
+      <c r="BS42" s="10"/>
+      <c r="BT42" s="10"/>
+      <c r="BU42" s="10"/>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:73">
       <c r="A43" s="11" t="s">
         <v>88</v>
       </c>
@@ -5247,9 +5362,9 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5268,9 +5383,9 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
       <c r="AF43" s="9"/>
@@ -5285,22 +5400,22 @@
       <c r="AO43" s="9"/>
       <c r="AP43" s="9"/>
       <c r="AQ43" s="9"/>
-      <c r="AR43" s="11"/>
-      <c r="AS43" s="11"/>
-      <c r="AT43" s="11"/>
+      <c r="AR43" s="9"/>
+      <c r="AS43" s="9"/>
+      <c r="AT43" s="9"/>
       <c r="AU43" s="11"/>
       <c r="AV43" s="11"/>
-      <c r="AW43" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="AW43" s="11"/>
       <c r="AX43" s="11"/>
       <c r="AY43" s="11"/>
       <c r="AZ43" s="11"/>
       <c r="BA43" s="11"/>
       <c r="BB43" s="11"/>
-      <c r="BC43" s="10"/>
-      <c r="BD43" s="10"/>
-      <c r="BE43" s="10"/>
+      <c r="BC43" s="11"/>
+      <c r="BD43" s="11"/>
+      <c r="BE43" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="BF43" s="10"/>
       <c r="BG43" s="10"/>
       <c r="BH43" s="10"/>
@@ -5314,8 +5429,11 @@
       <c r="BP43" s="10"/>
       <c r="BQ43" s="10"/>
       <c r="BR43" s="10"/>
+      <c r="BS43" s="10"/>
+      <c r="BT43" s="10"/>
+      <c r="BU43" s="10"/>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:73">
       <c r="A44" s="11" t="s">
         <v>89</v>
       </c>
@@ -5323,9 +5441,9 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -5344,9 +5462,9 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
       <c r="AF44" s="9"/>
@@ -5361,9 +5479,9 @@
       <c r="AO44" s="9"/>
       <c r="AP44" s="9"/>
       <c r="AQ44" s="9"/>
-      <c r="AR44" s="11"/>
-      <c r="AS44" s="11"/>
-      <c r="AT44" s="11"/>
+      <c r="AR44" s="9"/>
+      <c r="AS44" s="9"/>
+      <c r="AT44" s="9"/>
       <c r="AU44" s="11"/>
       <c r="AV44" s="11"/>
       <c r="AW44" s="11"/>
@@ -5371,12 +5489,12 @@
       <c r="AY44" s="11"/>
       <c r="AZ44" s="11"/>
       <c r="BA44" s="11"/>
-      <c r="BB44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC44" s="10"/>
-      <c r="BD44" s="10"/>
-      <c r="BE44" s="10"/>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="11"/>
+      <c r="BD44" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE44" s="11"/>
       <c r="BF44" s="10"/>
       <c r="BG44" s="10"/>
       <c r="BH44" s="10"/>
@@ -5390,8 +5508,11 @@
       <c r="BP44" s="10"/>
       <c r="BQ44" s="10"/>
       <c r="BR44" s="10"/>
+      <c r="BS44" s="10"/>
+      <c r="BT44" s="10"/>
+      <c r="BU44" s="10"/>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:73">
       <c r="A45" s="11" t="s">
         <v>90</v>
       </c>
@@ -5399,9 +5520,9 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -5420,9 +5541,9 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
@@ -5437,22 +5558,22 @@
       <c r="AO45" s="9"/>
       <c r="AP45" s="9"/>
       <c r="AQ45" s="9"/>
-      <c r="AR45" s="11"/>
-      <c r="AS45" s="11"/>
-      <c r="AT45" s="11"/>
+      <c r="AR45" s="9"/>
+      <c r="AS45" s="9"/>
+      <c r="AT45" s="9"/>
       <c r="AU45" s="11"/>
       <c r="AV45" s="11"/>
       <c r="AW45" s="11"/>
       <c r="AX45" s="11"/>
       <c r="AY45" s="11"/>
       <c r="AZ45" s="11"/>
-      <c r="BA45" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="BA45" s="11"/>
       <c r="BB45" s="11"/>
-      <c r="BC45" s="10"/>
-      <c r="BD45" s="10"/>
-      <c r="BE45" s="10"/>
+      <c r="BC45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD45" s="11"/>
+      <c r="BE45" s="11"/>
       <c r="BF45" s="10"/>
       <c r="BG45" s="10"/>
       <c r="BH45" s="10"/>
@@ -5466,8 +5587,11 @@
       <c r="BP45" s="10"/>
       <c r="BQ45" s="10"/>
       <c r="BR45" s="10"/>
+      <c r="BS45" s="10"/>
+      <c r="BT45" s="10"/>
+      <c r="BU45" s="10"/>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:73">
       <c r="A46" s="11" t="s">
         <v>91</v>
       </c>
@@ -5475,9 +5599,9 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -5496,9 +5620,9 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
       <c r="AF46" s="9"/>
@@ -5513,22 +5637,22 @@
       <c r="AO46" s="9"/>
       <c r="AP46" s="9"/>
       <c r="AQ46" s="9"/>
-      <c r="AR46" s="11"/>
-      <c r="AS46" s="11"/>
-      <c r="AT46" s="11"/>
+      <c r="AR46" s="9"/>
+      <c r="AS46" s="9"/>
+      <c r="AT46" s="9"/>
       <c r="AU46" s="11"/>
       <c r="AV46" s="11"/>
       <c r="AW46" s="11"/>
       <c r="AX46" s="11"/>
       <c r="AY46" s="11"/>
-      <c r="AZ46" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="AZ46" s="11"/>
       <c r="BA46" s="11"/>
-      <c r="BB46" s="11"/>
-      <c r="BC46" s="10"/>
-      <c r="BD46" s="10"/>
-      <c r="BE46" s="10"/>
+      <c r="BB46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC46" s="11"/>
+      <c r="BD46" s="11"/>
+      <c r="BE46" s="11"/>
       <c r="BF46" s="10"/>
       <c r="BG46" s="10"/>
       <c r="BH46" s="10"/>
@@ -5542,90 +5666,17 @@
       <c r="BP46" s="10"/>
       <c r="BQ46" s="10"/>
       <c r="BR46" s="10"/>
-    </row>
-    <row r="47" spans="1:70">
-      <c r="A47" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="9"/>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
-      <c r="AM47" s="9"/>
-      <c r="AN47" s="9"/>
-      <c r="AO47" s="9"/>
-      <c r="AP47" s="9"/>
-      <c r="AQ47" s="9"/>
-      <c r="AR47" s="11"/>
-      <c r="AS47" s="11"/>
-      <c r="AT47" s="11"/>
-      <c r="AU47" s="11"/>
-      <c r="AV47" s="11"/>
-      <c r="AW47" s="11"/>
-      <c r="AX47" s="11"/>
-      <c r="AY47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ47" s="11"/>
-      <c r="BA47" s="11"/>
-      <c r="BB47" s="11"/>
-      <c r="BC47" s="10"/>
-      <c r="BD47" s="10"/>
-      <c r="BE47" s="10"/>
-      <c r="BF47" s="10"/>
-      <c r="BG47" s="10"/>
-      <c r="BH47" s="10"/>
-      <c r="BI47" s="10"/>
-      <c r="BJ47" s="10"/>
-      <c r="BK47" s="10"/>
-      <c r="BL47" s="10"/>
-      <c r="BM47" s="10"/>
-      <c r="BN47" s="10"/>
-      <c r="BO47" s="10"/>
-      <c r="BP47" s="10"/>
-      <c r="BQ47" s="10"/>
-      <c r="BR47" s="10"/>
+      <c r="BS46" s="10"/>
+      <c r="BT46" s="10"/>
+      <c r="BU46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:BQ2"/>
-    <mergeCell ref="A39:BQ39"/>
-    <mergeCell ref="A31:BQ31"/>
-    <mergeCell ref="A17:BQ17"/>
-    <mergeCell ref="A6:BQ6"/>
+    <mergeCell ref="A2:BT2"/>
+    <mergeCell ref="A38:BT38"/>
+    <mergeCell ref="A31:BT31"/>
+    <mergeCell ref="A17:BT17"/>
+    <mergeCell ref="A6:BT6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -977,7 +977,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="121">
   <si>
     <t>A1</t>
   </si>
@@ -1337,6 +1337,9 @@
   </si>
   <si>
     <t>A8</t>
+  </si>
+  <si>
+    <t>A7</t>
   </si>
 </sst>
 </file>
@@ -1819,24 +1822,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BU46"/>
+  <dimension ref="A1:BV46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1590" ySplit="600" topLeftCell="A13" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="E3" sqref="E1:E65536"/>
+      <pane xSplit="1590" ySplit="600" topLeftCell="A28" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="F3" sqref="F1:F65536"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35:IV35"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="57" width="4.7109375" customWidth="1"/>
-    <col min="58" max="73" width="4.7109375" style="1" customWidth="1"/>
-    <col min="74" max="77" width="4.7109375" customWidth="1"/>
+    <col min="2" max="58" width="4.7109375" customWidth="1"/>
+    <col min="59" max="74" width="4.7109375" style="1" customWidth="1"/>
+    <col min="75" max="78" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="1" customFormat="1">
+    <row r="1" spans="1:74" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>111</v>
       </c>
@@ -1853,211 +1856,214 @@
         <v>118</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BB1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BC1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BD1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BE1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BF1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BH1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BI1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BK1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BM1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BO1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="BO1" s="10" t="s">
+      <c r="BP1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="BQ1" s="10" t="s">
+      <c r="BR1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="BR1" s="10" t="s">
+      <c r="BS1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="BS1" s="10" t="s">
+      <c r="BT1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BU1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="BV1" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:74">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -2131,10 +2137,11 @@
       <c r="BQ2" s="17"/>
       <c r="BR2" s="17"/>
       <c r="BS2" s="17"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="13"/>
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="13"/>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:74">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2147,7 +2154,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2168,7 +2175,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="9"/>
+      <c r="AD3" s="4"/>
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
@@ -2185,7 +2192,7 @@
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
       <c r="AT3" s="9"/>
-      <c r="AU3" s="12"/>
+      <c r="AU3" s="9"/>
       <c r="AV3" s="12"/>
       <c r="AW3" s="12"/>
       <c r="AX3" s="12"/>
@@ -2196,7 +2203,7 @@
       <c r="BC3" s="12"/>
       <c r="BD3" s="12"/>
       <c r="BE3" s="12"/>
-      <c r="BF3" s="10"/>
+      <c r="BF3" s="12"/>
       <c r="BG3" s="10"/>
       <c r="BH3" s="10"/>
       <c r="BI3" s="10"/>
@@ -2212,8 +2219,9 @@
       <c r="BS3" s="10"/>
       <c r="BT3" s="10"/>
       <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
     </row>
-    <row r="4" spans="1:73">
+    <row r="4" spans="1:74">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2224,7 +2232,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2245,7 +2253,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="9"/>
+      <c r="AD4" s="4"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -2262,7 +2270,7 @@
       <c r="AR4" s="9"/>
       <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="12"/>
+      <c r="AU4" s="9"/>
       <c r="AV4" s="12"/>
       <c r="AW4" s="12"/>
       <c r="AX4" s="12"/>
@@ -2273,7 +2281,7 @@
       <c r="BC4" s="12"/>
       <c r="BD4" s="12"/>
       <c r="BE4" s="12"/>
-      <c r="BF4" s="10"/>
+      <c r="BF4" s="12"/>
       <c r="BG4" s="10"/>
       <c r="BH4" s="10"/>
       <c r="BI4" s="10"/>
@@ -2289,8 +2297,9 @@
       <c r="BS4" s="10"/>
       <c r="BT4" s="10"/>
       <c r="BU4" s="10"/>
+      <c r="BV4" s="10"/>
     </row>
-    <row r="5" spans="1:73">
+    <row r="5" spans="1:74">
       <c r="A5" s="6" t="s">
         <v>114</v>
       </c>
@@ -2305,7 +2314,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2326,7 +2335,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="9"/>
+      <c r="AD5" s="4"/>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -2343,7 +2352,7 @@
       <c r="AR5" s="9"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
-      <c r="AU5" s="12"/>
+      <c r="AU5" s="9"/>
       <c r="AV5" s="12"/>
       <c r="AW5" s="12"/>
       <c r="AX5" s="12"/>
@@ -2354,7 +2363,7 @@
       <c r="BC5" s="12"/>
       <c r="BD5" s="12"/>
       <c r="BE5" s="12"/>
-      <c r="BF5" s="10"/>
+      <c r="BF5" s="12"/>
       <c r="BG5" s="10"/>
       <c r="BH5" s="10"/>
       <c r="BI5" s="10"/>
@@ -2370,8 +2379,9 @@
       <c r="BS5" s="10"/>
       <c r="BT5" s="10"/>
       <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
     </row>
-    <row r="6" spans="1:73">
+    <row r="6" spans="1:74">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -2445,10 +2455,11 @@
       <c r="BQ6" s="24"/>
       <c r="BR6" s="24"/>
       <c r="BS6" s="24"/>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="14"/>
+      <c r="BT6" s="24"/>
+      <c r="BU6" s="25"/>
+      <c r="BV6" s="14"/>
     </row>
-    <row r="7" spans="1:73">
+    <row r="7" spans="1:74">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -2461,10 +2472,10 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -2484,7 +2495,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
-      <c r="AD7" s="9"/>
+      <c r="AD7" s="7"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
@@ -2501,7 +2512,7 @@
       <c r="AR7" s="9"/>
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
-      <c r="AU7" s="12"/>
+      <c r="AU7" s="9"/>
       <c r="AV7" s="12"/>
       <c r="AW7" s="12"/>
       <c r="AX7" s="12"/>
@@ -2512,7 +2523,7 @@
       <c r="BC7" s="12"/>
       <c r="BD7" s="12"/>
       <c r="BE7" s="12"/>
-      <c r="BF7" s="10"/>
+      <c r="BF7" s="12"/>
       <c r="BG7" s="10"/>
       <c r="BH7" s="10"/>
       <c r="BI7" s="10"/>
@@ -2528,8 +2539,9 @@
       <c r="BS7" s="10"/>
       <c r="BT7" s="10"/>
       <c r="BU7" s="10"/>
+      <c r="BV7" s="10"/>
     </row>
-    <row r="8" spans="1:73">
+    <row r="8" spans="1:74">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2540,16 +2552,16 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="7"/>
+      <c r="P8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -2563,7 +2575,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
-      <c r="AD8" s="9"/>
+      <c r="AD8" s="7"/>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
@@ -2580,7 +2592,7 @@
       <c r="AR8" s="9"/>
       <c r="AS8" s="9"/>
       <c r="AT8" s="9"/>
-      <c r="AU8" s="12"/>
+      <c r="AU8" s="9"/>
       <c r="AV8" s="12"/>
       <c r="AW8" s="12"/>
       <c r="AX8" s="12"/>
@@ -2591,7 +2603,7 @@
       <c r="BC8" s="12"/>
       <c r="BD8" s="12"/>
       <c r="BE8" s="12"/>
-      <c r="BF8" s="10"/>
+      <c r="BF8" s="12"/>
       <c r="BG8" s="10"/>
       <c r="BH8" s="10"/>
       <c r="BI8" s="10"/>
@@ -2607,8 +2619,9 @@
       <c r="BS8" s="10"/>
       <c r="BT8" s="10"/>
       <c r="BU8" s="10"/>
+      <c r="BV8" s="10"/>
     </row>
-    <row r="9" spans="1:73">
+    <row r="9" spans="1:74">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2619,15 +2632,15 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -2642,7 +2655,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
-      <c r="AD9" s="9"/>
+      <c r="AD9" s="7"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
@@ -2659,7 +2672,7 @@
       <c r="AR9" s="9"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
-      <c r="AU9" s="12"/>
+      <c r="AU9" s="9"/>
       <c r="AV9" s="12"/>
       <c r="AW9" s="12"/>
       <c r="AX9" s="12"/>
@@ -2670,7 +2683,7 @@
       <c r="BC9" s="12"/>
       <c r="BD9" s="12"/>
       <c r="BE9" s="12"/>
-      <c r="BF9" s="10"/>
+      <c r="BF9" s="12"/>
       <c r="BG9" s="10"/>
       <c r="BH9" s="10"/>
       <c r="BI9" s="10"/>
@@ -2686,8 +2699,9 @@
       <c r="BS9" s="10"/>
       <c r="BT9" s="10"/>
       <c r="BU9" s="10"/>
+      <c r="BV9" s="10"/>
     </row>
-    <row r="10" spans="1:73">
+    <row r="10" spans="1:74">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2698,42 +2712,42 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="8"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="Z10" s="7"/>
       <c r="AA10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7" t="s">
+      <c r="AB10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="9"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
@@ -2750,7 +2764,7 @@
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
-      <c r="AU10" s="12"/>
+      <c r="AU10" s="9"/>
       <c r="AV10" s="12"/>
       <c r="AW10" s="12"/>
       <c r="AX10" s="12"/>
@@ -2761,7 +2775,7 @@
       <c r="BC10" s="12"/>
       <c r="BD10" s="12"/>
       <c r="BE10" s="12"/>
-      <c r="BF10" s="10"/>
+      <c r="BF10" s="12"/>
       <c r="BG10" s="10"/>
       <c r="BH10" s="10"/>
       <c r="BI10" s="10"/>
@@ -2777,8 +2791,9 @@
       <c r="BS10" s="10"/>
       <c r="BT10" s="10"/>
       <c r="BU10" s="10"/>
+      <c r="BV10" s="10"/>
     </row>
-    <row r="11" spans="1:73">
+    <row r="11" spans="1:74">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -2789,7 +2804,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -2802,21 +2817,21 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="7"/>
+      <c r="W11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="7" t="s">
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="9"/>
+      <c r="AD11" s="7"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
@@ -2833,7 +2848,7 @@
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
-      <c r="AU11" s="12"/>
+      <c r="AU11" s="9"/>
       <c r="AV11" s="12"/>
       <c r="AW11" s="12"/>
       <c r="AX11" s="12"/>
@@ -2844,7 +2859,7 @@
       <c r="BC11" s="12"/>
       <c r="BD11" s="12"/>
       <c r="BE11" s="12"/>
-      <c r="BF11" s="10"/>
+      <c r="BF11" s="12"/>
       <c r="BG11" s="10"/>
       <c r="BH11" s="10"/>
       <c r="BI11" s="10"/>
@@ -2860,8 +2875,9 @@
       <c r="BS11" s="10"/>
       <c r="BT11" s="10"/>
       <c r="BU11" s="10"/>
+      <c r="BV11" s="10"/>
     </row>
-    <row r="12" spans="1:73">
+    <row r="12" spans="1:74">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -2872,7 +2888,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2886,16 +2902,16 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="7" t="s">
+      <c r="W12" s="7"/>
+      <c r="X12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
-      <c r="AD12" s="9"/>
+      <c r="AD12" s="7"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
@@ -2912,7 +2928,7 @@
       <c r="AR12" s="9"/>
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
-      <c r="AU12" s="12"/>
+      <c r="AU12" s="9"/>
       <c r="AV12" s="12"/>
       <c r="AW12" s="12"/>
       <c r="AX12" s="12"/>
@@ -2923,7 +2939,7 @@
       <c r="BC12" s="12"/>
       <c r="BD12" s="12"/>
       <c r="BE12" s="12"/>
-      <c r="BF12" s="10"/>
+      <c r="BF12" s="12"/>
       <c r="BG12" s="10"/>
       <c r="BH12" s="10"/>
       <c r="BI12" s="10"/>
@@ -2939,8 +2955,9 @@
       <c r="BS12" s="10"/>
       <c r="BT12" s="10"/>
       <c r="BU12" s="10"/>
+      <c r="BV12" s="10"/>
     </row>
-    <row r="13" spans="1:73">
+    <row r="13" spans="1:74">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
@@ -2951,7 +2968,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2962,10 +2979,10 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="7"/>
+      <c r="U13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -2974,7 +2991,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
-      <c r="AD13" s="9"/>
+      <c r="AD13" s="7"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
@@ -2990,10 +3007,10 @@
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
       <c r="AS13" s="9"/>
-      <c r="AT13" s="9" t="s">
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AU13" s="12"/>
       <c r="AV13" s="12"/>
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
@@ -3004,7 +3021,7 @@
       <c r="BC13" s="12"/>
       <c r="BD13" s="12"/>
       <c r="BE13" s="12"/>
-      <c r="BF13" s="10"/>
+      <c r="BF13" s="12"/>
       <c r="BG13" s="10"/>
       <c r="BH13" s="10"/>
       <c r="BI13" s="10"/>
@@ -3020,8 +3037,9 @@
       <c r="BS13" s="10"/>
       <c r="BT13" s="10"/>
       <c r="BU13" s="10"/>
+      <c r="BV13" s="10"/>
     </row>
-    <row r="14" spans="1:73">
+    <row r="14" spans="1:74">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -3032,7 +3050,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -3040,26 +3058,26 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="Q14" s="7"/>
       <c r="R14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="7"/>
+      <c r="S14" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="7" t="s">
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
-      <c r="AD14" s="9"/>
+      <c r="AD14" s="7"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
@@ -3076,7 +3094,7 @@
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
-      <c r="AU14" s="12"/>
+      <c r="AU14" s="9"/>
       <c r="AV14" s="12"/>
       <c r="AW14" s="12"/>
       <c r="AX14" s="12"/>
@@ -3087,7 +3105,7 @@
       <c r="BC14" s="12"/>
       <c r="BD14" s="12"/>
       <c r="BE14" s="12"/>
-      <c r="BF14" s="10"/>
+      <c r="BF14" s="12"/>
       <c r="BG14" s="10"/>
       <c r="BH14" s="10"/>
       <c r="BI14" s="10"/>
@@ -3103,8 +3121,9 @@
       <c r="BS14" s="10"/>
       <c r="BT14" s="10"/>
       <c r="BU14" s="10"/>
+      <c r="BV14" s="10"/>
     </row>
-    <row r="15" spans="1:73">
+    <row r="15" spans="1:74">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -3115,7 +3134,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -3129,16 +3148,16 @@
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7" t="s">
+      <c r="W15" s="7"/>
+      <c r="X15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
-      <c r="AD15" s="9"/>
+      <c r="AD15" s="7"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
@@ -3151,13 +3170,13 @@
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
-      <c r="AQ15" s="9" t="s">
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
-      <c r="AU15" s="12"/>
+      <c r="AU15" s="9"/>
       <c r="AV15" s="12"/>
       <c r="AW15" s="12"/>
       <c r="AX15" s="12"/>
@@ -3168,7 +3187,7 @@
       <c r="BC15" s="12"/>
       <c r="BD15" s="12"/>
       <c r="BE15" s="12"/>
-      <c r="BF15" s="10"/>
+      <c r="BF15" s="12"/>
       <c r="BG15" s="10"/>
       <c r="BH15" s="10"/>
       <c r="BI15" s="10"/>
@@ -3184,8 +3203,9 @@
       <c r="BS15" s="10"/>
       <c r="BT15" s="10"/>
       <c r="BU15" s="10"/>
+      <c r="BV15" s="10"/>
     </row>
-    <row r="16" spans="1:73">
+    <row r="16" spans="1:74">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -3196,12 +3216,12 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3219,7 +3239,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
-      <c r="AD16" s="9"/>
+      <c r="AD16" s="7"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
@@ -3236,7 +3256,7 @@
       <c r="AR16" s="9"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
-      <c r="AU16" s="12"/>
+      <c r="AU16" s="9"/>
       <c r="AV16" s="12"/>
       <c r="AW16" s="12"/>
       <c r="AX16" s="12"/>
@@ -3247,7 +3267,7 @@
       <c r="BC16" s="12"/>
       <c r="BD16" s="12"/>
       <c r="BE16" s="12"/>
-      <c r="BF16" s="10"/>
+      <c r="BF16" s="12"/>
       <c r="BG16" s="10"/>
       <c r="BH16" s="10"/>
       <c r="BI16" s="10"/>
@@ -3263,8 +3283,9 @@
       <c r="BS16" s="10"/>
       <c r="BT16" s="10"/>
       <c r="BU16" s="10"/>
+      <c r="BV16" s="10"/>
     </row>
-    <row r="17" spans="1:73">
+    <row r="17" spans="1:74">
       <c r="A17" s="23" t="s">
         <v>84</v>
       </c>
@@ -3338,10 +3359,11 @@
       <c r="BQ17" s="24"/>
       <c r="BR17" s="24"/>
       <c r="BS17" s="24"/>
-      <c r="BT17" s="25"/>
-      <c r="BU17" s="14"/>
+      <c r="BT17" s="24"/>
+      <c r="BU17" s="25"/>
+      <c r="BV17" s="14"/>
     </row>
-    <row r="18" spans="1:73">
+    <row r="18" spans="1:74">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3352,11 +3374,11 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -3373,13 +3395,13 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
-      <c r="AD18" s="9"/>
+      <c r="AD18" s="7"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
-      <c r="AG18" s="9" t="s">
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
@@ -3392,7 +3414,7 @@
       <c r="AR18" s="9"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
-      <c r="AU18" s="11"/>
+      <c r="AU18" s="9"/>
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
       <c r="AX18" s="11"/>
@@ -3403,7 +3425,7 @@
       <c r="BC18" s="11"/>
       <c r="BD18" s="11"/>
       <c r="BE18" s="11"/>
-      <c r="BF18" s="10"/>
+      <c r="BF18" s="11"/>
       <c r="BG18" s="10"/>
       <c r="BH18" s="10"/>
       <c r="BI18" s="10"/>
@@ -3419,8 +3441,9 @@
       <c r="BS18" s="10"/>
       <c r="BT18" s="10"/>
       <c r="BU18" s="10"/>
+      <c r="BV18" s="10"/>
     </row>
-    <row r="19" spans="1:73">
+    <row r="19" spans="1:74">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -3431,11 +3454,11 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -3452,18 +3475,18 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
-      <c r="AD19" s="9"/>
+      <c r="AD19" s="7"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
-      <c r="AI19" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="AI19" s="9"/>
       <c r="AJ19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AK19" s="9"/>
+      <c r="AK19" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
@@ -3473,7 +3496,7 @@
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
-      <c r="AU19" s="11"/>
+      <c r="AU19" s="9"/>
       <c r="AV19" s="11"/>
       <c r="AW19" s="11"/>
       <c r="AX19" s="11"/>
@@ -3484,7 +3507,7 @@
       <c r="BC19" s="11"/>
       <c r="BD19" s="11"/>
       <c r="BE19" s="11"/>
-      <c r="BF19" s="10"/>
+      <c r="BF19" s="11"/>
       <c r="BG19" s="10"/>
       <c r="BH19" s="10"/>
       <c r="BI19" s="10"/>
@@ -3500,8 +3523,9 @@
       <c r="BS19" s="10"/>
       <c r="BT19" s="10"/>
       <c r="BU19" s="10"/>
+      <c r="BV19" s="10"/>
     </row>
-    <row r="20" spans="1:73">
+    <row r="20" spans="1:74">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
@@ -3512,11 +3536,11 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -3533,7 +3557,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
-      <c r="AD20" s="9"/>
+      <c r="AD20" s="7"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
@@ -3542,17 +3566,17 @@
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
-      <c r="AM20" s="9" t="s">
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
-      <c r="AU20" s="11"/>
+      <c r="AU20" s="9"/>
       <c r="AV20" s="11"/>
       <c r="AW20" s="11"/>
       <c r="AX20" s="11"/>
@@ -3563,7 +3587,7 @@
       <c r="BC20" s="11"/>
       <c r="BD20" s="11"/>
       <c r="BE20" s="11"/>
-      <c r="BF20" s="10"/>
+      <c r="BF20" s="11"/>
       <c r="BG20" s="10"/>
       <c r="BH20" s="10"/>
       <c r="BI20" s="10"/>
@@ -3579,8 +3603,9 @@
       <c r="BS20" s="10"/>
       <c r="BT20" s="10"/>
       <c r="BU20" s="10"/>
+      <c r="BV20" s="10"/>
     </row>
-    <row r="21" spans="1:73">
+    <row r="21" spans="1:74">
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3591,11 +3616,11 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -3612,17 +3637,17 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
-      <c r="AD21" s="9"/>
+      <c r="AD21" s="7"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
-      <c r="AK21" s="9" t="s">
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
@@ -3631,7 +3656,7 @@
       <c r="AR21" s="9"/>
       <c r="AS21" s="9"/>
       <c r="AT21" s="9"/>
-      <c r="AU21" s="11"/>
+      <c r="AU21" s="9"/>
       <c r="AV21" s="11"/>
       <c r="AW21" s="11"/>
       <c r="AX21" s="11"/>
@@ -3642,7 +3667,7 @@
       <c r="BC21" s="11"/>
       <c r="BD21" s="11"/>
       <c r="BE21" s="11"/>
-      <c r="BF21" s="10"/>
+      <c r="BF21" s="11"/>
       <c r="BG21" s="10"/>
       <c r="BH21" s="10"/>
       <c r="BI21" s="10"/>
@@ -3658,8 +3683,9 @@
       <c r="BS21" s="10"/>
       <c r="BT21" s="10"/>
       <c r="BU21" s="10"/>
+      <c r="BV21" s="10"/>
     </row>
-    <row r="22" spans="1:73">
+    <row r="22" spans="1:74">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -3670,11 +3696,11 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -3691,7 +3717,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
-      <c r="AD22" s="9"/>
+      <c r="AD22" s="7"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
@@ -3701,16 +3727,16 @@
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
-      <c r="AN22" s="9" t="s">
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="9"/>
       <c r="AT22" s="9"/>
-      <c r="AU22" s="11"/>
+      <c r="AU22" s="9"/>
       <c r="AV22" s="11"/>
       <c r="AW22" s="11"/>
       <c r="AX22" s="11"/>
@@ -3721,7 +3747,7 @@
       <c r="BC22" s="11"/>
       <c r="BD22" s="11"/>
       <c r="BE22" s="11"/>
-      <c r="BF22" s="10"/>
+      <c r="BF22" s="11"/>
       <c r="BG22" s="10"/>
       <c r="BH22" s="10"/>
       <c r="BI22" s="10"/>
@@ -3737,8 +3763,9 @@
       <c r="BS22" s="10"/>
       <c r="BT22" s="10"/>
       <c r="BU22" s="10"/>
+      <c r="BV22" s="10"/>
     </row>
-    <row r="23" spans="1:73">
+    <row r="23" spans="1:74">
       <c r="A23" s="9" t="s">
         <v>112</v>
       </c>
@@ -3749,11 +3776,11 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="7"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -3770,14 +3797,14 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-      <c r="AD23" s="9"/>
+      <c r="AD23" s="7"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
-      <c r="AH23" s="9" t="s">
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
@@ -3789,7 +3816,7 @@
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9"/>
-      <c r="AU23" s="11"/>
+      <c r="AU23" s="9"/>
       <c r="AV23" s="11"/>
       <c r="AW23" s="11"/>
       <c r="AX23" s="11"/>
@@ -3800,7 +3827,7 @@
       <c r="BC23" s="11"/>
       <c r="BD23" s="11"/>
       <c r="BE23" s="11"/>
-      <c r="BF23" s="10"/>
+      <c r="BF23" s="11"/>
       <c r="BG23" s="10"/>
       <c r="BH23" s="10"/>
       <c r="BI23" s="10"/>
@@ -3816,8 +3843,9 @@
       <c r="BS23" s="10"/>
       <c r="BT23" s="10"/>
       <c r="BU23" s="10"/>
+      <c r="BV23" s="10"/>
     </row>
-    <row r="24" spans="1:73">
+    <row r="24" spans="1:74">
       <c r="A24" s="9" t="s">
         <v>113</v>
       </c>
@@ -3828,11 +3856,11 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -3849,7 +3877,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
-      <c r="AD24" s="9"/>
+      <c r="AD24" s="7"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
@@ -3866,7 +3894,7 @@
       <c r="AR24" s="9"/>
       <c r="AS24" s="9"/>
       <c r="AT24" s="9"/>
-      <c r="AU24" s="11"/>
+      <c r="AU24" s="9"/>
       <c r="AV24" s="11"/>
       <c r="AW24" s="11"/>
       <c r="AX24" s="11"/>
@@ -3877,7 +3905,7 @@
       <c r="BC24" s="11"/>
       <c r="BD24" s="11"/>
       <c r="BE24" s="11"/>
-      <c r="BF24" s="10"/>
+      <c r="BF24" s="11"/>
       <c r="BG24" s="10"/>
       <c r="BH24" s="10"/>
       <c r="BI24" s="10"/>
@@ -3893,8 +3921,9 @@
       <c r="BS24" s="10"/>
       <c r="BT24" s="10"/>
       <c r="BU24" s="10"/>
+      <c r="BV24" s="10"/>
     </row>
-    <row r="25" spans="1:73">
+    <row r="25" spans="1:74">
       <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
@@ -3905,11 +3934,11 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="4"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -3926,7 +3955,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
-      <c r="AD25" s="9"/>
+      <c r="AD25" s="7"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
@@ -3943,7 +3972,7 @@
       <c r="AR25" s="9"/>
       <c r="AS25" s="9"/>
       <c r="AT25" s="9"/>
-      <c r="AU25" s="11"/>
+      <c r="AU25" s="9"/>
       <c r="AV25" s="11"/>
       <c r="AW25" s="11"/>
       <c r="AX25" s="11"/>
@@ -3954,7 +3983,7 @@
       <c r="BC25" s="11"/>
       <c r="BD25" s="11"/>
       <c r="BE25" s="11"/>
-      <c r="BF25" s="10"/>
+      <c r="BF25" s="11"/>
       <c r="BG25" s="10"/>
       <c r="BH25" s="10"/>
       <c r="BI25" s="10"/>
@@ -3970,8 +3999,9 @@
       <c r="BS25" s="10"/>
       <c r="BT25" s="10"/>
       <c r="BU25" s="10"/>
+      <c r="BV25" s="10"/>
     </row>
-    <row r="26" spans="1:73">
+    <row r="26" spans="1:74">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -3982,20 +4012,20 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7" t="s">
+      <c r="S26" s="7"/>
+      <c r="T26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
@@ -4005,10 +4035,10 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
-      <c r="AD26" s="9" t="s">
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
@@ -4024,20 +4054,20 @@
       <c r="AR26" s="9"/>
       <c r="AS26" s="9"/>
       <c r="AT26" s="9"/>
-      <c r="AU26" s="11"/>
+      <c r="AU26" s="9"/>
       <c r="AV26" s="11"/>
       <c r="AW26" s="11"/>
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
       <c r="AZ26" s="11"/>
-      <c r="BA26" s="11" t="s">
+      <c r="BA26" s="11"/>
+      <c r="BB26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BB26" s="11"/>
       <c r="BC26" s="11"/>
       <c r="BD26" s="11"/>
       <c r="BE26" s="11"/>
-      <c r="BF26" s="10"/>
+      <c r="BF26" s="11"/>
       <c r="BG26" s="10"/>
       <c r="BH26" s="10"/>
       <c r="BI26" s="10"/>
@@ -4053,8 +4083,9 @@
       <c r="BS26" s="10"/>
       <c r="BT26" s="10"/>
       <c r="BU26" s="10"/>
+      <c r="BV26" s="10"/>
     </row>
-    <row r="27" spans="1:73">
+    <row r="27" spans="1:74">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
@@ -4065,11 +4096,11 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -4086,7 +4117,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
-      <c r="AD27" s="9"/>
+      <c r="AD27" s="7"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
@@ -4103,7 +4134,7 @@
       <c r="AR27" s="9"/>
       <c r="AS27" s="9"/>
       <c r="AT27" s="9"/>
-      <c r="AU27" s="11"/>
+      <c r="AU27" s="9"/>
       <c r="AV27" s="11"/>
       <c r="AW27" s="11"/>
       <c r="AX27" s="11"/>
@@ -4114,7 +4145,7 @@
       <c r="BC27" s="11"/>
       <c r="BD27" s="11"/>
       <c r="BE27" s="11"/>
-      <c r="BF27" s="10"/>
+      <c r="BF27" s="11"/>
       <c r="BG27" s="10"/>
       <c r="BH27" s="10"/>
       <c r="BI27" s="10"/>
@@ -4130,8 +4161,9 @@
       <c r="BS27" s="10"/>
       <c r="BT27" s="10"/>
       <c r="BU27" s="10"/>
+      <c r="BV27" s="10"/>
     </row>
-    <row r="28" spans="1:73">
+    <row r="28" spans="1:74">
       <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
@@ -4142,11 +4174,11 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -4163,20 +4195,20 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
-      <c r="AD28" s="9"/>
+      <c r="AD28" s="7"/>
       <c r="AE28" s="9"/>
-      <c r="AF28" s="9" t="s">
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AG28" s="9"/>
       <c r="AH28" s="9"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
-      <c r="AL28" s="9" t="s">
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9"/>
@@ -4184,7 +4216,7 @@
       <c r="AR28" s="9"/>
       <c r="AS28" s="9"/>
       <c r="AT28" s="9"/>
-      <c r="AU28" s="11"/>
+      <c r="AU28" s="9"/>
       <c r="AV28" s="11"/>
       <c r="AW28" s="11"/>
       <c r="AX28" s="11"/>
@@ -4195,7 +4227,7 @@
       <c r="BC28" s="11"/>
       <c r="BD28" s="11"/>
       <c r="BE28" s="11"/>
-      <c r="BF28" s="10"/>
+      <c r="BF28" s="11"/>
       <c r="BG28" s="10"/>
       <c r="BH28" s="10"/>
       <c r="BI28" s="10"/>
@@ -4211,8 +4243,9 @@
       <c r="BS28" s="10"/>
       <c r="BT28" s="10"/>
       <c r="BU28" s="10"/>
+      <c r="BV28" s="10"/>
     </row>
-    <row r="29" spans="1:73">
+    <row r="29" spans="1:74">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
@@ -4223,11 +4256,11 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="7"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -4244,11 +4277,11 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9" t="s">
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AF29" s="9"/>
       <c r="AG29" s="9"/>
       <c r="AH29" s="9"/>
       <c r="AI29" s="9"/>
@@ -4263,7 +4296,7 @@
       <c r="AR29" s="9"/>
       <c r="AS29" s="9"/>
       <c r="AT29" s="9"/>
-      <c r="AU29" s="11"/>
+      <c r="AU29" s="9"/>
       <c r="AV29" s="11"/>
       <c r="AW29" s="11"/>
       <c r="AX29" s="11"/>
@@ -4274,7 +4307,7 @@
       <c r="BC29" s="11"/>
       <c r="BD29" s="11"/>
       <c r="BE29" s="11"/>
-      <c r="BF29" s="10"/>
+      <c r="BF29" s="11"/>
       <c r="BG29" s="10"/>
       <c r="BH29" s="10"/>
       <c r="BI29" s="10"/>
@@ -4290,8 +4323,9 @@
       <c r="BS29" s="10"/>
       <c r="BT29" s="10"/>
       <c r="BU29" s="10"/>
+      <c r="BV29" s="10"/>
     </row>
-    <row r="30" spans="1:73">
+    <row r="30" spans="1:74">
       <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
@@ -4302,11 +4336,11 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="4"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -4323,7 +4357,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
-      <c r="AD30" s="9"/>
+      <c r="AD30" s="7"/>
       <c r="AE30" s="9"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="9"/>
@@ -4340,7 +4374,7 @@
       <c r="AR30" s="9"/>
       <c r="AS30" s="9"/>
       <c r="AT30" s="9"/>
-      <c r="AU30" s="11"/>
+      <c r="AU30" s="9"/>
       <c r="AV30" s="11"/>
       <c r="AW30" s="11"/>
       <c r="AX30" s="11"/>
@@ -4351,7 +4385,7 @@
       <c r="BC30" s="11"/>
       <c r="BD30" s="11"/>
       <c r="BE30" s="11"/>
-      <c r="BF30" s="10"/>
+      <c r="BF30" s="11"/>
       <c r="BG30" s="10"/>
       <c r="BH30" s="10"/>
       <c r="BI30" s="10"/>
@@ -4367,8 +4401,9 @@
       <c r="BS30" s="10"/>
       <c r="BT30" s="10"/>
       <c r="BU30" s="10"/>
+      <c r="BV30" s="10"/>
     </row>
-    <row r="31" spans="1:73">
+    <row r="31" spans="1:74">
       <c r="A31" s="20" t="s">
         <v>52</v>
       </c>
@@ -4442,10 +4477,11 @@
       <c r="BQ31" s="21"/>
       <c r="BR31" s="21"/>
       <c r="BS31" s="21"/>
-      <c r="BT31" s="22"/>
-      <c r="BU31" s="15"/>
+      <c r="BT31" s="21"/>
+      <c r="BU31" s="22"/>
+      <c r="BV31" s="15"/>
     </row>
-    <row r="32" spans="1:73">
+    <row r="32" spans="1:74">
       <c r="A32" s="10" t="s">
         <v>53</v>
       </c>
@@ -4454,13 +4490,13 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -4472,10 +4508,10 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="7" t="s">
+      <c r="U32" s="4"/>
+      <c r="V32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
@@ -4483,10 +4519,10 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="9" t="s">
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
       <c r="AH32" s="9"/>
@@ -4502,7 +4538,7 @@
       <c r="AR32" s="9"/>
       <c r="AS32" s="9"/>
       <c r="AT32" s="9"/>
-      <c r="AU32" s="12"/>
+      <c r="AU32" s="9"/>
       <c r="AV32" s="12"/>
       <c r="AW32" s="12"/>
       <c r="AX32" s="12"/>
@@ -4513,12 +4549,12 @@
       <c r="BC32" s="12"/>
       <c r="BD32" s="12"/>
       <c r="BE32" s="12"/>
-      <c r="BF32" s="10"/>
+      <c r="BF32" s="12"/>
       <c r="BG32" s="10"/>
-      <c r="BH32" s="10" t="s">
+      <c r="BH32" s="10"/>
+      <c r="BI32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BI32" s="10"/>
       <c r="BJ32" s="10"/>
       <c r="BK32" s="10"/>
       <c r="BL32" s="10"/>
@@ -4529,12 +4565,13 @@
       <c r="BQ32" s="10"/>
       <c r="BR32" s="10"/>
       <c r="BS32" s="10"/>
-      <c r="BT32" s="10" t="s">
+      <c r="BT32" s="10"/>
+      <c r="BU32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BU32" s="10"/>
+      <c r="BV32" s="10"/>
     </row>
-    <row r="33" spans="1:73">
+    <row r="33" spans="1:74">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
@@ -4547,7 +4584,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -4568,7 +4605,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="9"/>
+      <c r="AD33" s="4"/>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
@@ -4579,17 +4616,17 @@
       <c r="AL33" s="9"/>
       <c r="AM33" s="9"/>
       <c r="AN33" s="9"/>
-      <c r="AO33" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="AO33" s="9"/>
       <c r="AP33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AQ33" s="9"/>
+      <c r="AQ33" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="AR33" s="9"/>
       <c r="AS33" s="9"/>
       <c r="AT33" s="9"/>
-      <c r="AU33" s="12"/>
+      <c r="AU33" s="9"/>
       <c r="AV33" s="12"/>
       <c r="AW33" s="12"/>
       <c r="AX33" s="12"/>
@@ -4600,36 +4637,37 @@
       <c r="BC33" s="12"/>
       <c r="BD33" s="12"/>
       <c r="BE33" s="12"/>
-      <c r="BF33" s="10" t="s">
+      <c r="BF33" s="12"/>
+      <c r="BG33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BG33" s="10"/>
       <c r="BH33" s="10"/>
-      <c r="BI33" s="10" t="s">
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BJ33" s="10"/>
-      <c r="BK33" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="BK33" s="10"/>
       <c r="BL33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BM33" s="10"/>
+      <c r="BM33" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="BN33" s="10"/>
       <c r="BO33" s="10"/>
       <c r="BP33" s="10"/>
-      <c r="BQ33" s="10" t="s">
+      <c r="BQ33" s="10"/>
+      <c r="BR33" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BR33" s="10"/>
-      <c r="BS33" s="10" t="s">
+      <c r="BS33" s="10"/>
+      <c r="BT33" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BT33" s="10"/>
       <c r="BU33" s="10"/>
+      <c r="BV33" s="10"/>
     </row>
-    <row r="34" spans="1:73">
+    <row r="34" spans="1:74">
       <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
@@ -4640,9 +4678,11 @@
       <c r="F34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -4663,7 +4703,7 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="9"/>
+      <c r="AD34" s="4"/>
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
@@ -4680,7 +4720,7 @@
       <c r="AR34" s="9"/>
       <c r="AS34" s="9"/>
       <c r="AT34" s="9"/>
-      <c r="AU34" s="12"/>
+      <c r="AU34" s="9"/>
       <c r="AV34" s="12"/>
       <c r="AW34" s="12"/>
       <c r="AX34" s="12"/>
@@ -4691,16 +4731,16 @@
       <c r="BC34" s="12"/>
       <c r="BD34" s="12"/>
       <c r="BE34" s="12"/>
-      <c r="BF34" s="10"/>
-      <c r="BG34" s="10" t="s">
+      <c r="BF34" s="12"/>
+      <c r="BG34" s="10"/>
+      <c r="BH34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BH34" s="10"/>
       <c r="BI34" s="10"/>
-      <c r="BJ34" s="10" t="s">
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BK34" s="10"/>
       <c r="BL34" s="10"/>
       <c r="BM34" s="10"/>
       <c r="BN34" s="10"/>
@@ -4711,8 +4751,9 @@
       <c r="BS34" s="10"/>
       <c r="BT34" s="10"/>
       <c r="BU34" s="10"/>
+      <c r="BV34" s="10"/>
     </row>
-    <row r="35" spans="1:73">
+    <row r="35" spans="1:74">
       <c r="A35" s="10" t="s">
         <v>108</v>
       </c>
@@ -4725,7 +4766,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -4746,7 +4787,7 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="9"/>
+      <c r="AD35" s="4"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="9"/>
@@ -4763,7 +4804,7 @@
       <c r="AR35" s="9"/>
       <c r="AS35" s="9"/>
       <c r="AT35" s="9"/>
-      <c r="AU35" s="12"/>
+      <c r="AU35" s="9"/>
       <c r="AV35" s="12"/>
       <c r="AW35" s="12"/>
       <c r="AX35" s="12"/>
@@ -4774,30 +4815,31 @@
       <c r="BC35" s="12"/>
       <c r="BD35" s="12"/>
       <c r="BE35" s="12"/>
-      <c r="BF35" s="10"/>
+      <c r="BF35" s="12"/>
       <c r="BG35" s="10"/>
       <c r="BH35" s="10"/>
       <c r="BI35" s="10"/>
       <c r="BJ35" s="10"/>
       <c r="BK35" s="10"/>
       <c r="BL35" s="10"/>
-      <c r="BM35" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="BM35" s="10"/>
       <c r="BN35" s="10" t="s">
         <v>56</v>
       </c>
       <c r="BO35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BP35" s="10"/>
+      <c r="BP35" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="BQ35" s="10"/>
       <c r="BR35" s="10"/>
       <c r="BS35" s="10"/>
       <c r="BT35" s="10"/>
       <c r="BU35" s="10"/>
+      <c r="BV35" s="10"/>
     </row>
-    <row r="36" spans="1:73">
+    <row r="36" spans="1:74">
       <c r="A36" s="10" t="s">
         <v>109</v>
       </c>
@@ -4808,7 +4850,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -4829,7 +4871,7 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="9"/>
+      <c r="AD36" s="4"/>
       <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
       <c r="AG36" s="9"/>
@@ -4846,7 +4888,7 @@
       <c r="AR36" s="9"/>
       <c r="AS36" s="9"/>
       <c r="AT36" s="9"/>
-      <c r="AU36" s="12"/>
+      <c r="AU36" s="9"/>
       <c r="AV36" s="12"/>
       <c r="AW36" s="12"/>
       <c r="AX36" s="12"/>
@@ -4857,7 +4899,7 @@
       <c r="BC36" s="12"/>
       <c r="BD36" s="12"/>
       <c r="BE36" s="12"/>
-      <c r="BF36" s="10"/>
+      <c r="BF36" s="12"/>
       <c r="BG36" s="10"/>
       <c r="BH36" s="10"/>
       <c r="BI36" s="10"/>
@@ -4867,16 +4909,17 @@
       <c r="BM36" s="10"/>
       <c r="BN36" s="10"/>
       <c r="BO36" s="10"/>
-      <c r="BP36" s="10" t="s">
+      <c r="BP36" s="10"/>
+      <c r="BQ36" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BQ36" s="10"/>
       <c r="BR36" s="10"/>
       <c r="BS36" s="10"/>
       <c r="BT36" s="10"/>
       <c r="BU36" s="10"/>
+      <c r="BV36" s="10"/>
     </row>
-    <row r="37" spans="1:73">
+    <row r="37" spans="1:74">
       <c r="A37" s="10" t="s">
         <v>110</v>
       </c>
@@ -4887,7 +4930,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -4908,7 +4951,7 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="9"/>
+      <c r="AD37" s="4"/>
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
@@ -4925,7 +4968,7 @@
       <c r="AR37" s="9"/>
       <c r="AS37" s="9"/>
       <c r="AT37" s="9"/>
-      <c r="AU37" s="12"/>
+      <c r="AU37" s="9"/>
       <c r="AV37" s="12"/>
       <c r="AW37" s="12"/>
       <c r="AX37" s="12"/>
@@ -4936,7 +4979,7 @@
       <c r="BC37" s="12"/>
       <c r="BD37" s="12"/>
       <c r="BE37" s="12"/>
-      <c r="BF37" s="10"/>
+      <c r="BF37" s="12"/>
       <c r="BG37" s="10"/>
       <c r="BH37" s="10"/>
       <c r="BI37" s="10"/>
@@ -4948,14 +4991,15 @@
       <c r="BO37" s="10"/>
       <c r="BP37" s="10"/>
       <c r="BQ37" s="10"/>
-      <c r="BR37" s="10" t="s">
+      <c r="BR37" s="10"/>
+      <c r="BS37" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BS37" s="10"/>
       <c r="BT37" s="10"/>
       <c r="BU37" s="10"/>
+      <c r="BV37" s="10"/>
     </row>
-    <row r="38" spans="1:73">
+    <row r="38" spans="1:74">
       <c r="A38" s="19" t="s">
         <v>39</v>
       </c>
@@ -5030,9 +5074,10 @@
       <c r="BR38" s="19"/>
       <c r="BS38" s="19"/>
       <c r="BT38" s="19"/>
-      <c r="BU38" s="14"/>
+      <c r="BU38" s="19"/>
+      <c r="BV38" s="14"/>
     </row>
-    <row r="39" spans="1:73">
+    <row r="39" spans="1:74">
       <c r="A39" s="11" t="s">
         <v>45</v>
       </c>
@@ -5043,7 +5088,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5064,7 +5109,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
-      <c r="AD39" s="9"/>
+      <c r="AD39" s="4"/>
       <c r="AE39" s="9"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
@@ -5078,17 +5123,17 @@
       <c r="AO39" s="9"/>
       <c r="AP39" s="9"/>
       <c r="AQ39" s="9"/>
-      <c r="AR39" s="9" t="s">
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS39" s="9"/>
       <c r="AT39" s="9"/>
-      <c r="AU39" s="11"/>
+      <c r="AU39" s="9"/>
       <c r="AV39" s="11"/>
-      <c r="AW39" s="11" t="s">
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AX39" s="11"/>
       <c r="AY39" s="11"/>
       <c r="AZ39" s="11"/>
       <c r="BA39" s="11"/>
@@ -5096,7 +5141,7 @@
       <c r="BC39" s="11"/>
       <c r="BD39" s="11"/>
       <c r="BE39" s="11"/>
-      <c r="BF39" s="10"/>
+      <c r="BF39" s="11"/>
       <c r="BG39" s="10"/>
       <c r="BH39" s="10"/>
       <c r="BI39" s="10"/>
@@ -5112,8 +5157,9 @@
       <c r="BS39" s="10"/>
       <c r="BT39" s="10"/>
       <c r="BU39" s="10"/>
+      <c r="BV39" s="10"/>
     </row>
-    <row r="40" spans="1:73">
+    <row r="40" spans="1:74">
       <c r="A40" s="11" t="s">
         <v>85</v>
       </c>
@@ -5124,7 +5170,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5145,7 +5191,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-      <c r="AD40" s="9"/>
+      <c r="AD40" s="4"/>
       <c r="AE40" s="9"/>
       <c r="AF40" s="9"/>
       <c r="AG40" s="9"/>
@@ -5162,24 +5208,24 @@
       <c r="AR40" s="9"/>
       <c r="AS40" s="9"/>
       <c r="AT40" s="9"/>
-      <c r="AU40" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="AU40" s="9"/>
       <c r="AV40" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AW40" s="11"/>
-      <c r="AX40" s="11" t="s">
+      <c r="AW40" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AY40" s="11"/>
+      <c r="AX40" s="11"/>
+      <c r="AY40" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="AZ40" s="11"/>
       <c r="BA40" s="11"/>
       <c r="BB40" s="11"/>
       <c r="BC40" s="11"/>
       <c r="BD40" s="11"/>
       <c r="BE40" s="11"/>
-      <c r="BF40" s="10"/>
+      <c r="BF40" s="11"/>
       <c r="BG40" s="10"/>
       <c r="BH40" s="10"/>
       <c r="BI40" s="10"/>
@@ -5195,8 +5241,9 @@
       <c r="BS40" s="10"/>
       <c r="BT40" s="10"/>
       <c r="BU40" s="10"/>
+      <c r="BV40" s="10"/>
     </row>
-    <row r="41" spans="1:73">
+    <row r="41" spans="1:74">
       <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
@@ -5207,7 +5254,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -5228,7 +5275,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-      <c r="AD41" s="9"/>
+      <c r="AD41" s="4"/>
       <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
       <c r="AG41" s="9"/>
@@ -5245,20 +5292,20 @@
       <c r="AR41" s="9"/>
       <c r="AS41" s="9"/>
       <c r="AT41" s="9"/>
-      <c r="AU41" s="11"/>
+      <c r="AU41" s="9"/>
       <c r="AV41" s="11"/>
       <c r="AW41" s="11"/>
       <c r="AX41" s="11"/>
-      <c r="AY41" s="11" t="s">
+      <c r="AY41" s="11"/>
+      <c r="AZ41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AZ41" s="11"/>
       <c r="BA41" s="11"/>
       <c r="BB41" s="11"/>
       <c r="BC41" s="11"/>
       <c r="BD41" s="11"/>
       <c r="BE41" s="11"/>
-      <c r="BF41" s="10"/>
+      <c r="BF41" s="11"/>
       <c r="BG41" s="10"/>
       <c r="BH41" s="10"/>
       <c r="BI41" s="10"/>
@@ -5274,8 +5321,9 @@
       <c r="BS41" s="10"/>
       <c r="BT41" s="10"/>
       <c r="BU41" s="10"/>
+      <c r="BV41" s="10"/>
     </row>
-    <row r="42" spans="1:73">
+    <row r="42" spans="1:74">
       <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
@@ -5286,7 +5334,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5307,7 +5355,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-      <c r="AD42" s="9"/>
+      <c r="AD42" s="4"/>
       <c r="AE42" s="9"/>
       <c r="AF42" s="9"/>
       <c r="AG42" s="9"/>
@@ -5324,20 +5372,20 @@
       <c r="AR42" s="9"/>
       <c r="AS42" s="9"/>
       <c r="AT42" s="9"/>
-      <c r="AU42" s="11"/>
+      <c r="AU42" s="9"/>
       <c r="AV42" s="11"/>
       <c r="AW42" s="11"/>
       <c r="AX42" s="11"/>
       <c r="AY42" s="11"/>
-      <c r="AZ42" s="11" t="s">
+      <c r="AZ42" s="11"/>
+      <c r="BA42" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="BA42" s="11"/>
       <c r="BB42" s="11"/>
       <c r="BC42" s="11"/>
       <c r="BD42" s="11"/>
       <c r="BE42" s="11"/>
-      <c r="BF42" s="10"/>
+      <c r="BF42" s="11"/>
       <c r="BG42" s="10"/>
       <c r="BH42" s="10"/>
       <c r="BI42" s="10"/>
@@ -5353,8 +5401,9 @@
       <c r="BS42" s="10"/>
       <c r="BT42" s="10"/>
       <c r="BU42" s="10"/>
+      <c r="BV42" s="10"/>
     </row>
-    <row r="43" spans="1:73">
+    <row r="43" spans="1:74">
       <c r="A43" s="11" t="s">
         <v>88</v>
       </c>
@@ -5365,7 +5414,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5386,7 +5435,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
-      <c r="AD43" s="9"/>
+      <c r="AD43" s="4"/>
       <c r="AE43" s="9"/>
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
@@ -5403,7 +5452,7 @@
       <c r="AR43" s="9"/>
       <c r="AS43" s="9"/>
       <c r="AT43" s="9"/>
-      <c r="AU43" s="11"/>
+      <c r="AU43" s="9"/>
       <c r="AV43" s="11"/>
       <c r="AW43" s="11"/>
       <c r="AX43" s="11"/>
@@ -5413,10 +5462,10 @@
       <c r="BB43" s="11"/>
       <c r="BC43" s="11"/>
       <c r="BD43" s="11"/>
-      <c r="BE43" s="11" t="s">
+      <c r="BE43" s="11"/>
+      <c r="BF43" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BF43" s="10"/>
       <c r="BG43" s="10"/>
       <c r="BH43" s="10"/>
       <c r="BI43" s="10"/>
@@ -5432,8 +5481,9 @@
       <c r="BS43" s="10"/>
       <c r="BT43" s="10"/>
       <c r="BU43" s="10"/>
+      <c r="BV43" s="10"/>
     </row>
-    <row r="44" spans="1:73">
+    <row r="44" spans="1:74">
       <c r="A44" s="11" t="s">
         <v>89</v>
       </c>
@@ -5444,7 +5494,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -5465,7 +5515,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
-      <c r="AD44" s="9"/>
+      <c r="AD44" s="4"/>
       <c r="AE44" s="9"/>
       <c r="AF44" s="9"/>
       <c r="AG44" s="9"/>
@@ -5482,7 +5532,7 @@
       <c r="AR44" s="9"/>
       <c r="AS44" s="9"/>
       <c r="AT44" s="9"/>
-      <c r="AU44" s="11"/>
+      <c r="AU44" s="9"/>
       <c r="AV44" s="11"/>
       <c r="AW44" s="11"/>
       <c r="AX44" s="11"/>
@@ -5491,11 +5541,11 @@
       <c r="BA44" s="11"/>
       <c r="BB44" s="11"/>
       <c r="BC44" s="11"/>
-      <c r="BD44" s="11" t="s">
+      <c r="BD44" s="11"/>
+      <c r="BE44" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BE44" s="11"/>
-      <c r="BF44" s="10"/>
+      <c r="BF44" s="11"/>
       <c r="BG44" s="10"/>
       <c r="BH44" s="10"/>
       <c r="BI44" s="10"/>
@@ -5511,8 +5561,9 @@
       <c r="BS44" s="10"/>
       <c r="BT44" s="10"/>
       <c r="BU44" s="10"/>
+      <c r="BV44" s="10"/>
     </row>
-    <row r="45" spans="1:73">
+    <row r="45" spans="1:74">
       <c r="A45" s="11" t="s">
         <v>90</v>
       </c>
@@ -5523,7 +5574,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
+      <c r="I45" s="3"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -5544,7 +5595,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
-      <c r="AD45" s="9"/>
+      <c r="AD45" s="4"/>
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
       <c r="AG45" s="9"/>
@@ -5561,7 +5612,7 @@
       <c r="AR45" s="9"/>
       <c r="AS45" s="9"/>
       <c r="AT45" s="9"/>
-      <c r="AU45" s="11"/>
+      <c r="AU45" s="9"/>
       <c r="AV45" s="11"/>
       <c r="AW45" s="11"/>
       <c r="AX45" s="11"/>
@@ -5569,12 +5620,12 @@
       <c r="AZ45" s="11"/>
       <c r="BA45" s="11"/>
       <c r="BB45" s="11"/>
-      <c r="BC45" s="11" t="s">
+      <c r="BC45" s="11"/>
+      <c r="BD45" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BD45" s="11"/>
       <c r="BE45" s="11"/>
-      <c r="BF45" s="10"/>
+      <c r="BF45" s="11"/>
       <c r="BG45" s="10"/>
       <c r="BH45" s="10"/>
       <c r="BI45" s="10"/>
@@ -5590,8 +5641,9 @@
       <c r="BS45" s="10"/>
       <c r="BT45" s="10"/>
       <c r="BU45" s="10"/>
+      <c r="BV45" s="10"/>
     </row>
-    <row r="46" spans="1:73">
+    <row r="46" spans="1:74">
       <c r="A46" s="11" t="s">
         <v>91</v>
       </c>
@@ -5602,7 +5654,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -5623,7 +5675,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
-      <c r="AD46" s="9"/>
+      <c r="AD46" s="4"/>
       <c r="AE46" s="9"/>
       <c r="AF46" s="9"/>
       <c r="AG46" s="9"/>
@@ -5640,20 +5692,20 @@
       <c r="AR46" s="9"/>
       <c r="AS46" s="9"/>
       <c r="AT46" s="9"/>
-      <c r="AU46" s="11"/>
+      <c r="AU46" s="9"/>
       <c r="AV46" s="11"/>
       <c r="AW46" s="11"/>
       <c r="AX46" s="11"/>
       <c r="AY46" s="11"/>
       <c r="AZ46" s="11"/>
       <c r="BA46" s="11"/>
-      <c r="BB46" s="11" t="s">
+      <c r="BB46" s="11"/>
+      <c r="BC46" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BC46" s="11"/>
       <c r="BD46" s="11"/>
       <c r="BE46" s="11"/>
-      <c r="BF46" s="10"/>
+      <c r="BF46" s="11"/>
       <c r="BG46" s="10"/>
       <c r="BH46" s="10"/>
       <c r="BI46" s="10"/>
@@ -5669,14 +5721,15 @@
       <c r="BS46" s="10"/>
       <c r="BT46" s="10"/>
       <c r="BU46" s="10"/>
+      <c r="BV46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:BT2"/>
-    <mergeCell ref="A38:BT38"/>
-    <mergeCell ref="A31:BT31"/>
-    <mergeCell ref="A17:BT17"/>
-    <mergeCell ref="A6:BT6"/>
+    <mergeCell ref="A2:BU2"/>
+    <mergeCell ref="A38:BU38"/>
+    <mergeCell ref="A31:BU31"/>
+    <mergeCell ref="A17:BU17"/>
+    <mergeCell ref="A6:BU6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
+++ b/Documentos/Resort solutions - Matriz de trazabilidad.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8445"/>
@@ -977,7 +977,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
   <si>
     <t>A1</t>
   </si>
@@ -1340,13 +1340,16 @@
   </si>
   <si>
     <t>A7</t>
+  </si>
+  <si>
+    <t>C18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1422,7 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,6 +1512,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1525,30 +1536,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1622,7 +1620,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1657,7 +1654,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1833,25 +1829,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BW46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <pane xSplit="1590" ySplit="600" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1:AD1048576"/>
+      <pane xSplit="1590" ySplit="600" topLeftCell="K7" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="AV28" sqref="AV1:AV65536"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7:A16"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="58" width="4.7109375" customWidth="1"/>
-    <col min="59" max="74" width="4.7109375" style="1" customWidth="1"/>
-    <col min="75" max="78" width="4.7109375" customWidth="1"/>
+    <col min="2" max="59" width="4.7109375" customWidth="1"/>
+    <col min="60" max="75" width="4.7109375" style="1" customWidth="1"/>
+    <col min="76" max="79" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>111</v>
       </c>
@@ -1879,67 +1875,67 @@
       <c r="I1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AD1" s="13" t="s">
         <v>28</v>
       </c>
       <c r="AE1" s="6" t="s">
@@ -1993,167 +1989,171 @@
       <c r="AU1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BE1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BG1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BN1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BR1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BS1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BT1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BU1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:75">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="15"/>
-      <c r="BV2" s="10"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="10"/>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2167,27 +2167,27 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
@@ -2205,7 +2205,7 @@
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
       <c r="AU3" s="6"/>
-      <c r="AV3" s="9"/>
+      <c r="AV3" s="6"/>
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9"/>
@@ -2216,7 +2216,7 @@
       <c r="BD3" s="9"/>
       <c r="BE3" s="9"/>
       <c r="BF3" s="9"/>
-      <c r="BG3" s="7"/>
+      <c r="BG3" s="9"/>
       <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
@@ -2232,8 +2232,9 @@
       <c r="BT3" s="7"/>
       <c r="BU3" s="7"/>
       <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2245,27 +2246,27 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
@@ -2283,7 +2284,7 @@
       <c r="AS4" s="6"/>
       <c r="AT4" s="6"/>
       <c r="AU4" s="6"/>
-      <c r="AV4" s="9"/>
+      <c r="AV4" s="6"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
@@ -2294,7 +2295,7 @@
       <c r="BD4" s="9"/>
       <c r="BE4" s="9"/>
       <c r="BF4" s="9"/>
-      <c r="BG4" s="7"/>
+      <c r="BG4" s="9"/>
       <c r="BH4" s="7"/>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7"/>
@@ -2310,8 +2311,9 @@
       <c r="BT4" s="7"/>
       <c r="BU4" s="7"/>
       <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75">
       <c r="A5" s="5" t="s">
         <v>114</v>
       </c>
@@ -2327,27 +2329,27 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
@@ -2365,7 +2367,7 @@
       <c r="AS5" s="6"/>
       <c r="AT5" s="6"/>
       <c r="AU5" s="6"/>
-      <c r="AV5" s="9"/>
+      <c r="AV5" s="6"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9"/>
@@ -2376,7 +2378,7 @@
       <c r="BD5" s="9"/>
       <c r="BE5" s="9"/>
       <c r="BF5" s="9"/>
-      <c r="BG5" s="7"/>
+      <c r="BG5" s="9"/>
       <c r="BH5" s="7"/>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7"/>
@@ -2392,87 +2394,89 @@
       <c r="BT5" s="7"/>
       <c r="BU5" s="7"/>
       <c r="BV5" s="7"/>
+      <c r="BW5" s="7"/>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:75">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="22"/>
-      <c r="BV6" s="11"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="25"/>
+      <c r="BA6" s="25"/>
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="25"/>
+      <c r="BD6" s="25"/>
+      <c r="BE6" s="25"/>
+      <c r="BF6" s="25"/>
+      <c r="BG6" s="25"/>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="25"/>
+      <c r="BJ6" s="25"/>
+      <c r="BK6" s="25"/>
+      <c r="BL6" s="25"/>
+      <c r="BM6" s="25"/>
+      <c r="BN6" s="25"/>
+      <c r="BO6" s="25"/>
+      <c r="BP6" s="25"/>
+      <c r="BQ6" s="25"/>
+      <c r="BR6" s="25"/>
+      <c r="BS6" s="25"/>
+      <c r="BT6" s="25"/>
+      <c r="BU6" s="25"/>
+      <c r="BV6" s="26"/>
+      <c r="BW6" s="11"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:75">
+      <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="3"/>
@@ -2485,31 +2489,31 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
@@ -2527,7 +2531,7 @@
       <c r="AS7" s="6"/>
       <c r="AT7" s="6"/>
       <c r="AU7" s="6"/>
-      <c r="AV7" s="9"/>
+      <c r="AV7" s="6"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9"/>
@@ -2538,7 +2542,7 @@
       <c r="BD7" s="9"/>
       <c r="BE7" s="9"/>
       <c r="BF7" s="9"/>
-      <c r="BG7" s="7"/>
+      <c r="BG7" s="9"/>
       <c r="BH7" s="7"/>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7"/>
@@ -2554,9 +2558,10 @@
       <c r="BT7" s="7"/>
       <c r="BU7" s="7"/>
       <c r="BV7" s="7"/>
+      <c r="BW7" s="7"/>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:75">
+      <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3"/>
@@ -2567,29 +2572,29 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
@@ -2607,7 +2612,7 @@
       <c r="AS8" s="6"/>
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
-      <c r="AV8" s="9"/>
+      <c r="AV8" s="6"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
       <c r="AY8" s="9"/>
@@ -2618,7 +2623,7 @@
       <c r="BD8" s="9"/>
       <c r="BE8" s="9"/>
       <c r="BF8" s="9"/>
-      <c r="BG8" s="7"/>
+      <c r="BG8" s="9"/>
       <c r="BH8" s="7"/>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="7"/>
@@ -2634,9 +2639,10 @@
       <c r="BT8" s="7"/>
       <c r="BU8" s="7"/>
       <c r="BV8" s="7"/>
+      <c r="BW8" s="7"/>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:75">
+      <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="3"/>
@@ -2647,29 +2653,29 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
@@ -2687,7 +2693,7 @@
       <c r="AS9" s="6"/>
       <c r="AT9" s="6"/>
       <c r="AU9" s="6"/>
-      <c r="AV9" s="9"/>
+      <c r="AV9" s="6"/>
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9"/>
@@ -2698,7 +2704,7 @@
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
-      <c r="BG9" s="7"/>
+      <c r="BG9" s="9"/>
       <c r="BH9" s="7"/>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="7"/>
@@ -2714,9 +2720,10 @@
       <c r="BT9" s="7"/>
       <c r="BU9" s="7"/>
       <c r="BV9" s="7"/>
+      <c r="BW9" s="7"/>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:75">
+      <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="3"/>
@@ -2727,37 +2734,37 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="25" t="s">
+      <c r="AB10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25" t="s">
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AE10" s="6"/>
@@ -2777,7 +2784,7 @@
       <c r="AS10" s="6"/>
       <c r="AT10" s="6"/>
       <c r="AU10" s="6"/>
-      <c r="AV10" s="9"/>
+      <c r="AV10" s="6"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
       <c r="AY10" s="9"/>
@@ -2788,7 +2795,7 @@
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
-      <c r="BG10" s="7"/>
+      <c r="BG10" s="9"/>
       <c r="BH10" s="7"/>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="7"/>
@@ -2804,9 +2811,10 @@
       <c r="BT10" s="7"/>
       <c r="BU10" s="7"/>
       <c r="BV10" s="7"/>
+      <c r="BW10" s="7"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:75">
+      <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="3"/>
@@ -2817,33 +2825,33 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25" t="s">
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25" t="s">
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AD11" s="25"/>
+      <c r="AD11" s="15"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
@@ -2861,7 +2869,7 @@
       <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
       <c r="AU11" s="6"/>
-      <c r="AV11" s="9"/>
+      <c r="AV11" s="6"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
       <c r="AY11" s="9"/>
@@ -2872,7 +2880,7 @@
       <c r="BD11" s="9"/>
       <c r="BE11" s="9"/>
       <c r="BF11" s="9"/>
-      <c r="BG11" s="7"/>
+      <c r="BG11" s="9"/>
       <c r="BH11" s="7"/>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="7"/>
@@ -2888,9 +2896,10 @@
       <c r="BT11" s="7"/>
       <c r="BU11" s="7"/>
       <c r="BV11" s="7"/>
+      <c r="BW11" s="7"/>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:75">
+      <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="3"/>
@@ -2901,29 +2910,29 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
@@ -2941,7 +2950,7 @@
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
-      <c r="AV12" s="9"/>
+      <c r="AV12" s="6"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
       <c r="AY12" s="9"/>
@@ -2952,7 +2961,7 @@
       <c r="BD12" s="9"/>
       <c r="BE12" s="9"/>
       <c r="BF12" s="9"/>
-      <c r="BG12" s="7"/>
+      <c r="BG12" s="9"/>
       <c r="BH12" s="7"/>
       <c r="BI12" s="7"/>
       <c r="BJ12" s="7"/>
@@ -2968,9 +2977,10 @@
       <c r="BT12" s="7"/>
       <c r="BU12" s="7"/>
       <c r="BV12" s="7"/>
+      <c r="BW12" s="7"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:75">
+      <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="3"/>
@@ -2981,29 +2991,29 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
@@ -3020,10 +3030,8 @@
       <c r="AR13" s="6"/>
       <c r="AS13" s="6"/>
       <c r="AT13" s="6"/>
-      <c r="AU13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV13" s="9"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
       <c r="AY13" s="9"/>
@@ -3034,7 +3042,7 @@
       <c r="BD13" s="9"/>
       <c r="BE13" s="9"/>
       <c r="BF13" s="9"/>
-      <c r="BG13" s="7"/>
+      <c r="BG13" s="9"/>
       <c r="BH13" s="7"/>
       <c r="BI13" s="7"/>
       <c r="BJ13" s="7"/>
@@ -3050,9 +3058,10 @@
       <c r="BT13" s="7"/>
       <c r="BU13" s="7"/>
       <c r="BV13" s="7"/>
+      <c r="BW13" s="7"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:75">
+      <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="3"/>
@@ -3063,33 +3072,33 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25" t="s">
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
@@ -3107,7 +3116,7 @@
       <c r="AS14" s="6"/>
       <c r="AT14" s="6"/>
       <c r="AU14" s="6"/>
-      <c r="AV14" s="9"/>
+      <c r="AV14" s="6"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
       <c r="AY14" s="9"/>
@@ -3118,7 +3127,7 @@
       <c r="BD14" s="9"/>
       <c r="BE14" s="9"/>
       <c r="BF14" s="9"/>
-      <c r="BG14" s="7"/>
+      <c r="BG14" s="9"/>
       <c r="BH14" s="7"/>
       <c r="BI14" s="7"/>
       <c r="BJ14" s="7"/>
@@ -3134,9 +3143,10 @@
       <c r="BT14" s="7"/>
       <c r="BU14" s="7"/>
       <c r="BV14" s="7"/>
+      <c r="BW14" s="7"/>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:75">
+      <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="3"/>
@@ -3147,29 +3157,29 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
@@ -3189,7 +3199,7 @@
       <c r="AS15" s="6"/>
       <c r="AT15" s="6"/>
       <c r="AU15" s="6"/>
-      <c r="AV15" s="9"/>
+      <c r="AV15" s="6"/>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
@@ -3200,7 +3210,7 @@
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
       <c r="BF15" s="9"/>
-      <c r="BG15" s="7"/>
+      <c r="BG15" s="9"/>
       <c r="BH15" s="7"/>
       <c r="BI15" s="7"/>
       <c r="BJ15" s="7"/>
@@ -3216,9 +3226,10 @@
       <c r="BT15" s="7"/>
       <c r="BU15" s="7"/>
       <c r="BV15" s="7"/>
+      <c r="BW15" s="7"/>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:75">
+      <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="3"/>
@@ -3229,29 +3240,29 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
@@ -3269,7 +3280,7 @@
       <c r="AS16" s="6"/>
       <c r="AT16" s="6"/>
       <c r="AU16" s="6"/>
-      <c r="AV16" s="9"/>
+      <c r="AV16" s="6"/>
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
       <c r="AY16" s="9"/>
@@ -3280,7 +3291,7 @@
       <c r="BD16" s="9"/>
       <c r="BE16" s="9"/>
       <c r="BF16" s="9"/>
-      <c r="BG16" s="7"/>
+      <c r="BG16" s="9"/>
       <c r="BH16" s="7"/>
       <c r="BI16" s="7"/>
       <c r="BJ16" s="7"/>
@@ -3296,86 +3307,88 @@
       <c r="BT16" s="7"/>
       <c r="BU16" s="7"/>
       <c r="BV16" s="7"/>
+      <c r="BW16" s="7"/>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:75">
+      <c r="A17" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
-      <c r="BK17" s="21"/>
-      <c r="BL17" s="21"/>
-      <c r="BM17" s="21"/>
-      <c r="BN17" s="21"/>
-      <c r="BO17" s="21"/>
-      <c r="BP17" s="21"/>
-      <c r="BQ17" s="21"/>
-      <c r="BR17" s="21"/>
-      <c r="BS17" s="21"/>
-      <c r="BT17" s="21"/>
-      <c r="BU17" s="22"/>
-      <c r="BV17" s="11"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="25"/>
+      <c r="BD17" s="25"/>
+      <c r="BE17" s="25"/>
+      <c r="BF17" s="25"/>
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="25"/>
+      <c r="BL17" s="25"/>
+      <c r="BM17" s="25"/>
+      <c r="BN17" s="25"/>
+      <c r="BO17" s="25"/>
+      <c r="BP17" s="25"/>
+      <c r="BQ17" s="25"/>
+      <c r="BR17" s="25"/>
+      <c r="BS17" s="25"/>
+      <c r="BT17" s="25"/>
+      <c r="BU17" s="25"/>
+      <c r="BV17" s="26"/>
+      <c r="BW17" s="11"/>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -3387,27 +3400,27 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
@@ -3427,7 +3440,7 @@
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="6"/>
-      <c r="AV18" s="8"/>
+      <c r="AV18" s="6"/>
       <c r="AW18" s="8"/>
       <c r="AX18" s="8"/>
       <c r="AY18" s="8"/>
@@ -3438,7 +3451,7 @@
       <c r="BD18" s="8"/>
       <c r="BE18" s="8"/>
       <c r="BF18" s="8"/>
-      <c r="BG18" s="7"/>
+      <c r="BG18" s="8"/>
       <c r="BH18" s="7"/>
       <c r="BI18" s="7"/>
       <c r="BJ18" s="7"/>
@@ -3454,8 +3467,9 @@
       <c r="BT18" s="7"/>
       <c r="BU18" s="7"/>
       <c r="BV18" s="7"/>
+      <c r="BW18" s="7"/>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -3467,27 +3481,27 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
@@ -3509,7 +3523,7 @@
       <c r="AS19" s="6"/>
       <c r="AT19" s="6"/>
       <c r="AU19" s="6"/>
-      <c r="AV19" s="8"/>
+      <c r="AV19" s="6"/>
       <c r="AW19" s="8"/>
       <c r="AX19" s="8"/>
       <c r="AY19" s="8"/>
@@ -3520,7 +3534,7 @@
       <c r="BD19" s="8"/>
       <c r="BE19" s="8"/>
       <c r="BF19" s="8"/>
-      <c r="BG19" s="7"/>
+      <c r="BG19" s="8"/>
       <c r="BH19" s="7"/>
       <c r="BI19" s="7"/>
       <c r="BJ19" s="7"/>
@@ -3536,8 +3550,9 @@
       <c r="BT19" s="7"/>
       <c r="BU19" s="7"/>
       <c r="BV19" s="7"/>
+      <c r="BW19" s="7"/>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -3549,27 +3564,27 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
@@ -3589,7 +3604,7 @@
       <c r="AS20" s="6"/>
       <c r="AT20" s="6"/>
       <c r="AU20" s="6"/>
-      <c r="AV20" s="8"/>
+      <c r="AV20" s="6"/>
       <c r="AW20" s="8"/>
       <c r="AX20" s="8"/>
       <c r="AY20" s="8"/>
@@ -3600,7 +3615,7 @@
       <c r="BD20" s="8"/>
       <c r="BE20" s="8"/>
       <c r="BF20" s="8"/>
-      <c r="BG20" s="7"/>
+      <c r="BG20" s="8"/>
       <c r="BH20" s="7"/>
       <c r="BI20" s="7"/>
       <c r="BJ20" s="7"/>
@@ -3616,8 +3631,9 @@
       <c r="BT20" s="7"/>
       <c r="BU20" s="7"/>
       <c r="BV20" s="7"/>
+      <c r="BW20" s="7"/>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -3629,27 +3645,27 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
@@ -3669,7 +3685,7 @@
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
       <c r="AU21" s="6"/>
-      <c r="AV21" s="8"/>
+      <c r="AV21" s="6"/>
       <c r="AW21" s="8"/>
       <c r="AX21" s="8"/>
       <c r="AY21" s="8"/>
@@ -3680,7 +3696,7 @@
       <c r="BD21" s="8"/>
       <c r="BE21" s="8"/>
       <c r="BF21" s="8"/>
-      <c r="BG21" s="7"/>
+      <c r="BG21" s="8"/>
       <c r="BH21" s="7"/>
       <c r="BI21" s="7"/>
       <c r="BJ21" s="7"/>
@@ -3696,8 +3712,9 @@
       <c r="BT21" s="7"/>
       <c r="BU21" s="7"/>
       <c r="BV21" s="7"/>
+      <c r="BW21" s="7"/>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75">
       <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
@@ -3709,27 +3726,27 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
@@ -3749,7 +3766,7 @@
       <c r="AS22" s="6"/>
       <c r="AT22" s="6"/>
       <c r="AU22" s="6"/>
-      <c r="AV22" s="8"/>
+      <c r="AV22" s="6"/>
       <c r="AW22" s="8"/>
       <c r="AX22" s="8"/>
       <c r="AY22" s="8"/>
@@ -3760,7 +3777,7 @@
       <c r="BD22" s="8"/>
       <c r="BE22" s="8"/>
       <c r="BF22" s="8"/>
-      <c r="BG22" s="7"/>
+      <c r="BG22" s="8"/>
       <c r="BH22" s="7"/>
       <c r="BI22" s="7"/>
       <c r="BJ22" s="7"/>
@@ -3776,8 +3793,9 @@
       <c r="BT22" s="7"/>
       <c r="BU22" s="7"/>
       <c r="BV22" s="7"/>
+      <c r="BW22" s="7"/>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75">
       <c r="A23" s="6" t="s">
         <v>112</v>
       </c>
@@ -3789,27 +3807,27 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="6"/>
@@ -3829,7 +3847,7 @@
       <c r="AS23" s="6"/>
       <c r="AT23" s="6"/>
       <c r="AU23" s="6"/>
-      <c r="AV23" s="8"/>
+      <c r="AV23" s="6"/>
       <c r="AW23" s="8"/>
       <c r="AX23" s="8"/>
       <c r="AY23" s="8"/>
@@ -3840,7 +3858,7 @@
       <c r="BD23" s="8"/>
       <c r="BE23" s="8"/>
       <c r="BF23" s="8"/>
-      <c r="BG23" s="7"/>
+      <c r="BG23" s="8"/>
       <c r="BH23" s="7"/>
       <c r="BI23" s="7"/>
       <c r="BJ23" s="7"/>
@@ -3856,8 +3874,9 @@
       <c r="BT23" s="7"/>
       <c r="BU23" s="7"/>
       <c r="BV23" s="7"/>
+      <c r="BW23" s="7"/>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75">
       <c r="A24" s="6" t="s">
         <v>113</v>
       </c>
@@ -3869,27 +3888,27 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="6"/>
@@ -3906,8 +3925,10 @@
       <c r="AR24" s="6"/>
       <c r="AS24" s="6"/>
       <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="8"/>
+      <c r="AU24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" s="6"/>
       <c r="AW24" s="8"/>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8"/>
@@ -3918,7 +3939,7 @@
       <c r="BD24" s="8"/>
       <c r="BE24" s="8"/>
       <c r="BF24" s="8"/>
-      <c r="BG24" s="7"/>
+      <c r="BG24" s="8"/>
       <c r="BH24" s="7"/>
       <c r="BI24" s="7"/>
       <c r="BJ24" s="7"/>
@@ -3934,8 +3955,9 @@
       <c r="BT24" s="7"/>
       <c r="BU24" s="7"/>
       <c r="BV24" s="7"/>
+      <c r="BW24" s="7"/>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75">
       <c r="A25" s="6" t="s">
         <v>46</v>
       </c>
@@ -3947,27 +3969,27 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
@@ -3985,7 +4007,9 @@
       <c r="AS25" s="6"/>
       <c r="AT25" s="6"/>
       <c r="AU25" s="6"/>
-      <c r="AV25" s="8"/>
+      <c r="AV25" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="AW25" s="8"/>
       <c r="AX25" s="8"/>
       <c r="AY25" s="8"/>
@@ -3996,7 +4020,7 @@
       <c r="BD25" s="8"/>
       <c r="BE25" s="8"/>
       <c r="BF25" s="8"/>
-      <c r="BG25" s="7"/>
+      <c r="BG25" s="8"/>
       <c r="BH25" s="7"/>
       <c r="BI25" s="7"/>
       <c r="BJ25" s="7"/>
@@ -4012,8 +4036,9 @@
       <c r="BT25" s="7"/>
       <c r="BU25" s="7"/>
       <c r="BV25" s="7"/>
+      <c r="BW25" s="7"/>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75">
       <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
@@ -4025,29 +4050,29 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23" t="s">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
       <c r="AE26" s="6" t="s">
         <v>5</v>
       </c>
@@ -4067,20 +4092,20 @@
       <c r="AS26" s="6"/>
       <c r="AT26" s="6"/>
       <c r="AU26" s="6"/>
-      <c r="AV26" s="8"/>
+      <c r="AV26" s="6"/>
       <c r="AW26" s="8"/>
       <c r="AX26" s="8"/>
       <c r="AY26" s="8"/>
       <c r="AZ26" s="8"/>
       <c r="BA26" s="8"/>
-      <c r="BB26" s="8" t="s">
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BC26" s="8"/>
       <c r="BD26" s="8"/>
       <c r="BE26" s="8"/>
       <c r="BF26" s="8"/>
-      <c r="BG26" s="7"/>
+      <c r="BG26" s="8"/>
       <c r="BH26" s="7"/>
       <c r="BI26" s="7"/>
       <c r="BJ26" s="7"/>
@@ -4096,8 +4121,9 @@
       <c r="BT26" s="7"/>
       <c r="BU26" s="7"/>
       <c r="BV26" s="7"/>
+      <c r="BW26" s="7"/>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75">
       <c r="A27" s="6" t="s">
         <v>48</v>
       </c>
@@ -4109,27 +4135,27 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
@@ -4147,7 +4173,7 @@
       <c r="AS27" s="6"/>
       <c r="AT27" s="6"/>
       <c r="AU27" s="6"/>
-      <c r="AV27" s="8"/>
+      <c r="AV27" s="6"/>
       <c r="AW27" s="8"/>
       <c r="AX27" s="8"/>
       <c r="AY27" s="8"/>
@@ -4158,7 +4184,7 @@
       <c r="BD27" s="8"/>
       <c r="BE27" s="8"/>
       <c r="BF27" s="8"/>
-      <c r="BG27" s="7"/>
+      <c r="BG27" s="8"/>
       <c r="BH27" s="7"/>
       <c r="BI27" s="7"/>
       <c r="BJ27" s="7"/>
@@ -4174,8 +4200,9 @@
       <c r="BT27" s="7"/>
       <c r="BU27" s="7"/>
       <c r="BV27" s="7"/>
+      <c r="BW27" s="7"/>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75">
       <c r="A28" s="6" t="s">
         <v>49</v>
       </c>
@@ -4187,27 +4214,27 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
       <c r="AG28" s="6" t="s">
@@ -4229,7 +4256,7 @@
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
-      <c r="AV28" s="8"/>
+      <c r="AV28" s="6"/>
       <c r="AW28" s="8"/>
       <c r="AX28" s="8"/>
       <c r="AY28" s="8"/>
@@ -4240,7 +4267,7 @@
       <c r="BD28" s="8"/>
       <c r="BE28" s="8"/>
       <c r="BF28" s="8"/>
-      <c r="BG28" s="7"/>
+      <c r="BG28" s="8"/>
       <c r="BH28" s="7"/>
       <c r="BI28" s="7"/>
       <c r="BJ28" s="7"/>
@@ -4256,8 +4283,9 @@
       <c r="BT28" s="7"/>
       <c r="BU28" s="7"/>
       <c r="BV28" s="7"/>
+      <c r="BW28" s="7"/>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -4269,27 +4297,27 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6" t="s">
         <v>56</v>
@@ -4309,7 +4337,7 @@
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
-      <c r="AV29" s="8"/>
+      <c r="AV29" s="6"/>
       <c r="AW29" s="8"/>
       <c r="AX29" s="8"/>
       <c r="AY29" s="8"/>
@@ -4320,7 +4348,7 @@
       <c r="BD29" s="8"/>
       <c r="BE29" s="8"/>
       <c r="BF29" s="8"/>
-      <c r="BG29" s="7"/>
+      <c r="BG29" s="8"/>
       <c r="BH29" s="7"/>
       <c r="BI29" s="7"/>
       <c r="BJ29" s="7"/>
@@ -4336,8 +4364,9 @@
       <c r="BT29" s="7"/>
       <c r="BU29" s="7"/>
       <c r="BV29" s="7"/>
+      <c r="BW29" s="7"/>
     </row>
-    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75">
       <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
@@ -4349,27 +4378,27 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="23"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
       <c r="AE30" s="6"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
@@ -4387,7 +4416,7 @@
       <c r="AS30" s="6"/>
       <c r="AT30" s="6"/>
       <c r="AU30" s="6"/>
-      <c r="AV30" s="8"/>
+      <c r="AV30" s="6"/>
       <c r="AW30" s="8"/>
       <c r="AX30" s="8"/>
       <c r="AY30" s="8"/>
@@ -4398,7 +4427,7 @@
       <c r="BD30" s="8"/>
       <c r="BE30" s="8"/>
       <c r="BF30" s="8"/>
-      <c r="BG30" s="7"/>
+      <c r="BG30" s="8"/>
       <c r="BH30" s="7"/>
       <c r="BI30" s="7"/>
       <c r="BJ30" s="7"/>
@@ -4414,86 +4443,88 @@
       <c r="BT30" s="7"/>
       <c r="BU30" s="7"/>
       <c r="BV30" s="7"/>
+      <c r="BW30" s="7"/>
     </row>
-    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:75">
+      <c r="A31" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
-      <c r="AI31" s="18"/>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="18"/>
-      <c r="AL31" s="18"/>
-      <c r="AM31" s="18"/>
-      <c r="AN31" s="18"/>
-      <c r="AO31" s="18"/>
-      <c r="AP31" s="18"/>
-      <c r="AQ31" s="18"/>
-      <c r="AR31" s="18"/>
-      <c r="AS31" s="18"/>
-      <c r="AT31" s="18"/>
-      <c r="AU31" s="18"/>
-      <c r="AV31" s="18"/>
-      <c r="AW31" s="18"/>
-      <c r="AX31" s="18"/>
-      <c r="AY31" s="18"/>
-      <c r="AZ31" s="18"/>
-      <c r="BA31" s="18"/>
-      <c r="BB31" s="18"/>
-      <c r="BC31" s="18"/>
-      <c r="BD31" s="18"/>
-      <c r="BE31" s="18"/>
-      <c r="BF31" s="18"/>
-      <c r="BG31" s="18"/>
-      <c r="BH31" s="18"/>
-      <c r="BI31" s="18"/>
-      <c r="BJ31" s="18"/>
-      <c r="BK31" s="18"/>
-      <c r="BL31" s="18"/>
-      <c r="BM31" s="18"/>
-      <c r="BN31" s="18"/>
-      <c r="BO31" s="18"/>
-      <c r="BP31" s="18"/>
-      <c r="BQ31" s="18"/>
-      <c r="BR31" s="18"/>
-      <c r="BS31" s="18"/>
-      <c r="BT31" s="18"/>
-      <c r="BU31" s="19"/>
-      <c r="BV31" s="12"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
+      <c r="AQ31" s="22"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="22"/>
+      <c r="BD31" s="22"/>
+      <c r="BE31" s="22"/>
+      <c r="BF31" s="22"/>
+      <c r="BG31" s="22"/>
+      <c r="BH31" s="22"/>
+      <c r="BI31" s="22"/>
+      <c r="BJ31" s="22"/>
+      <c r="BK31" s="22"/>
+      <c r="BL31" s="22"/>
+      <c r="BM31" s="22"/>
+      <c r="BN31" s="22"/>
+      <c r="BO31" s="22"/>
+      <c r="BP31" s="22"/>
+      <c r="BQ31" s="22"/>
+      <c r="BR31" s="22"/>
+      <c r="BS31" s="22"/>
+      <c r="BT31" s="22"/>
+      <c r="BU31" s="22"/>
+      <c r="BV31" s="23"/>
+      <c r="BW31" s="12"/>
     </row>
-    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75">
       <c r="A32" s="7" t="s">
         <v>53</v>
       </c>
@@ -4509,29 +4540,29 @@
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="23" t="s">
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
       <c r="AE32" s="6" t="s">
         <v>5</v>
       </c>
@@ -4551,7 +4582,7 @@
       <c r="AS32" s="6"/>
       <c r="AT32" s="6"/>
       <c r="AU32" s="6"/>
-      <c r="AV32" s="9"/>
+      <c r="AV32" s="6"/>
       <c r="AW32" s="9"/>
       <c r="AX32" s="9"/>
       <c r="AY32" s="9"/>
@@ -4562,12 +4593,12 @@
       <c r="BD32" s="9"/>
       <c r="BE32" s="9"/>
       <c r="BF32" s="9"/>
-      <c r="BG32" s="7"/>
+      <c r="BG32" s="9"/>
       <c r="BH32" s="7"/>
-      <c r="BI32" s="7" t="s">
+      <c r="BI32" s="7"/>
+      <c r="BJ32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BJ32" s="7"/>
       <c r="BK32" s="7"/>
       <c r="BL32" s="7"/>
       <c r="BM32" s="7"/>
@@ -4578,12 +4609,13 @@
       <c r="BR32" s="7"/>
       <c r="BS32" s="7"/>
       <c r="BT32" s="7"/>
-      <c r="BU32" s="7" t="s">
+      <c r="BU32" s="7"/>
+      <c r="BV32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BV32" s="7"/>
+      <c r="BW32" s="7"/>
     </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:75">
       <c r="A33" s="7" t="s">
         <v>54</v>
       </c>
@@ -4597,27 +4629,27 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
       <c r="AE33" s="6"/>
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
@@ -4639,7 +4671,7 @@
       <c r="AS33" s="6"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
-      <c r="AV33" s="9"/>
+      <c r="AV33" s="6"/>
       <c r="AW33" s="9"/>
       <c r="AX33" s="9"/>
       <c r="AY33" s="9"/>
@@ -4650,36 +4682,37 @@
       <c r="BD33" s="9"/>
       <c r="BE33" s="9"/>
       <c r="BF33" s="9"/>
-      <c r="BG33" s="7" t="s">
+      <c r="BG33" s="9"/>
+      <c r="BH33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BH33" s="7"/>
       <c r="BI33" s="7"/>
-      <c r="BJ33" s="7" t="s">
+      <c r="BJ33" s="7"/>
+      <c r="BK33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BK33" s="7"/>
-      <c r="BL33" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="BL33" s="7"/>
       <c r="BM33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BN33" s="7"/>
+      <c r="BN33" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="BO33" s="7"/>
       <c r="BP33" s="7"/>
       <c r="BQ33" s="7"/>
-      <c r="BR33" s="7" t="s">
+      <c r="BR33" s="7"/>
+      <c r="BS33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BS33" s="7"/>
-      <c r="BT33" s="7" t="s">
+      <c r="BT33" s="7"/>
+      <c r="BU33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BU33" s="7"/>
       <c r="BV33" s="7"/>
+      <c r="BW33" s="7"/>
     </row>
-    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:75">
       <c r="A34" s="7" t="s">
         <v>55</v>
       </c>
@@ -4695,27 +4728,27 @@
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
       <c r="AE34" s="6"/>
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
@@ -4733,7 +4766,7 @@
       <c r="AS34" s="6"/>
       <c r="AT34" s="6"/>
       <c r="AU34" s="6"/>
-      <c r="AV34" s="9"/>
+      <c r="AV34" s="6"/>
       <c r="AW34" s="9"/>
       <c r="AX34" s="9"/>
       <c r="AY34" s="9"/>
@@ -4744,16 +4777,16 @@
       <c r="BD34" s="9"/>
       <c r="BE34" s="9"/>
       <c r="BF34" s="9"/>
-      <c r="BG34" s="7"/>
-      <c r="BH34" s="7" t="s">
+      <c r="BG34" s="9"/>
+      <c r="BH34" s="7"/>
+      <c r="BI34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BI34" s="7"/>
       <c r="BJ34" s="7"/>
-      <c r="BK34" s="7" t="s">
+      <c r="BK34" s="7"/>
+      <c r="BL34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BL34" s="7"/>
       <c r="BM34" s="7"/>
       <c r="BN34" s="7"/>
       <c r="BO34" s="7"/>
@@ -4764,8 +4797,9 @@
       <c r="BT34" s="7"/>
       <c r="BU34" s="7"/>
       <c r="BV34" s="7"/>
+      <c r="BW34" s="7"/>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:75">
       <c r="A35" s="7" t="s">
         <v>108</v>
       </c>
@@ -4779,27 +4813,27 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="24"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
@@ -4817,7 +4851,7 @@
       <c r="AS35" s="6"/>
       <c r="AT35" s="6"/>
       <c r="AU35" s="6"/>
-      <c r="AV35" s="9"/>
+      <c r="AV35" s="6"/>
       <c r="AW35" s="9"/>
       <c r="AX35" s="9"/>
       <c r="AY35" s="9"/>
@@ -4828,30 +4862,31 @@
       <c r="BD35" s="9"/>
       <c r="BE35" s="9"/>
       <c r="BF35" s="9"/>
-      <c r="BG35" s="7"/>
+      <c r="BG35" s="9"/>
       <c r="BH35" s="7"/>
       <c r="BI35" s="7"/>
       <c r="BJ35" s="7"/>
       <c r="BK35" s="7"/>
       <c r="BL35" s="7"/>
       <c r="BM35" s="7"/>
-      <c r="BN35" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="BN35" s="7"/>
       <c r="BO35" s="7" t="s">
         <v>56</v>
       </c>
       <c r="BP35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BQ35" s="7"/>
+      <c r="BQ35" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="BR35" s="7"/>
       <c r="BS35" s="7"/>
       <c r="BT35" s="7"/>
       <c r="BU35" s="7"/>
       <c r="BV35" s="7"/>
+      <c r="BW35" s="7"/>
     </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:75">
       <c r="A36" s="7" t="s">
         <v>109</v>
       </c>
@@ -4863,27 +4898,27 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
       <c r="AE36" s="6"/>
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
@@ -4901,7 +4936,7 @@
       <c r="AS36" s="6"/>
       <c r="AT36" s="6"/>
       <c r="AU36" s="6"/>
-      <c r="AV36" s="9"/>
+      <c r="AV36" s="6"/>
       <c r="AW36" s="9"/>
       <c r="AX36" s="9"/>
       <c r="AY36" s="9"/>
@@ -4912,7 +4947,7 @@
       <c r="BD36" s="9"/>
       <c r="BE36" s="9"/>
       <c r="BF36" s="9"/>
-      <c r="BG36" s="7"/>
+      <c r="BG36" s="9"/>
       <c r="BH36" s="7"/>
       <c r="BI36" s="7"/>
       <c r="BJ36" s="7"/>
@@ -4922,16 +4957,17 @@
       <c r="BN36" s="7"/>
       <c r="BO36" s="7"/>
       <c r="BP36" s="7"/>
-      <c r="BQ36" s="7" t="s">
+      <c r="BQ36" s="7"/>
+      <c r="BR36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BR36" s="7"/>
       <c r="BS36" s="7"/>
       <c r="BT36" s="7"/>
       <c r="BU36" s="7"/>
       <c r="BV36" s="7"/>
+      <c r="BW36" s="7"/>
     </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:75">
       <c r="A37" s="7" t="s">
         <v>110</v>
       </c>
@@ -4943,27 +4979,27 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
       <c r="AE37" s="6"/>
       <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
@@ -4981,7 +5017,7 @@
       <c r="AS37" s="6"/>
       <c r="AT37" s="6"/>
       <c r="AU37" s="6"/>
-      <c r="AV37" s="9"/>
+      <c r="AV37" s="6"/>
       <c r="AW37" s="9"/>
       <c r="AX37" s="9"/>
       <c r="AY37" s="9"/>
@@ -4992,7 +5028,7 @@
       <c r="BD37" s="9"/>
       <c r="BE37" s="9"/>
       <c r="BF37" s="9"/>
-      <c r="BG37" s="7"/>
+      <c r="BG37" s="9"/>
       <c r="BH37" s="7"/>
       <c r="BI37" s="7"/>
       <c r="BJ37" s="7"/>
@@ -5004,92 +5040,94 @@
       <c r="BP37" s="7"/>
       <c r="BQ37" s="7"/>
       <c r="BR37" s="7"/>
-      <c r="BS37" s="7" t="s">
+      <c r="BS37" s="7"/>
+      <c r="BT37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BT37" s="7"/>
       <c r="BU37" s="7"/>
       <c r="BV37" s="7"/>
+      <c r="BW37" s="7"/>
     </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:75">
+      <c r="A38" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="16"/>
-      <c r="AM38" s="16"/>
-      <c r="AN38" s="16"/>
-      <c r="AO38" s="16"/>
-      <c r="AP38" s="16"/>
-      <c r="AQ38" s="16"/>
-      <c r="AR38" s="16"/>
-      <c r="AS38" s="16"/>
-      <c r="AT38" s="16"/>
-      <c r="AU38" s="16"/>
-      <c r="AV38" s="16"/>
-      <c r="AW38" s="16"/>
-      <c r="AX38" s="16"/>
-      <c r="AY38" s="16"/>
-      <c r="AZ38" s="16"/>
-      <c r="BA38" s="16"/>
-      <c r="BB38" s="16"/>
-      <c r="BC38" s="16"/>
-      <c r="BD38" s="16"/>
-      <c r="BE38" s="16"/>
-      <c r="BF38" s="16"/>
-      <c r="BG38" s="16"/>
-      <c r="BH38" s="16"/>
-      <c r="BI38" s="16"/>
-      <c r="BJ38" s="16"/>
-      <c r="BK38" s="16"/>
-      <c r="BL38" s="16"/>
-      <c r="BM38" s="16"/>
-      <c r="BN38" s="16"/>
-      <c r="BO38" s="16"/>
-      <c r="BP38" s="16"/>
-      <c r="BQ38" s="16"/>
-      <c r="BR38" s="16"/>
-      <c r="BS38" s="16"/>
-      <c r="BT38" s="16"/>
-      <c r="BU38" s="16"/>
-      <c r="BV38" s="11"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AQ38" s="20"/>
+      <c r="AR38" s="20"/>
+      <c r="AS38" s="20"/>
+      <c r="AT38" s="20"/>
+      <c r="AU38" s="20"/>
+      <c r="AV38" s="20"/>
+      <c r="AW38" s="20"/>
+      <c r="AX38" s="20"/>
+      <c r="AY38" s="20"/>
+      <c r="AZ38" s="20"/>
+      <c r="BA38" s="20"/>
+      <c r="BB38" s="20"/>
+      <c r="BC38" s="20"/>
+      <c r="BD38" s="20"/>
+      <c r="BE38" s="20"/>
+      <c r="BF38" s="20"/>
+      <c r="BG38" s="20"/>
+      <c r="BH38" s="20"/>
+      <c r="BI38" s="20"/>
+      <c r="BJ38" s="20"/>
+      <c r="BK38" s="20"/>
+      <c r="BL38" s="20"/>
+      <c r="BM38" s="20"/>
+      <c r="BN38" s="20"/>
+      <c r="BO38" s="20"/>
+      <c r="BP38" s="20"/>
+      <c r="BQ38" s="20"/>
+      <c r="BR38" s="20"/>
+      <c r="BS38" s="20"/>
+      <c r="BT38" s="20"/>
+      <c r="BU38" s="20"/>
+      <c r="BV38" s="20"/>
+      <c r="BW38" s="11"/>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:75">
       <c r="A39" s="8" t="s">
         <v>45</v>
       </c>
@@ -5101,27 +5139,27 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
       <c r="AE39" s="6"/>
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
@@ -5141,12 +5179,12 @@
       </c>
       <c r="AT39" s="6"/>
       <c r="AU39" s="6"/>
-      <c r="AV39" s="8"/>
+      <c r="AV39" s="6"/>
       <c r="AW39" s="8"/>
-      <c r="AX39" s="8" t="s">
+      <c r="AX39" s="8"/>
+      <c r="AY39" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AY39" s="8"/>
       <c r="AZ39" s="8"/>
       <c r="BA39" s="8"/>
       <c r="BB39" s="8"/>
@@ -5154,7 +5192,7 @@
       <c r="BD39" s="8"/>
       <c r="BE39" s="8"/>
       <c r="BF39" s="8"/>
-      <c r="BG39" s="7"/>
+      <c r="BG39" s="8"/>
       <c r="BH39" s="7"/>
       <c r="BI39" s="7"/>
       <c r="BJ39" s="7"/>
@@ -5170,8 +5208,9 @@
       <c r="BT39" s="7"/>
       <c r="BU39" s="7"/>
       <c r="BV39" s="7"/>
+      <c r="BW39" s="7"/>
     </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:75">
       <c r="A40" s="8" t="s">
         <v>85</v>
       </c>
@@ -5183,27 +5222,27 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
       <c r="AE40" s="6"/>
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
@@ -5221,24 +5260,24 @@
       <c r="AS40" s="6"/>
       <c r="AT40" s="6"/>
       <c r="AU40" s="6"/>
-      <c r="AV40" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="AV40" s="6"/>
       <c r="AW40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AX40" s="8"/>
-      <c r="AY40" s="8" t="s">
+      <c r="AX40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AZ40" s="8"/>
+      <c r="AY40" s="8"/>
+      <c r="AZ40" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="BA40" s="8"/>
       <c r="BB40" s="8"/>
       <c r="BC40" s="8"/>
       <c r="BD40" s="8"/>
       <c r="BE40" s="8"/>
       <c r="BF40" s="8"/>
-      <c r="BG40" s="7"/>
+      <c r="BG40" s="8"/>
       <c r="BH40" s="7"/>
       <c r="BI40" s="7"/>
       <c r="BJ40" s="7"/>
@@ -5254,8 +5293,9 @@
       <c r="BT40" s="7"/>
       <c r="BU40" s="7"/>
       <c r="BV40" s="7"/>
+      <c r="BW40" s="7"/>
     </row>
-    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:75">
       <c r="A41" s="8" t="s">
         <v>86</v>
       </c>
@@ -5267,27 +5307,27 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="24"/>
-      <c r="AD41" s="24"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
       <c r="AE41" s="6"/>
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
@@ -5305,20 +5345,20 @@
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
-      <c r="AV41" s="8"/>
+      <c r="AV41" s="6"/>
       <c r="AW41" s="8"/>
       <c r="AX41" s="8"/>
       <c r="AY41" s="8"/>
-      <c r="AZ41" s="8" t="s">
+      <c r="AZ41" s="8"/>
+      <c r="BA41" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="BA41" s="8"/>
       <c r="BB41" s="8"/>
       <c r="BC41" s="8"/>
       <c r="BD41" s="8"/>
       <c r="BE41" s="8"/>
       <c r="BF41" s="8"/>
-      <c r="BG41" s="7"/>
+      <c r="BG41" s="8"/>
       <c r="BH41" s="7"/>
       <c r="BI41" s="7"/>
       <c r="BJ41" s="7"/>
@@ -5334,8 +5374,9 @@
       <c r="BT41" s="7"/>
       <c r="BU41" s="7"/>
       <c r="BV41" s="7"/>
+      <c r="BW41" s="7"/>
     </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:75">
       <c r="A42" s="8" t="s">
         <v>87</v>
       </c>
@@ -5347,27 +5388,27 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
       <c r="AE42" s="6"/>
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
@@ -5385,20 +5426,20 @@
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
-      <c r="AV42" s="8"/>
+      <c r="AV42" s="6"/>
       <c r="AW42" s="8"/>
       <c r="AX42" s="8"/>
       <c r="AY42" s="8"/>
       <c r="AZ42" s="8"/>
-      <c r="BA42" s="8" t="s">
+      <c r="BA42" s="8"/>
+      <c r="BB42" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="BB42" s="8"/>
       <c r="BC42" s="8"/>
       <c r="BD42" s="8"/>
       <c r="BE42" s="8"/>
       <c r="BF42" s="8"/>
-      <c r="BG42" s="7"/>
+      <c r="BG42" s="8"/>
       <c r="BH42" s="7"/>
       <c r="BI42" s="7"/>
       <c r="BJ42" s="7"/>
@@ -5414,8 +5455,9 @@
       <c r="BT42" s="7"/>
       <c r="BU42" s="7"/>
       <c r="BV42" s="7"/>
+      <c r="BW42" s="7"/>
     </row>
-    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:75">
       <c r="A43" s="8" t="s">
         <v>88</v>
       </c>
@@ -5427,27 +5469,27 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="24"/>
-      <c r="AD43" s="24"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
       <c r="AE43" s="6"/>
       <c r="AF43" s="6"/>
       <c r="AG43" s="6"/>
@@ -5465,7 +5507,7 @@
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
-      <c r="AV43" s="8"/>
+      <c r="AV43" s="6"/>
       <c r="AW43" s="8"/>
       <c r="AX43" s="8"/>
       <c r="AY43" s="8"/>
@@ -5475,10 +5517,10 @@
       <c r="BC43" s="8"/>
       <c r="BD43" s="8"/>
       <c r="BE43" s="8"/>
-      <c r="BF43" s="8" t="s">
+      <c r="BF43" s="8"/>
+      <c r="BG43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BG43" s="7"/>
       <c r="BH43" s="7"/>
       <c r="BI43" s="7"/>
       <c r="BJ43" s="7"/>
@@ -5494,8 +5536,9 @@
       <c r="BT43" s="7"/>
       <c r="BU43" s="7"/>
       <c r="BV43" s="7"/>
+      <c r="BW43" s="7"/>
     </row>
-    <row r="44" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:75">
       <c r="A44" s="8" t="s">
         <v>89</v>
       </c>
@@ -5507,27 +5550,27 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
-      <c r="AA44" s="24"/>
-      <c r="AB44" s="24"/>
-      <c r="AC44" s="24"/>
-      <c r="AD44" s="24"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
       <c r="AE44" s="6"/>
       <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
@@ -5545,7 +5588,7 @@
       <c r="AS44" s="6"/>
       <c r="AT44" s="6"/>
       <c r="AU44" s="6"/>
-      <c r="AV44" s="8"/>
+      <c r="AV44" s="6"/>
       <c r="AW44" s="8"/>
       <c r="AX44" s="8"/>
       <c r="AY44" s="8"/>
@@ -5554,11 +5597,11 @@
       <c r="BB44" s="8"/>
       <c r="BC44" s="8"/>
       <c r="BD44" s="8"/>
-      <c r="BE44" s="8" t="s">
+      <c r="BE44" s="8"/>
+      <c r="BF44" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF44" s="8"/>
-      <c r="BG44" s="7"/>
+      <c r="BG44" s="8"/>
       <c r="BH44" s="7"/>
       <c r="BI44" s="7"/>
       <c r="BJ44" s="7"/>
@@ -5574,8 +5617,9 @@
       <c r="BT44" s="7"/>
       <c r="BU44" s="7"/>
       <c r="BV44" s="7"/>
+      <c r="BW44" s="7"/>
     </row>
-    <row r="45" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:75">
       <c r="A45" s="8" t="s">
         <v>90</v>
       </c>
@@ -5587,27 +5631,27 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="24"/>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
@@ -5625,7 +5669,7 @@
       <c r="AS45" s="6"/>
       <c r="AT45" s="6"/>
       <c r="AU45" s="6"/>
-      <c r="AV45" s="8"/>
+      <c r="AV45" s="6"/>
       <c r="AW45" s="8"/>
       <c r="AX45" s="8"/>
       <c r="AY45" s="8"/>
@@ -5633,12 +5677,12 @@
       <c r="BA45" s="8"/>
       <c r="BB45" s="8"/>
       <c r="BC45" s="8"/>
-      <c r="BD45" s="8" t="s">
+      <c r="BD45" s="8"/>
+      <c r="BE45" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BE45" s="8"/>
       <c r="BF45" s="8"/>
-      <c r="BG45" s="7"/>
+      <c r="BG45" s="8"/>
       <c r="BH45" s="7"/>
       <c r="BI45" s="7"/>
       <c r="BJ45" s="7"/>
@@ -5654,8 +5698,9 @@
       <c r="BT45" s="7"/>
       <c r="BU45" s="7"/>
       <c r="BV45" s="7"/>
+      <c r="BW45" s="7"/>
     </row>
-    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:75">
       <c r="A46" s="8" t="s">
         <v>91</v>
       </c>
@@ -5667,27 +5712,27 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
       <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
       <c r="AG46" s="6"/>
@@ -5705,20 +5750,20 @@
       <c r="AS46" s="6"/>
       <c r="AT46" s="6"/>
       <c r="AU46" s="6"/>
-      <c r="AV46" s="8"/>
+      <c r="AV46" s="6"/>
       <c r="AW46" s="8"/>
       <c r="AX46" s="8"/>
       <c r="AY46" s="8"/>
       <c r="AZ46" s="8"/>
       <c r="BA46" s="8"/>
       <c r="BB46" s="8"/>
-      <c r="BC46" s="8" t="s">
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BD46" s="8"/>
       <c r="BE46" s="8"/>
       <c r="BF46" s="8"/>
-      <c r="BG46" s="7"/>
+      <c r="BG46" s="8"/>
       <c r="BH46" s="7"/>
       <c r="BI46" s="7"/>
       <c r="BJ46" s="7"/>
@@ -5734,14 +5779,15 @@
       <c r="BT46" s="7"/>
       <c r="BU46" s="7"/>
       <c r="BV46" s="7"/>
+      <c r="BW46" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:BU2"/>
-    <mergeCell ref="A38:BU38"/>
-    <mergeCell ref="A31:BU31"/>
-    <mergeCell ref="A17:BU17"/>
-    <mergeCell ref="A6:BU6"/>
+    <mergeCell ref="A2:BV2"/>
+    <mergeCell ref="A38:BV38"/>
+    <mergeCell ref="A31:BV31"/>
+    <mergeCell ref="A17:BV17"/>
+    <mergeCell ref="A6:BV6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5751,12 +5797,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5764,12 +5810,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
